--- a/static/bh_import_template.xlsx
+++ b/static/bh_import_template.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,14 +431,15 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,40 +455,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>名稱</t>
+          <t>R代理</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Budget</t>
+          <t>名稱</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>StartDate</t>
+          <t>Budget</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EndDate</t>
+          <t>StartDate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CPCGoal</t>
+          <t>EndDate</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CPAGoal</t>
+          <t>CPCGoal</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>CPAGoal</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>R的cv定義</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Token</t>
         </is>
@@ -499,41 +505,44 @@
           <t>R</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="2" t="n">
+        <v>111222</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
-          <t>111222</t>
+          <t>4A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Rixbee 範例帳戶</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>50000</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>250</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>CompleteCheckout</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,37 +550,36 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>333444</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>333444</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Discovery 範例帳戶</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>30000</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>200</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>example_token_abcdef123</t>
         </is>
@@ -579,4995 +587,4998 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="n"/>
-      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="2" t="n"/>
-      <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="2" t="n"/>
-      <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n"/>
-      <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n"/>
-      <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="2" t="n"/>
-      <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="2" t="n"/>
-      <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="n"/>
-      <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="2" t="n"/>
-      <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="2" t="n"/>
-      <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="2" t="n"/>
-      <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="n"/>
-      <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="n"/>
-      <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n"/>
-      <c r="E17" s="3" t="n"/>
       <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="2" t="n"/>
-      <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="n"/>
-      <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="n"/>
-      <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="2" t="n"/>
-      <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="2" t="n"/>
-      <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="2" t="n"/>
-      <c r="E23" s="3" t="n"/>
       <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="2" t="n"/>
-      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="2" t="n"/>
-      <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="2" t="n"/>
-      <c r="E26" s="3" t="n"/>
       <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="2" t="n"/>
-      <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="2" t="n"/>
-      <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="2" t="n"/>
-      <c r="E29" s="3" t="n"/>
       <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="2" t="n"/>
-      <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="2" t="n"/>
-      <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="2" t="n"/>
-      <c r="E32" s="3" t="n"/>
       <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="2" t="n"/>
-      <c r="E33" s="3" t="n"/>
       <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="2" t="n"/>
-      <c r="E34" s="3" t="n"/>
       <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="2" t="n"/>
-      <c r="E35" s="3" t="n"/>
       <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="2" t="n"/>
-      <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="2" t="n"/>
-      <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="B38" s="2" t="n"/>
-      <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="2" t="n"/>
-      <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="B40" s="2" t="n"/>
-      <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="2" t="n"/>
-      <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="2" t="n"/>
-      <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="2" t="n"/>
-      <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="2" t="n"/>
-      <c r="E44" s="3" t="n"/>
       <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="2" t="n"/>
-      <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="2" t="n"/>
-      <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="B47" s="2" t="n"/>
-      <c r="E47" s="3" t="n"/>
       <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="2" t="n"/>
-      <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="B49" s="2" t="n"/>
-      <c r="E49" s="3" t="n"/>
       <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="B50" s="2" t="n"/>
-      <c r="E50" s="3" t="n"/>
       <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="B51" s="2" t="n"/>
-      <c r="E51" s="3" t="n"/>
       <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="B52" s="2" t="n"/>
-      <c r="E52" s="3" t="n"/>
       <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="B53" s="2" t="n"/>
-      <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="2" t="n"/>
-      <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="B55" s="2" t="n"/>
-      <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="B56" s="2" t="n"/>
-      <c r="E56" s="3" t="n"/>
       <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="B57" s="2" t="n"/>
-      <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="B58" s="2" t="n"/>
-      <c r="E58" s="3" t="n"/>
       <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="B59" s="2" t="n"/>
-      <c r="E59" s="3" t="n"/>
       <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="2" t="n"/>
-      <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="B61" s="2" t="n"/>
-      <c r="E61" s="3" t="n"/>
       <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="B62" s="2" t="n"/>
-      <c r="E62" s="3" t="n"/>
       <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="B63" s="2" t="n"/>
-      <c r="E63" s="3" t="n"/>
       <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="B64" s="2" t="n"/>
-      <c r="E64" s="3" t="n"/>
       <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="B65" s="2" t="n"/>
-      <c r="E65" s="3" t="n"/>
       <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="B66" s="2" t="n"/>
-      <c r="E66" s="3" t="n"/>
       <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="B67" s="2" t="n"/>
-      <c r="E67" s="3" t="n"/>
       <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="B68" s="2" t="n"/>
-      <c r="E68" s="3" t="n"/>
       <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="n"/>
-      <c r="E69" s="3" t="n"/>
       <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="2" t="n"/>
-      <c r="E70" s="3" t="n"/>
       <c r="F70" s="3" t="n"/>
+      <c r="G70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="n"/>
-      <c r="E71" s="3" t="n"/>
       <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="n"/>
-      <c r="E72" s="3" t="n"/>
       <c r="F72" s="3" t="n"/>
+      <c r="G72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="n"/>
-      <c r="E73" s="3" t="n"/>
       <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="2" t="n"/>
-      <c r="E74" s="3" t="n"/>
       <c r="F74" s="3" t="n"/>
+      <c r="G74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="2" t="n"/>
-      <c r="E75" s="3" t="n"/>
       <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="2" t="n"/>
-      <c r="E76" s="3" t="n"/>
       <c r="F76" s="3" t="n"/>
+      <c r="G76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="B77" s="2" t="n"/>
-      <c r="E77" s="3" t="n"/>
       <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="B78" s="2" t="n"/>
-      <c r="E78" s="3" t="n"/>
       <c r="F78" s="3" t="n"/>
+      <c r="G78" s="3" t="n"/>
     </row>
     <row r="79">
       <c r="B79" s="2" t="n"/>
-      <c r="E79" s="3" t="n"/>
       <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="B80" s="2" t="n"/>
-      <c r="E80" s="3" t="n"/>
       <c r="F80" s="3" t="n"/>
+      <c r="G80" s="3" t="n"/>
     </row>
     <row r="81">
       <c r="B81" s="2" t="n"/>
-      <c r="E81" s="3" t="n"/>
       <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
     </row>
     <row r="82">
       <c r="B82" s="2" t="n"/>
-      <c r="E82" s="3" t="n"/>
       <c r="F82" s="3" t="n"/>
+      <c r="G82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="B83" s="2" t="n"/>
-      <c r="E83" s="3" t="n"/>
       <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="B84" s="2" t="n"/>
-      <c r="E84" s="3" t="n"/>
       <c r="F84" s="3" t="n"/>
+      <c r="G84" s="3" t="n"/>
     </row>
     <row r="85">
       <c r="B85" s="2" t="n"/>
-      <c r="E85" s="3" t="n"/>
       <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="B86" s="2" t="n"/>
-      <c r="E86" s="3" t="n"/>
       <c r="F86" s="3" t="n"/>
+      <c r="G86" s="3" t="n"/>
     </row>
     <row r="87">
       <c r="B87" s="2" t="n"/>
-      <c r="E87" s="3" t="n"/>
       <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="B88" s="2" t="n"/>
-      <c r="E88" s="3" t="n"/>
       <c r="F88" s="3" t="n"/>
+      <c r="G88" s="3" t="n"/>
     </row>
     <row r="89">
       <c r="B89" s="2" t="n"/>
-      <c r="E89" s="3" t="n"/>
       <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
     </row>
     <row r="90">
       <c r="B90" s="2" t="n"/>
-      <c r="E90" s="3" t="n"/>
       <c r="F90" s="3" t="n"/>
+      <c r="G90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="B91" s="2" t="n"/>
-      <c r="E91" s="3" t="n"/>
       <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="B92" s="2" t="n"/>
-      <c r="E92" s="3" t="n"/>
       <c r="F92" s="3" t="n"/>
+      <c r="G92" s="3" t="n"/>
     </row>
     <row r="93">
       <c r="B93" s="2" t="n"/>
-      <c r="E93" s="3" t="n"/>
       <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
     </row>
     <row r="94">
       <c r="B94" s="2" t="n"/>
-      <c r="E94" s="3" t="n"/>
       <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="n"/>
     </row>
     <row r="95">
       <c r="B95" s="2" t="n"/>
-      <c r="E95" s="3" t="n"/>
       <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="B96" s="2" t="n"/>
-      <c r="E96" s="3" t="n"/>
       <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
     </row>
     <row r="97">
       <c r="B97" s="2" t="n"/>
-      <c r="E97" s="3" t="n"/>
       <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
     </row>
     <row r="98">
       <c r="B98" s="2" t="n"/>
-      <c r="E98" s="3" t="n"/>
       <c r="F98" s="3" t="n"/>
+      <c r="G98" s="3" t="n"/>
     </row>
     <row r="99">
       <c r="B99" s="2" t="n"/>
-      <c r="E99" s="3" t="n"/>
       <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="B100" s="2" t="n"/>
-      <c r="E100" s="3" t="n"/>
       <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
     </row>
     <row r="101">
       <c r="B101" s="2" t="n"/>
-      <c r="E101" s="3" t="n"/>
       <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
     </row>
     <row r="102">
       <c r="B102" s="2" t="n"/>
-      <c r="E102" s="3" t="n"/>
       <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="n"/>
     </row>
     <row r="103">
       <c r="B103" s="2" t="n"/>
-      <c r="E103" s="3" t="n"/>
       <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="B104" s="2" t="n"/>
-      <c r="E104" s="3" t="n"/>
       <c r="F104" s="3" t="n"/>
+      <c r="G104" s="3" t="n"/>
     </row>
     <row r="105">
       <c r="B105" s="2" t="n"/>
-      <c r="E105" s="3" t="n"/>
       <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="B106" s="2" t="n"/>
-      <c r="E106" s="3" t="n"/>
       <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
     </row>
     <row r="107">
       <c r="B107" s="2" t="n"/>
-      <c r="E107" s="3" t="n"/>
       <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="B108" s="2" t="n"/>
-      <c r="E108" s="3" t="n"/>
       <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
     </row>
     <row r="109">
       <c r="B109" s="2" t="n"/>
-      <c r="E109" s="3" t="n"/>
       <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
     </row>
     <row r="110">
       <c r="B110" s="2" t="n"/>
-      <c r="E110" s="3" t="n"/>
       <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
     </row>
     <row r="111">
       <c r="B111" s="2" t="n"/>
-      <c r="E111" s="3" t="n"/>
       <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="B112" s="2" t="n"/>
-      <c r="E112" s="3" t="n"/>
       <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
     </row>
     <row r="113">
       <c r="B113" s="2" t="n"/>
-      <c r="E113" s="3" t="n"/>
       <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
     </row>
     <row r="114">
       <c r="B114" s="2" t="n"/>
-      <c r="E114" s="3" t="n"/>
       <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
     </row>
     <row r="115">
       <c r="B115" s="2" t="n"/>
-      <c r="E115" s="3" t="n"/>
       <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="B116" s="2" t="n"/>
-      <c r="E116" s="3" t="n"/>
       <c r="F116" s="3" t="n"/>
+      <c r="G116" s="3" t="n"/>
     </row>
     <row r="117">
       <c r="B117" s="2" t="n"/>
-      <c r="E117" s="3" t="n"/>
       <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="B118" s="2" t="n"/>
-      <c r="E118" s="3" t="n"/>
       <c r="F118" s="3" t="n"/>
+      <c r="G118" s="3" t="n"/>
     </row>
     <row r="119">
       <c r="B119" s="2" t="n"/>
-      <c r="E119" s="3" t="n"/>
       <c r="F119" s="3" t="n"/>
+      <c r="G119" s="3" t="n"/>
     </row>
     <row r="120">
       <c r="B120" s="2" t="n"/>
-      <c r="E120" s="3" t="n"/>
       <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
     </row>
     <row r="121">
       <c r="B121" s="2" t="n"/>
-      <c r="E121" s="3" t="n"/>
       <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
     </row>
     <row r="122">
       <c r="B122" s="2" t="n"/>
-      <c r="E122" s="3" t="n"/>
       <c r="F122" s="3" t="n"/>
+      <c r="G122" s="3" t="n"/>
     </row>
     <row r="123">
       <c r="B123" s="2" t="n"/>
-      <c r="E123" s="3" t="n"/>
       <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="B124" s="2" t="n"/>
-      <c r="E124" s="3" t="n"/>
       <c r="F124" s="3" t="n"/>
+      <c r="G124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="B125" s="2" t="n"/>
-      <c r="E125" s="3" t="n"/>
       <c r="F125" s="3" t="n"/>
+      <c r="G125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="B126" s="2" t="n"/>
-      <c r="E126" s="3" t="n"/>
       <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="B127" s="2" t="n"/>
-      <c r="E127" s="3" t="n"/>
       <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
     </row>
     <row r="128">
       <c r="B128" s="2" t="n"/>
-      <c r="E128" s="3" t="n"/>
       <c r="F128" s="3" t="n"/>
+      <c r="G128" s="3" t="n"/>
     </row>
     <row r="129">
       <c r="B129" s="2" t="n"/>
-      <c r="E129" s="3" t="n"/>
       <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
     </row>
     <row r="130">
       <c r="B130" s="2" t="n"/>
-      <c r="E130" s="3" t="n"/>
       <c r="F130" s="3" t="n"/>
+      <c r="G130" s="3" t="n"/>
     </row>
     <row r="131">
       <c r="B131" s="2" t="n"/>
-      <c r="E131" s="3" t="n"/>
       <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
     </row>
     <row r="132">
       <c r="B132" s="2" t="n"/>
-      <c r="E132" s="3" t="n"/>
       <c r="F132" s="3" t="n"/>
+      <c r="G132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="B133" s="2" t="n"/>
-      <c r="E133" s="3" t="n"/>
       <c r="F133" s="3" t="n"/>
+      <c r="G133" s="3" t="n"/>
     </row>
     <row r="134">
       <c r="B134" s="2" t="n"/>
-      <c r="E134" s="3" t="n"/>
       <c r="F134" s="3" t="n"/>
+      <c r="G134" s="3" t="n"/>
     </row>
     <row r="135">
       <c r="B135" s="2" t="n"/>
-      <c r="E135" s="3" t="n"/>
       <c r="F135" s="3" t="n"/>
+      <c r="G135" s="3" t="n"/>
     </row>
     <row r="136">
       <c r="B136" s="2" t="n"/>
-      <c r="E136" s="3" t="n"/>
       <c r="F136" s="3" t="n"/>
+      <c r="G136" s="3" t="n"/>
     </row>
     <row r="137">
       <c r="B137" s="2" t="n"/>
-      <c r="E137" s="3" t="n"/>
       <c r="F137" s="3" t="n"/>
+      <c r="G137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="B138" s="2" t="n"/>
-      <c r="E138" s="3" t="n"/>
       <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="B139" s="2" t="n"/>
-      <c r="E139" s="3" t="n"/>
       <c r="F139" s="3" t="n"/>
+      <c r="G139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="B140" s="2" t="n"/>
-      <c r="E140" s="3" t="n"/>
       <c r="F140" s="3" t="n"/>
+      <c r="G140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="B141" s="2" t="n"/>
-      <c r="E141" s="3" t="n"/>
       <c r="F141" s="3" t="n"/>
+      <c r="G141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="B142" s="2" t="n"/>
-      <c r="E142" s="3" t="n"/>
       <c r="F142" s="3" t="n"/>
+      <c r="G142" s="3" t="n"/>
     </row>
     <row r="143">
       <c r="B143" s="2" t="n"/>
-      <c r="E143" s="3" t="n"/>
       <c r="F143" s="3" t="n"/>
+      <c r="G143" s="3" t="n"/>
     </row>
     <row r="144">
       <c r="B144" s="2" t="n"/>
-      <c r="E144" s="3" t="n"/>
       <c r="F144" s="3" t="n"/>
+      <c r="G144" s="3" t="n"/>
     </row>
     <row r="145">
       <c r="B145" s="2" t="n"/>
-      <c r="E145" s="3" t="n"/>
       <c r="F145" s="3" t="n"/>
+      <c r="G145" s="3" t="n"/>
     </row>
     <row r="146">
       <c r="B146" s="2" t="n"/>
-      <c r="E146" s="3" t="n"/>
       <c r="F146" s="3" t="n"/>
+      <c r="G146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="B147" s="2" t="n"/>
-      <c r="E147" s="3" t="n"/>
       <c r="F147" s="3" t="n"/>
+      <c r="G147" s="3" t="n"/>
     </row>
     <row r="148">
       <c r="B148" s="2" t="n"/>
-      <c r="E148" s="3" t="n"/>
       <c r="F148" s="3" t="n"/>
+      <c r="G148" s="3" t="n"/>
     </row>
     <row r="149">
       <c r="B149" s="2" t="n"/>
-      <c r="E149" s="3" t="n"/>
       <c r="F149" s="3" t="n"/>
+      <c r="G149" s="3" t="n"/>
     </row>
     <row r="150">
       <c r="B150" s="2" t="n"/>
-      <c r="E150" s="3" t="n"/>
       <c r="F150" s="3" t="n"/>
+      <c r="G150" s="3" t="n"/>
     </row>
     <row r="151">
       <c r="B151" s="2" t="n"/>
-      <c r="E151" s="3" t="n"/>
       <c r="F151" s="3" t="n"/>
+      <c r="G151" s="3" t="n"/>
     </row>
     <row r="152">
       <c r="B152" s="2" t="n"/>
-      <c r="E152" s="3" t="n"/>
       <c r="F152" s="3" t="n"/>
+      <c r="G152" s="3" t="n"/>
     </row>
     <row r="153">
       <c r="B153" s="2" t="n"/>
-      <c r="E153" s="3" t="n"/>
       <c r="F153" s="3" t="n"/>
+      <c r="G153" s="3" t="n"/>
     </row>
     <row r="154">
       <c r="B154" s="2" t="n"/>
-      <c r="E154" s="3" t="n"/>
       <c r="F154" s="3" t="n"/>
+      <c r="G154" s="3" t="n"/>
     </row>
     <row r="155">
       <c r="B155" s="2" t="n"/>
-      <c r="E155" s="3" t="n"/>
       <c r="F155" s="3" t="n"/>
+      <c r="G155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="B156" s="2" t="n"/>
-      <c r="E156" s="3" t="n"/>
       <c r="F156" s="3" t="n"/>
+      <c r="G156" s="3" t="n"/>
     </row>
     <row r="157">
       <c r="B157" s="2" t="n"/>
-      <c r="E157" s="3" t="n"/>
       <c r="F157" s="3" t="n"/>
+      <c r="G157" s="3" t="n"/>
     </row>
     <row r="158">
       <c r="B158" s="2" t="n"/>
-      <c r="E158" s="3" t="n"/>
       <c r="F158" s="3" t="n"/>
+      <c r="G158" s="3" t="n"/>
     </row>
     <row r="159">
       <c r="B159" s="2" t="n"/>
-      <c r="E159" s="3" t="n"/>
       <c r="F159" s="3" t="n"/>
+      <c r="G159" s="3" t="n"/>
     </row>
     <row r="160">
       <c r="B160" s="2" t="n"/>
-      <c r="E160" s="3" t="n"/>
       <c r="F160" s="3" t="n"/>
+      <c r="G160" s="3" t="n"/>
     </row>
     <row r="161">
       <c r="B161" s="2" t="n"/>
-      <c r="E161" s="3" t="n"/>
       <c r="F161" s="3" t="n"/>
+      <c r="G161" s="3" t="n"/>
     </row>
     <row r="162">
       <c r="B162" s="2" t="n"/>
-      <c r="E162" s="3" t="n"/>
       <c r="F162" s="3" t="n"/>
+      <c r="G162" s="3" t="n"/>
     </row>
     <row r="163">
       <c r="B163" s="2" t="n"/>
-      <c r="E163" s="3" t="n"/>
       <c r="F163" s="3" t="n"/>
+      <c r="G163" s="3" t="n"/>
     </row>
     <row r="164">
       <c r="B164" s="2" t="n"/>
-      <c r="E164" s="3" t="n"/>
       <c r="F164" s="3" t="n"/>
+      <c r="G164" s="3" t="n"/>
     </row>
     <row r="165">
       <c r="B165" s="2" t="n"/>
-      <c r="E165" s="3" t="n"/>
       <c r="F165" s="3" t="n"/>
+      <c r="G165" s="3" t="n"/>
     </row>
     <row r="166">
       <c r="B166" s="2" t="n"/>
-      <c r="E166" s="3" t="n"/>
       <c r="F166" s="3" t="n"/>
+      <c r="G166" s="3" t="n"/>
     </row>
     <row r="167">
       <c r="B167" s="2" t="n"/>
-      <c r="E167" s="3" t="n"/>
       <c r="F167" s="3" t="n"/>
+      <c r="G167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="B168" s="2" t="n"/>
-      <c r="E168" s="3" t="n"/>
       <c r="F168" s="3" t="n"/>
+      <c r="G168" s="3" t="n"/>
     </row>
     <row r="169">
       <c r="B169" s="2" t="n"/>
-      <c r="E169" s="3" t="n"/>
       <c r="F169" s="3" t="n"/>
+      <c r="G169" s="3" t="n"/>
     </row>
     <row r="170">
       <c r="B170" s="2" t="n"/>
-      <c r="E170" s="3" t="n"/>
       <c r="F170" s="3" t="n"/>
+      <c r="G170" s="3" t="n"/>
     </row>
     <row r="171">
       <c r="B171" s="2" t="n"/>
-      <c r="E171" s="3" t="n"/>
       <c r="F171" s="3" t="n"/>
+      <c r="G171" s="3" t="n"/>
     </row>
     <row r="172">
       <c r="B172" s="2" t="n"/>
-      <c r="E172" s="3" t="n"/>
       <c r="F172" s="3" t="n"/>
+      <c r="G172" s="3" t="n"/>
     </row>
     <row r="173">
       <c r="B173" s="2" t="n"/>
-      <c r="E173" s="3" t="n"/>
       <c r="F173" s="3" t="n"/>
+      <c r="G173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="B174" s="2" t="n"/>
-      <c r="E174" s="3" t="n"/>
       <c r="F174" s="3" t="n"/>
+      <c r="G174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="B175" s="2" t="n"/>
-      <c r="E175" s="3" t="n"/>
       <c r="F175" s="3" t="n"/>
+      <c r="G175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="B176" s="2" t="n"/>
-      <c r="E176" s="3" t="n"/>
       <c r="F176" s="3" t="n"/>
+      <c r="G176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="B177" s="2" t="n"/>
-      <c r="E177" s="3" t="n"/>
       <c r="F177" s="3" t="n"/>
+      <c r="G177" s="3" t="n"/>
     </row>
     <row r="178">
       <c r="B178" s="2" t="n"/>
-      <c r="E178" s="3" t="n"/>
       <c r="F178" s="3" t="n"/>
+      <c r="G178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="B179" s="2" t="n"/>
-      <c r="E179" s="3" t="n"/>
       <c r="F179" s="3" t="n"/>
+      <c r="G179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="B180" s="2" t="n"/>
-      <c r="E180" s="3" t="n"/>
       <c r="F180" s="3" t="n"/>
+      <c r="G180" s="3" t="n"/>
     </row>
     <row r="181">
       <c r="B181" s="2" t="n"/>
-      <c r="E181" s="3" t="n"/>
       <c r="F181" s="3" t="n"/>
+      <c r="G181" s="3" t="n"/>
     </row>
     <row r="182">
       <c r="B182" s="2" t="n"/>
-      <c r="E182" s="3" t="n"/>
       <c r="F182" s="3" t="n"/>
+      <c r="G182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="B183" s="2" t="n"/>
-      <c r="E183" s="3" t="n"/>
       <c r="F183" s="3" t="n"/>
+      <c r="G183" s="3" t="n"/>
     </row>
     <row r="184">
       <c r="B184" s="2" t="n"/>
-      <c r="E184" s="3" t="n"/>
       <c r="F184" s="3" t="n"/>
+      <c r="G184" s="3" t="n"/>
     </row>
     <row r="185">
       <c r="B185" s="2" t="n"/>
-      <c r="E185" s="3" t="n"/>
       <c r="F185" s="3" t="n"/>
+      <c r="G185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="B186" s="2" t="n"/>
-      <c r="E186" s="3" t="n"/>
       <c r="F186" s="3" t="n"/>
+      <c r="G186" s="3" t="n"/>
     </row>
     <row r="187">
       <c r="B187" s="2" t="n"/>
-      <c r="E187" s="3" t="n"/>
       <c r="F187" s="3" t="n"/>
+      <c r="G187" s="3" t="n"/>
     </row>
     <row r="188">
       <c r="B188" s="2" t="n"/>
-      <c r="E188" s="3" t="n"/>
       <c r="F188" s="3" t="n"/>
+      <c r="G188" s="3" t="n"/>
     </row>
     <row r="189">
       <c r="B189" s="2" t="n"/>
-      <c r="E189" s="3" t="n"/>
       <c r="F189" s="3" t="n"/>
+      <c r="G189" s="3" t="n"/>
     </row>
     <row r="190">
       <c r="B190" s="2" t="n"/>
-      <c r="E190" s="3" t="n"/>
       <c r="F190" s="3" t="n"/>
+      <c r="G190" s="3" t="n"/>
     </row>
     <row r="191">
       <c r="B191" s="2" t="n"/>
-      <c r="E191" s="3" t="n"/>
       <c r="F191" s="3" t="n"/>
+      <c r="G191" s="3" t="n"/>
     </row>
     <row r="192">
       <c r="B192" s="2" t="n"/>
-      <c r="E192" s="3" t="n"/>
       <c r="F192" s="3" t="n"/>
+      <c r="G192" s="3" t="n"/>
     </row>
     <row r="193">
       <c r="B193" s="2" t="n"/>
-      <c r="E193" s="3" t="n"/>
       <c r="F193" s="3" t="n"/>
+      <c r="G193" s="3" t="n"/>
     </row>
     <row r="194">
       <c r="B194" s="2" t="n"/>
-      <c r="E194" s="3" t="n"/>
       <c r="F194" s="3" t="n"/>
+      <c r="G194" s="3" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="2" t="n"/>
-      <c r="E195" s="3" t="n"/>
       <c r="F195" s="3" t="n"/>
+      <c r="G195" s="3" t="n"/>
     </row>
     <row r="196">
       <c r="B196" s="2" t="n"/>
-      <c r="E196" s="3" t="n"/>
       <c r="F196" s="3" t="n"/>
+      <c r="G196" s="3" t="n"/>
     </row>
     <row r="197">
       <c r="B197" s="2" t="n"/>
-      <c r="E197" s="3" t="n"/>
       <c r="F197" s="3" t="n"/>
+      <c r="G197" s="3" t="n"/>
     </row>
     <row r="198">
       <c r="B198" s="2" t="n"/>
-      <c r="E198" s="3" t="n"/>
       <c r="F198" s="3" t="n"/>
+      <c r="G198" s="3" t="n"/>
     </row>
     <row r="199">
       <c r="B199" s="2" t="n"/>
-      <c r="E199" s="3" t="n"/>
       <c r="F199" s="3" t="n"/>
+      <c r="G199" s="3" t="n"/>
     </row>
     <row r="200">
       <c r="B200" s="2" t="n"/>
-      <c r="E200" s="3" t="n"/>
       <c r="F200" s="3" t="n"/>
+      <c r="G200" s="3" t="n"/>
     </row>
     <row r="201">
       <c r="B201" s="2" t="n"/>
-      <c r="E201" s="3" t="n"/>
       <c r="F201" s="3" t="n"/>
+      <c r="G201" s="3" t="n"/>
     </row>
     <row r="202">
       <c r="B202" s="2" t="n"/>
-      <c r="E202" s="3" t="n"/>
       <c r="F202" s="3" t="n"/>
+      <c r="G202" s="3" t="n"/>
     </row>
     <row r="203">
       <c r="B203" s="2" t="n"/>
-      <c r="E203" s="3" t="n"/>
       <c r="F203" s="3" t="n"/>
+      <c r="G203" s="3" t="n"/>
     </row>
     <row r="204">
       <c r="B204" s="2" t="n"/>
-      <c r="E204" s="3" t="n"/>
       <c r="F204" s="3" t="n"/>
+      <c r="G204" s="3" t="n"/>
     </row>
     <row r="205">
       <c r="B205" s="2" t="n"/>
-      <c r="E205" s="3" t="n"/>
       <c r="F205" s="3" t="n"/>
+      <c r="G205" s="3" t="n"/>
     </row>
     <row r="206">
       <c r="B206" s="2" t="n"/>
-      <c r="E206" s="3" t="n"/>
       <c r="F206" s="3" t="n"/>
+      <c r="G206" s="3" t="n"/>
     </row>
     <row r="207">
       <c r="B207" s="2" t="n"/>
-      <c r="E207" s="3" t="n"/>
       <c r="F207" s="3" t="n"/>
+      <c r="G207" s="3" t="n"/>
     </row>
     <row r="208">
       <c r="B208" s="2" t="n"/>
-      <c r="E208" s="3" t="n"/>
       <c r="F208" s="3" t="n"/>
+      <c r="G208" s="3" t="n"/>
     </row>
     <row r="209">
       <c r="B209" s="2" t="n"/>
-      <c r="E209" s="3" t="n"/>
       <c r="F209" s="3" t="n"/>
+      <c r="G209" s="3" t="n"/>
     </row>
     <row r="210">
       <c r="B210" s="2" t="n"/>
-      <c r="E210" s="3" t="n"/>
       <c r="F210" s="3" t="n"/>
+      <c r="G210" s="3" t="n"/>
     </row>
     <row r="211">
       <c r="B211" s="2" t="n"/>
-      <c r="E211" s="3" t="n"/>
       <c r="F211" s="3" t="n"/>
+      <c r="G211" s="3" t="n"/>
     </row>
     <row r="212">
       <c r="B212" s="2" t="n"/>
-      <c r="E212" s="3" t="n"/>
       <c r="F212" s="3" t="n"/>
+      <c r="G212" s="3" t="n"/>
     </row>
     <row r="213">
       <c r="B213" s="2" t="n"/>
-      <c r="E213" s="3" t="n"/>
       <c r="F213" s="3" t="n"/>
+      <c r="G213" s="3" t="n"/>
     </row>
     <row r="214">
       <c r="B214" s="2" t="n"/>
-      <c r="E214" s="3" t="n"/>
       <c r="F214" s="3" t="n"/>
+      <c r="G214" s="3" t="n"/>
     </row>
     <row r="215">
       <c r="B215" s="2" t="n"/>
-      <c r="E215" s="3" t="n"/>
       <c r="F215" s="3" t="n"/>
+      <c r="G215" s="3" t="n"/>
     </row>
     <row r="216">
       <c r="B216" s="2" t="n"/>
-      <c r="E216" s="3" t="n"/>
       <c r="F216" s="3" t="n"/>
+      <c r="G216" s="3" t="n"/>
     </row>
     <row r="217">
       <c r="B217" s="2" t="n"/>
-      <c r="E217" s="3" t="n"/>
       <c r="F217" s="3" t="n"/>
+      <c r="G217" s="3" t="n"/>
     </row>
     <row r="218">
       <c r="B218" s="2" t="n"/>
-      <c r="E218" s="3" t="n"/>
       <c r="F218" s="3" t="n"/>
+      <c r="G218" s="3" t="n"/>
     </row>
     <row r="219">
       <c r="B219" s="2" t="n"/>
-      <c r="E219" s="3" t="n"/>
       <c r="F219" s="3" t="n"/>
+      <c r="G219" s="3" t="n"/>
     </row>
     <row r="220">
       <c r="B220" s="2" t="n"/>
-      <c r="E220" s="3" t="n"/>
       <c r="F220" s="3" t="n"/>
+      <c r="G220" s="3" t="n"/>
     </row>
     <row r="221">
       <c r="B221" s="2" t="n"/>
-      <c r="E221" s="3" t="n"/>
       <c r="F221" s="3" t="n"/>
+      <c r="G221" s="3" t="n"/>
     </row>
     <row r="222">
       <c r="B222" s="2" t="n"/>
-      <c r="E222" s="3" t="n"/>
       <c r="F222" s="3" t="n"/>
+      <c r="G222" s="3" t="n"/>
     </row>
     <row r="223">
       <c r="B223" s="2" t="n"/>
-      <c r="E223" s="3" t="n"/>
       <c r="F223" s="3" t="n"/>
+      <c r="G223" s="3" t="n"/>
     </row>
     <row r="224">
       <c r="B224" s="2" t="n"/>
-      <c r="E224" s="3" t="n"/>
       <c r="F224" s="3" t="n"/>
+      <c r="G224" s="3" t="n"/>
     </row>
     <row r="225">
       <c r="B225" s="2" t="n"/>
-      <c r="E225" s="3" t="n"/>
       <c r="F225" s="3" t="n"/>
+      <c r="G225" s="3" t="n"/>
     </row>
     <row r="226">
       <c r="B226" s="2" t="n"/>
-      <c r="E226" s="3" t="n"/>
       <c r="F226" s="3" t="n"/>
+      <c r="G226" s="3" t="n"/>
     </row>
     <row r="227">
       <c r="B227" s="2" t="n"/>
-      <c r="E227" s="3" t="n"/>
       <c r="F227" s="3" t="n"/>
+      <c r="G227" s="3" t="n"/>
     </row>
     <row r="228">
       <c r="B228" s="2" t="n"/>
-      <c r="E228" s="3" t="n"/>
       <c r="F228" s="3" t="n"/>
+      <c r="G228" s="3" t="n"/>
     </row>
     <row r="229">
       <c r="B229" s="2" t="n"/>
-      <c r="E229" s="3" t="n"/>
       <c r="F229" s="3" t="n"/>
+      <c r="G229" s="3" t="n"/>
     </row>
     <row r="230">
       <c r="B230" s="2" t="n"/>
-      <c r="E230" s="3" t="n"/>
       <c r="F230" s="3" t="n"/>
+      <c r="G230" s="3" t="n"/>
     </row>
     <row r="231">
       <c r="B231" s="2" t="n"/>
-      <c r="E231" s="3" t="n"/>
       <c r="F231" s="3" t="n"/>
+      <c r="G231" s="3" t="n"/>
     </row>
     <row r="232">
       <c r="B232" s="2" t="n"/>
-      <c r="E232" s="3" t="n"/>
       <c r="F232" s="3" t="n"/>
+      <c r="G232" s="3" t="n"/>
     </row>
     <row r="233">
       <c r="B233" s="2" t="n"/>
-      <c r="E233" s="3" t="n"/>
       <c r="F233" s="3" t="n"/>
+      <c r="G233" s="3" t="n"/>
     </row>
     <row r="234">
       <c r="B234" s="2" t="n"/>
-      <c r="E234" s="3" t="n"/>
       <c r="F234" s="3" t="n"/>
+      <c r="G234" s="3" t="n"/>
     </row>
     <row r="235">
       <c r="B235" s="2" t="n"/>
-      <c r="E235" s="3" t="n"/>
       <c r="F235" s="3" t="n"/>
+      <c r="G235" s="3" t="n"/>
     </row>
     <row r="236">
       <c r="B236" s="2" t="n"/>
-      <c r="E236" s="3" t="n"/>
       <c r="F236" s="3" t="n"/>
+      <c r="G236" s="3" t="n"/>
     </row>
     <row r="237">
       <c r="B237" s="2" t="n"/>
-      <c r="E237" s="3" t="n"/>
       <c r="F237" s="3" t="n"/>
+      <c r="G237" s="3" t="n"/>
     </row>
     <row r="238">
       <c r="B238" s="2" t="n"/>
-      <c r="E238" s="3" t="n"/>
       <c r="F238" s="3" t="n"/>
+      <c r="G238" s="3" t="n"/>
     </row>
     <row r="239">
       <c r="B239" s="2" t="n"/>
-      <c r="E239" s="3" t="n"/>
       <c r="F239" s="3" t="n"/>
+      <c r="G239" s="3" t="n"/>
     </row>
     <row r="240">
       <c r="B240" s="2" t="n"/>
-      <c r="E240" s="3" t="n"/>
       <c r="F240" s="3" t="n"/>
+      <c r="G240" s="3" t="n"/>
     </row>
     <row r="241">
       <c r="B241" s="2" t="n"/>
-      <c r="E241" s="3" t="n"/>
       <c r="F241" s="3" t="n"/>
+      <c r="G241" s="3" t="n"/>
     </row>
     <row r="242">
       <c r="B242" s="2" t="n"/>
-      <c r="E242" s="3" t="n"/>
       <c r="F242" s="3" t="n"/>
+      <c r="G242" s="3" t="n"/>
     </row>
     <row r="243">
       <c r="B243" s="2" t="n"/>
-      <c r="E243" s="3" t="n"/>
       <c r="F243" s="3" t="n"/>
+      <c r="G243" s="3" t="n"/>
     </row>
     <row r="244">
       <c r="B244" s="2" t="n"/>
-      <c r="E244" s="3" t="n"/>
       <c r="F244" s="3" t="n"/>
+      <c r="G244" s="3" t="n"/>
     </row>
     <row r="245">
       <c r="B245" s="2" t="n"/>
-      <c r="E245" s="3" t="n"/>
       <c r="F245" s="3" t="n"/>
+      <c r="G245" s="3" t="n"/>
     </row>
     <row r="246">
       <c r="B246" s="2" t="n"/>
-      <c r="E246" s="3" t="n"/>
       <c r="F246" s="3" t="n"/>
+      <c r="G246" s="3" t="n"/>
     </row>
     <row r="247">
       <c r="B247" s="2" t="n"/>
-      <c r="E247" s="3" t="n"/>
       <c r="F247" s="3" t="n"/>
+      <c r="G247" s="3" t="n"/>
     </row>
     <row r="248">
       <c r="B248" s="2" t="n"/>
-      <c r="E248" s="3" t="n"/>
       <c r="F248" s="3" t="n"/>
+      <c r="G248" s="3" t="n"/>
     </row>
     <row r="249">
       <c r="B249" s="2" t="n"/>
-      <c r="E249" s="3" t="n"/>
       <c r="F249" s="3" t="n"/>
+      <c r="G249" s="3" t="n"/>
     </row>
     <row r="250">
       <c r="B250" s="2" t="n"/>
-      <c r="E250" s="3" t="n"/>
       <c r="F250" s="3" t="n"/>
+      <c r="G250" s="3" t="n"/>
     </row>
     <row r="251">
       <c r="B251" s="2" t="n"/>
-      <c r="E251" s="3" t="n"/>
       <c r="F251" s="3" t="n"/>
+      <c r="G251" s="3" t="n"/>
     </row>
     <row r="252">
       <c r="B252" s="2" t="n"/>
-      <c r="E252" s="3" t="n"/>
       <c r="F252" s="3" t="n"/>
+      <c r="G252" s="3" t="n"/>
     </row>
     <row r="253">
       <c r="B253" s="2" t="n"/>
-      <c r="E253" s="3" t="n"/>
       <c r="F253" s="3" t="n"/>
+      <c r="G253" s="3" t="n"/>
     </row>
     <row r="254">
       <c r="B254" s="2" t="n"/>
-      <c r="E254" s="3" t="n"/>
       <c r="F254" s="3" t="n"/>
+      <c r="G254" s="3" t="n"/>
     </row>
     <row r="255">
       <c r="B255" s="2" t="n"/>
-      <c r="E255" s="3" t="n"/>
       <c r="F255" s="3" t="n"/>
+      <c r="G255" s="3" t="n"/>
     </row>
     <row r="256">
       <c r="B256" s="2" t="n"/>
-      <c r="E256" s="3" t="n"/>
       <c r="F256" s="3" t="n"/>
+      <c r="G256" s="3" t="n"/>
     </row>
     <row r="257">
       <c r="B257" s="2" t="n"/>
-      <c r="E257" s="3" t="n"/>
       <c r="F257" s="3" t="n"/>
+      <c r="G257" s="3" t="n"/>
     </row>
     <row r="258">
       <c r="B258" s="2" t="n"/>
-      <c r="E258" s="3" t="n"/>
       <c r="F258" s="3" t="n"/>
+      <c r="G258" s="3" t="n"/>
     </row>
     <row r="259">
       <c r="B259" s="2" t="n"/>
-      <c r="E259" s="3" t="n"/>
       <c r="F259" s="3" t="n"/>
+      <c r="G259" s="3" t="n"/>
     </row>
     <row r="260">
       <c r="B260" s="2" t="n"/>
-      <c r="E260" s="3" t="n"/>
       <c r="F260" s="3" t="n"/>
+      <c r="G260" s="3" t="n"/>
     </row>
     <row r="261">
       <c r="B261" s="2" t="n"/>
-      <c r="E261" s="3" t="n"/>
       <c r="F261" s="3" t="n"/>
+      <c r="G261" s="3" t="n"/>
     </row>
     <row r="262">
       <c r="B262" s="2" t="n"/>
-      <c r="E262" s="3" t="n"/>
       <c r="F262" s="3" t="n"/>
+      <c r="G262" s="3" t="n"/>
     </row>
     <row r="263">
       <c r="B263" s="2" t="n"/>
-      <c r="E263" s="3" t="n"/>
       <c r="F263" s="3" t="n"/>
+      <c r="G263" s="3" t="n"/>
     </row>
     <row r="264">
       <c r="B264" s="2" t="n"/>
-      <c r="E264" s="3" t="n"/>
       <c r="F264" s="3" t="n"/>
+      <c r="G264" s="3" t="n"/>
     </row>
     <row r="265">
       <c r="B265" s="2" t="n"/>
-      <c r="E265" s="3" t="n"/>
       <c r="F265" s="3" t="n"/>
+      <c r="G265" s="3" t="n"/>
     </row>
     <row r="266">
       <c r="B266" s="2" t="n"/>
-      <c r="E266" s="3" t="n"/>
       <c r="F266" s="3" t="n"/>
+      <c r="G266" s="3" t="n"/>
     </row>
     <row r="267">
       <c r="B267" s="2" t="n"/>
-      <c r="E267" s="3" t="n"/>
       <c r="F267" s="3" t="n"/>
+      <c r="G267" s="3" t="n"/>
     </row>
     <row r="268">
       <c r="B268" s="2" t="n"/>
-      <c r="E268" s="3" t="n"/>
       <c r="F268" s="3" t="n"/>
+      <c r="G268" s="3" t="n"/>
     </row>
     <row r="269">
       <c r="B269" s="2" t="n"/>
-      <c r="E269" s="3" t="n"/>
       <c r="F269" s="3" t="n"/>
+      <c r="G269" s="3" t="n"/>
     </row>
     <row r="270">
       <c r="B270" s="2" t="n"/>
-      <c r="E270" s="3" t="n"/>
       <c r="F270" s="3" t="n"/>
+      <c r="G270" s="3" t="n"/>
     </row>
     <row r="271">
       <c r="B271" s="2" t="n"/>
-      <c r="E271" s="3" t="n"/>
       <c r="F271" s="3" t="n"/>
+      <c r="G271" s="3" t="n"/>
     </row>
     <row r="272">
       <c r="B272" s="2" t="n"/>
-      <c r="E272" s="3" t="n"/>
       <c r="F272" s="3" t="n"/>
+      <c r="G272" s="3" t="n"/>
     </row>
     <row r="273">
       <c r="B273" s="2" t="n"/>
-      <c r="E273" s="3" t="n"/>
       <c r="F273" s="3" t="n"/>
+      <c r="G273" s="3" t="n"/>
     </row>
     <row r="274">
       <c r="B274" s="2" t="n"/>
-      <c r="E274" s="3" t="n"/>
       <c r="F274" s="3" t="n"/>
+      <c r="G274" s="3" t="n"/>
     </row>
     <row r="275">
       <c r="B275" s="2" t="n"/>
-      <c r="E275" s="3" t="n"/>
       <c r="F275" s="3" t="n"/>
+      <c r="G275" s="3" t="n"/>
     </row>
     <row r="276">
       <c r="B276" s="2" t="n"/>
-      <c r="E276" s="3" t="n"/>
       <c r="F276" s="3" t="n"/>
+      <c r="G276" s="3" t="n"/>
     </row>
     <row r="277">
       <c r="B277" s="2" t="n"/>
-      <c r="E277" s="3" t="n"/>
       <c r="F277" s="3" t="n"/>
+      <c r="G277" s="3" t="n"/>
     </row>
     <row r="278">
       <c r="B278" s="2" t="n"/>
-      <c r="E278" s="3" t="n"/>
       <c r="F278" s="3" t="n"/>
+      <c r="G278" s="3" t="n"/>
     </row>
     <row r="279">
       <c r="B279" s="2" t="n"/>
-      <c r="E279" s="3" t="n"/>
       <c r="F279" s="3" t="n"/>
+      <c r="G279" s="3" t="n"/>
     </row>
     <row r="280">
       <c r="B280" s="2" t="n"/>
-      <c r="E280" s="3" t="n"/>
       <c r="F280" s="3" t="n"/>
+      <c r="G280" s="3" t="n"/>
     </row>
     <row r="281">
       <c r="B281" s="2" t="n"/>
-      <c r="E281" s="3" t="n"/>
       <c r="F281" s="3" t="n"/>
+      <c r="G281" s="3" t="n"/>
     </row>
     <row r="282">
       <c r="B282" s="2" t="n"/>
-      <c r="E282" s="3" t="n"/>
       <c r="F282" s="3" t="n"/>
+      <c r="G282" s="3" t="n"/>
     </row>
     <row r="283">
       <c r="B283" s="2" t="n"/>
-      <c r="E283" s="3" t="n"/>
       <c r="F283" s="3" t="n"/>
+      <c r="G283" s="3" t="n"/>
     </row>
     <row r="284">
       <c r="B284" s="2" t="n"/>
-      <c r="E284" s="3" t="n"/>
       <c r="F284" s="3" t="n"/>
+      <c r="G284" s="3" t="n"/>
     </row>
     <row r="285">
       <c r="B285" s="2" t="n"/>
-      <c r="E285" s="3" t="n"/>
       <c r="F285" s="3" t="n"/>
+      <c r="G285" s="3" t="n"/>
     </row>
     <row r="286">
       <c r="B286" s="2" t="n"/>
-      <c r="E286" s="3" t="n"/>
       <c r="F286" s="3" t="n"/>
+      <c r="G286" s="3" t="n"/>
     </row>
     <row r="287">
       <c r="B287" s="2" t="n"/>
-      <c r="E287" s="3" t="n"/>
       <c r="F287" s="3" t="n"/>
+      <c r="G287" s="3" t="n"/>
     </row>
     <row r="288">
       <c r="B288" s="2" t="n"/>
-      <c r="E288" s="3" t="n"/>
       <c r="F288" s="3" t="n"/>
+      <c r="G288" s="3" t="n"/>
     </row>
     <row r="289">
       <c r="B289" s="2" t="n"/>
-      <c r="E289" s="3" t="n"/>
       <c r="F289" s="3" t="n"/>
+      <c r="G289" s="3" t="n"/>
     </row>
     <row r="290">
       <c r="B290" s="2" t="n"/>
-      <c r="E290" s="3" t="n"/>
       <c r="F290" s="3" t="n"/>
+      <c r="G290" s="3" t="n"/>
     </row>
     <row r="291">
       <c r="B291" s="2" t="n"/>
-      <c r="E291" s="3" t="n"/>
       <c r="F291" s="3" t="n"/>
+      <c r="G291" s="3" t="n"/>
     </row>
     <row r="292">
       <c r="B292" s="2" t="n"/>
-      <c r="E292" s="3" t="n"/>
       <c r="F292" s="3" t="n"/>
+      <c r="G292" s="3" t="n"/>
     </row>
     <row r="293">
       <c r="B293" s="2" t="n"/>
-      <c r="E293" s="3" t="n"/>
       <c r="F293" s="3" t="n"/>
+      <c r="G293" s="3" t="n"/>
     </row>
     <row r="294">
       <c r="B294" s="2" t="n"/>
-      <c r="E294" s="3" t="n"/>
       <c r="F294" s="3" t="n"/>
+      <c r="G294" s="3" t="n"/>
     </row>
     <row r="295">
       <c r="B295" s="2" t="n"/>
-      <c r="E295" s="3" t="n"/>
       <c r="F295" s="3" t="n"/>
+      <c r="G295" s="3" t="n"/>
     </row>
     <row r="296">
       <c r="B296" s="2" t="n"/>
-      <c r="E296" s="3" t="n"/>
       <c r="F296" s="3" t="n"/>
+      <c r="G296" s="3" t="n"/>
     </row>
     <row r="297">
       <c r="B297" s="2" t="n"/>
-      <c r="E297" s="3" t="n"/>
       <c r="F297" s="3" t="n"/>
+      <c r="G297" s="3" t="n"/>
     </row>
     <row r="298">
       <c r="B298" s="2" t="n"/>
-      <c r="E298" s="3" t="n"/>
       <c r="F298" s="3" t="n"/>
+      <c r="G298" s="3" t="n"/>
     </row>
     <row r="299">
       <c r="B299" s="2" t="n"/>
-      <c r="E299" s="3" t="n"/>
       <c r="F299" s="3" t="n"/>
+      <c r="G299" s="3" t="n"/>
     </row>
     <row r="300">
       <c r="B300" s="2" t="n"/>
-      <c r="E300" s="3" t="n"/>
       <c r="F300" s="3" t="n"/>
+      <c r="G300" s="3" t="n"/>
     </row>
     <row r="301">
       <c r="B301" s="2" t="n"/>
-      <c r="E301" s="3" t="n"/>
       <c r="F301" s="3" t="n"/>
+      <c r="G301" s="3" t="n"/>
     </row>
     <row r="302">
       <c r="B302" s="2" t="n"/>
-      <c r="E302" s="3" t="n"/>
       <c r="F302" s="3" t="n"/>
+      <c r="G302" s="3" t="n"/>
     </row>
     <row r="303">
       <c r="B303" s="2" t="n"/>
-      <c r="E303" s="3" t="n"/>
       <c r="F303" s="3" t="n"/>
+      <c r="G303" s="3" t="n"/>
     </row>
     <row r="304">
       <c r="B304" s="2" t="n"/>
-      <c r="E304" s="3" t="n"/>
       <c r="F304" s="3" t="n"/>
+      <c r="G304" s="3" t="n"/>
     </row>
     <row r="305">
       <c r="B305" s="2" t="n"/>
-      <c r="E305" s="3" t="n"/>
       <c r="F305" s="3" t="n"/>
+      <c r="G305" s="3" t="n"/>
     </row>
     <row r="306">
       <c r="B306" s="2" t="n"/>
-      <c r="E306" s="3" t="n"/>
       <c r="F306" s="3" t="n"/>
+      <c r="G306" s="3" t="n"/>
     </row>
     <row r="307">
       <c r="B307" s="2" t="n"/>
-      <c r="E307" s="3" t="n"/>
       <c r="F307" s="3" t="n"/>
+      <c r="G307" s="3" t="n"/>
     </row>
     <row r="308">
       <c r="B308" s="2" t="n"/>
-      <c r="E308" s="3" t="n"/>
       <c r="F308" s="3" t="n"/>
+      <c r="G308" s="3" t="n"/>
     </row>
     <row r="309">
       <c r="B309" s="2" t="n"/>
-      <c r="E309" s="3" t="n"/>
       <c r="F309" s="3" t="n"/>
+      <c r="G309" s="3" t="n"/>
     </row>
     <row r="310">
       <c r="B310" s="2" t="n"/>
-      <c r="E310" s="3" t="n"/>
       <c r="F310" s="3" t="n"/>
+      <c r="G310" s="3" t="n"/>
     </row>
     <row r="311">
       <c r="B311" s="2" t="n"/>
-      <c r="E311" s="3" t="n"/>
       <c r="F311" s="3" t="n"/>
+      <c r="G311" s="3" t="n"/>
     </row>
     <row r="312">
       <c r="B312" s="2" t="n"/>
-      <c r="E312" s="3" t="n"/>
       <c r="F312" s="3" t="n"/>
+      <c r="G312" s="3" t="n"/>
     </row>
     <row r="313">
       <c r="B313" s="2" t="n"/>
-      <c r="E313" s="3" t="n"/>
       <c r="F313" s="3" t="n"/>
+      <c r="G313" s="3" t="n"/>
     </row>
     <row r="314">
       <c r="B314" s="2" t="n"/>
-      <c r="E314" s="3" t="n"/>
       <c r="F314" s="3" t="n"/>
+      <c r="G314" s="3" t="n"/>
     </row>
     <row r="315">
       <c r="B315" s="2" t="n"/>
-      <c r="E315" s="3" t="n"/>
       <c r="F315" s="3" t="n"/>
+      <c r="G315" s="3" t="n"/>
     </row>
     <row r="316">
       <c r="B316" s="2" t="n"/>
-      <c r="E316" s="3" t="n"/>
       <c r="F316" s="3" t="n"/>
+      <c r="G316" s="3" t="n"/>
     </row>
     <row r="317">
       <c r="B317" s="2" t="n"/>
-      <c r="E317" s="3" t="n"/>
       <c r="F317" s="3" t="n"/>
+      <c r="G317" s="3" t="n"/>
     </row>
     <row r="318">
       <c r="B318" s="2" t="n"/>
-      <c r="E318" s="3" t="n"/>
       <c r="F318" s="3" t="n"/>
+      <c r="G318" s="3" t="n"/>
     </row>
     <row r="319">
       <c r="B319" s="2" t="n"/>
-      <c r="E319" s="3" t="n"/>
       <c r="F319" s="3" t="n"/>
+      <c r="G319" s="3" t="n"/>
     </row>
     <row r="320">
       <c r="B320" s="2" t="n"/>
-      <c r="E320" s="3" t="n"/>
       <c r="F320" s="3" t="n"/>
+      <c r="G320" s="3" t="n"/>
     </row>
     <row r="321">
       <c r="B321" s="2" t="n"/>
-      <c r="E321" s="3" t="n"/>
       <c r="F321" s="3" t="n"/>
+      <c r="G321" s="3" t="n"/>
     </row>
     <row r="322">
       <c r="B322" s="2" t="n"/>
-      <c r="E322" s="3" t="n"/>
       <c r="F322" s="3" t="n"/>
+      <c r="G322" s="3" t="n"/>
     </row>
     <row r="323">
       <c r="B323" s="2" t="n"/>
-      <c r="E323" s="3" t="n"/>
       <c r="F323" s="3" t="n"/>
+      <c r="G323" s="3" t="n"/>
     </row>
     <row r="324">
       <c r="B324" s="2" t="n"/>
-      <c r="E324" s="3" t="n"/>
       <c r="F324" s="3" t="n"/>
+      <c r="G324" s="3" t="n"/>
     </row>
     <row r="325">
       <c r="B325" s="2" t="n"/>
-      <c r="E325" s="3" t="n"/>
       <c r="F325" s="3" t="n"/>
+      <c r="G325" s="3" t="n"/>
     </row>
     <row r="326">
       <c r="B326" s="2" t="n"/>
-      <c r="E326" s="3" t="n"/>
       <c r="F326" s="3" t="n"/>
+      <c r="G326" s="3" t="n"/>
     </row>
     <row r="327">
       <c r="B327" s="2" t="n"/>
-      <c r="E327" s="3" t="n"/>
       <c r="F327" s="3" t="n"/>
+      <c r="G327" s="3" t="n"/>
     </row>
     <row r="328">
       <c r="B328" s="2" t="n"/>
-      <c r="E328" s="3" t="n"/>
       <c r="F328" s="3" t="n"/>
+      <c r="G328" s="3" t="n"/>
     </row>
     <row r="329">
       <c r="B329" s="2" t="n"/>
-      <c r="E329" s="3" t="n"/>
       <c r="F329" s="3" t="n"/>
+      <c r="G329" s="3" t="n"/>
     </row>
     <row r="330">
       <c r="B330" s="2" t="n"/>
-      <c r="E330" s="3" t="n"/>
       <c r="F330" s="3" t="n"/>
+      <c r="G330" s="3" t="n"/>
     </row>
     <row r="331">
       <c r="B331" s="2" t="n"/>
-      <c r="E331" s="3" t="n"/>
       <c r="F331" s="3" t="n"/>
+      <c r="G331" s="3" t="n"/>
     </row>
     <row r="332">
       <c r="B332" s="2" t="n"/>
-      <c r="E332" s="3" t="n"/>
       <c r="F332" s="3" t="n"/>
+      <c r="G332" s="3" t="n"/>
     </row>
     <row r="333">
       <c r="B333" s="2" t="n"/>
-      <c r="E333" s="3" t="n"/>
       <c r="F333" s="3" t="n"/>
+      <c r="G333" s="3" t="n"/>
     </row>
     <row r="334">
       <c r="B334" s="2" t="n"/>
-      <c r="E334" s="3" t="n"/>
       <c r="F334" s="3" t="n"/>
+      <c r="G334" s="3" t="n"/>
     </row>
     <row r="335">
       <c r="B335" s="2" t="n"/>
-      <c r="E335" s="3" t="n"/>
       <c r="F335" s="3" t="n"/>
+      <c r="G335" s="3" t="n"/>
     </row>
     <row r="336">
       <c r="B336" s="2" t="n"/>
-      <c r="E336" s="3" t="n"/>
       <c r="F336" s="3" t="n"/>
+      <c r="G336" s="3" t="n"/>
     </row>
     <row r="337">
       <c r="B337" s="2" t="n"/>
-      <c r="E337" s="3" t="n"/>
       <c r="F337" s="3" t="n"/>
+      <c r="G337" s="3" t="n"/>
     </row>
     <row r="338">
       <c r="B338" s="2" t="n"/>
-      <c r="E338" s="3" t="n"/>
       <c r="F338" s="3" t="n"/>
+      <c r="G338" s="3" t="n"/>
     </row>
     <row r="339">
       <c r="B339" s="2" t="n"/>
-      <c r="E339" s="3" t="n"/>
       <c r="F339" s="3" t="n"/>
+      <c r="G339" s="3" t="n"/>
     </row>
     <row r="340">
       <c r="B340" s="2" t="n"/>
-      <c r="E340" s="3" t="n"/>
       <c r="F340" s="3" t="n"/>
+      <c r="G340" s="3" t="n"/>
     </row>
     <row r="341">
       <c r="B341" s="2" t="n"/>
-      <c r="E341" s="3" t="n"/>
       <c r="F341" s="3" t="n"/>
+      <c r="G341" s="3" t="n"/>
     </row>
     <row r="342">
       <c r="B342" s="2" t="n"/>
-      <c r="E342" s="3" t="n"/>
       <c r="F342" s="3" t="n"/>
+      <c r="G342" s="3" t="n"/>
     </row>
     <row r="343">
       <c r="B343" s="2" t="n"/>
-      <c r="E343" s="3" t="n"/>
       <c r="F343" s="3" t="n"/>
+      <c r="G343" s="3" t="n"/>
     </row>
     <row r="344">
       <c r="B344" s="2" t="n"/>
-      <c r="E344" s="3" t="n"/>
       <c r="F344" s="3" t="n"/>
+      <c r="G344" s="3" t="n"/>
     </row>
     <row r="345">
       <c r="B345" s="2" t="n"/>
-      <c r="E345" s="3" t="n"/>
       <c r="F345" s="3" t="n"/>
+      <c r="G345" s="3" t="n"/>
     </row>
     <row r="346">
       <c r="B346" s="2" t="n"/>
-      <c r="E346" s="3" t="n"/>
       <c r="F346" s="3" t="n"/>
+      <c r="G346" s="3" t="n"/>
     </row>
     <row r="347">
       <c r="B347" s="2" t="n"/>
-      <c r="E347" s="3" t="n"/>
       <c r="F347" s="3" t="n"/>
+      <c r="G347" s="3" t="n"/>
     </row>
     <row r="348">
       <c r="B348" s="2" t="n"/>
-      <c r="E348" s="3" t="n"/>
       <c r="F348" s="3" t="n"/>
+      <c r="G348" s="3" t="n"/>
     </row>
     <row r="349">
       <c r="B349" s="2" t="n"/>
-      <c r="E349" s="3" t="n"/>
       <c r="F349" s="3" t="n"/>
+      <c r="G349" s="3" t="n"/>
     </row>
     <row r="350">
       <c r="B350" s="2" t="n"/>
-      <c r="E350" s="3" t="n"/>
       <c r="F350" s="3" t="n"/>
+      <c r="G350" s="3" t="n"/>
     </row>
     <row r="351">
       <c r="B351" s="2" t="n"/>
-      <c r="E351" s="3" t="n"/>
       <c r="F351" s="3" t="n"/>
+      <c r="G351" s="3" t="n"/>
     </row>
     <row r="352">
       <c r="B352" s="2" t="n"/>
-      <c r="E352" s="3" t="n"/>
       <c r="F352" s="3" t="n"/>
+      <c r="G352" s="3" t="n"/>
     </row>
     <row r="353">
       <c r="B353" s="2" t="n"/>
-      <c r="E353" s="3" t="n"/>
       <c r="F353" s="3" t="n"/>
+      <c r="G353" s="3" t="n"/>
     </row>
     <row r="354">
       <c r="B354" s="2" t="n"/>
-      <c r="E354" s="3" t="n"/>
       <c r="F354" s="3" t="n"/>
+      <c r="G354" s="3" t="n"/>
     </row>
     <row r="355">
       <c r="B355" s="2" t="n"/>
-      <c r="E355" s="3" t="n"/>
       <c r="F355" s="3" t="n"/>
+      <c r="G355" s="3" t="n"/>
     </row>
     <row r="356">
       <c r="B356" s="2" t="n"/>
-      <c r="E356" s="3" t="n"/>
       <c r="F356" s="3" t="n"/>
+      <c r="G356" s="3" t="n"/>
     </row>
     <row r="357">
       <c r="B357" s="2" t="n"/>
-      <c r="E357" s="3" t="n"/>
       <c r="F357" s="3" t="n"/>
+      <c r="G357" s="3" t="n"/>
     </row>
     <row r="358">
       <c r="B358" s="2" t="n"/>
-      <c r="E358" s="3" t="n"/>
       <c r="F358" s="3" t="n"/>
+      <c r="G358" s="3" t="n"/>
     </row>
     <row r="359">
       <c r="B359" s="2" t="n"/>
-      <c r="E359" s="3" t="n"/>
       <c r="F359" s="3" t="n"/>
+      <c r="G359" s="3" t="n"/>
     </row>
     <row r="360">
       <c r="B360" s="2" t="n"/>
-      <c r="E360" s="3" t="n"/>
       <c r="F360" s="3" t="n"/>
+      <c r="G360" s="3" t="n"/>
     </row>
     <row r="361">
       <c r="B361" s="2" t="n"/>
-      <c r="E361" s="3" t="n"/>
       <c r="F361" s="3" t="n"/>
+      <c r="G361" s="3" t="n"/>
     </row>
     <row r="362">
       <c r="B362" s="2" t="n"/>
-      <c r="E362" s="3" t="n"/>
       <c r="F362" s="3" t="n"/>
+      <c r="G362" s="3" t="n"/>
     </row>
     <row r="363">
       <c r="B363" s="2" t="n"/>
-      <c r="E363" s="3" t="n"/>
       <c r="F363" s="3" t="n"/>
+      <c r="G363" s="3" t="n"/>
     </row>
     <row r="364">
       <c r="B364" s="2" t="n"/>
-      <c r="E364" s="3" t="n"/>
       <c r="F364" s="3" t="n"/>
+      <c r="G364" s="3" t="n"/>
     </row>
     <row r="365">
       <c r="B365" s="2" t="n"/>
-      <c r="E365" s="3" t="n"/>
       <c r="F365" s="3" t="n"/>
+      <c r="G365" s="3" t="n"/>
     </row>
     <row r="366">
       <c r="B366" s="2" t="n"/>
-      <c r="E366" s="3" t="n"/>
       <c r="F366" s="3" t="n"/>
+      <c r="G366" s="3" t="n"/>
     </row>
     <row r="367">
       <c r="B367" s="2" t="n"/>
-      <c r="E367" s="3" t="n"/>
       <c r="F367" s="3" t="n"/>
+      <c r="G367" s="3" t="n"/>
     </row>
     <row r="368">
       <c r="B368" s="2" t="n"/>
-      <c r="E368" s="3" t="n"/>
       <c r="F368" s="3" t="n"/>
+      <c r="G368" s="3" t="n"/>
     </row>
     <row r="369">
       <c r="B369" s="2" t="n"/>
-      <c r="E369" s="3" t="n"/>
       <c r="F369" s="3" t="n"/>
+      <c r="G369" s="3" t="n"/>
     </row>
     <row r="370">
       <c r="B370" s="2" t="n"/>
-      <c r="E370" s="3" t="n"/>
       <c r="F370" s="3" t="n"/>
+      <c r="G370" s="3" t="n"/>
     </row>
     <row r="371">
       <c r="B371" s="2" t="n"/>
-      <c r="E371" s="3" t="n"/>
       <c r="F371" s="3" t="n"/>
+      <c r="G371" s="3" t="n"/>
     </row>
     <row r="372">
       <c r="B372" s="2" t="n"/>
-      <c r="E372" s="3" t="n"/>
       <c r="F372" s="3" t="n"/>
+      <c r="G372" s="3" t="n"/>
     </row>
     <row r="373">
       <c r="B373" s="2" t="n"/>
-      <c r="E373" s="3" t="n"/>
       <c r="F373" s="3" t="n"/>
+      <c r="G373" s="3" t="n"/>
     </row>
     <row r="374">
       <c r="B374" s="2" t="n"/>
-      <c r="E374" s="3" t="n"/>
       <c r="F374" s="3" t="n"/>
+      <c r="G374" s="3" t="n"/>
     </row>
     <row r="375">
       <c r="B375" s="2" t="n"/>
-      <c r="E375" s="3" t="n"/>
       <c r="F375" s="3" t="n"/>
+      <c r="G375" s="3" t="n"/>
     </row>
     <row r="376">
       <c r="B376" s="2" t="n"/>
-      <c r="E376" s="3" t="n"/>
       <c r="F376" s="3" t="n"/>
+      <c r="G376" s="3" t="n"/>
     </row>
     <row r="377">
       <c r="B377" s="2" t="n"/>
-      <c r="E377" s="3" t="n"/>
       <c r="F377" s="3" t="n"/>
+      <c r="G377" s="3" t="n"/>
     </row>
     <row r="378">
       <c r="B378" s="2" t="n"/>
-      <c r="E378" s="3" t="n"/>
       <c r="F378" s="3" t="n"/>
+      <c r="G378" s="3" t="n"/>
     </row>
     <row r="379">
       <c r="B379" s="2" t="n"/>
-      <c r="E379" s="3" t="n"/>
       <c r="F379" s="3" t="n"/>
+      <c r="G379" s="3" t="n"/>
     </row>
     <row r="380">
       <c r="B380" s="2" t="n"/>
-      <c r="E380" s="3" t="n"/>
       <c r="F380" s="3" t="n"/>
+      <c r="G380" s="3" t="n"/>
     </row>
     <row r="381">
       <c r="B381" s="2" t="n"/>
-      <c r="E381" s="3" t="n"/>
       <c r="F381" s="3" t="n"/>
+      <c r="G381" s="3" t="n"/>
     </row>
     <row r="382">
       <c r="B382" s="2" t="n"/>
-      <c r="E382" s="3" t="n"/>
       <c r="F382" s="3" t="n"/>
+      <c r="G382" s="3" t="n"/>
     </row>
     <row r="383">
       <c r="B383" s="2" t="n"/>
-      <c r="E383" s="3" t="n"/>
       <c r="F383" s="3" t="n"/>
+      <c r="G383" s="3" t="n"/>
     </row>
     <row r="384">
       <c r="B384" s="2" t="n"/>
-      <c r="E384" s="3" t="n"/>
       <c r="F384" s="3" t="n"/>
+      <c r="G384" s="3" t="n"/>
     </row>
     <row r="385">
       <c r="B385" s="2" t="n"/>
-      <c r="E385" s="3" t="n"/>
       <c r="F385" s="3" t="n"/>
+      <c r="G385" s="3" t="n"/>
     </row>
     <row r="386">
       <c r="B386" s="2" t="n"/>
-      <c r="E386" s="3" t="n"/>
       <c r="F386" s="3" t="n"/>
+      <c r="G386" s="3" t="n"/>
     </row>
     <row r="387">
       <c r="B387" s="2" t="n"/>
-      <c r="E387" s="3" t="n"/>
       <c r="F387" s="3" t="n"/>
+      <c r="G387" s="3" t="n"/>
     </row>
     <row r="388">
       <c r="B388" s="2" t="n"/>
-      <c r="E388" s="3" t="n"/>
       <c r="F388" s="3" t="n"/>
+      <c r="G388" s="3" t="n"/>
     </row>
     <row r="389">
       <c r="B389" s="2" t="n"/>
-      <c r="E389" s="3" t="n"/>
       <c r="F389" s="3" t="n"/>
+      <c r="G389" s="3" t="n"/>
     </row>
     <row r="390">
       <c r="B390" s="2" t="n"/>
-      <c r="E390" s="3" t="n"/>
       <c r="F390" s="3" t="n"/>
+      <c r="G390" s="3" t="n"/>
     </row>
     <row r="391">
       <c r="B391" s="2" t="n"/>
-      <c r="E391" s="3" t="n"/>
       <c r="F391" s="3" t="n"/>
+      <c r="G391" s="3" t="n"/>
     </row>
     <row r="392">
       <c r="B392" s="2" t="n"/>
-      <c r="E392" s="3" t="n"/>
       <c r="F392" s="3" t="n"/>
+      <c r="G392" s="3" t="n"/>
     </row>
     <row r="393">
       <c r="B393" s="2" t="n"/>
-      <c r="E393" s="3" t="n"/>
       <c r="F393" s="3" t="n"/>
+      <c r="G393" s="3" t="n"/>
     </row>
     <row r="394">
       <c r="B394" s="2" t="n"/>
-      <c r="E394" s="3" t="n"/>
       <c r="F394" s="3" t="n"/>
+      <c r="G394" s="3" t="n"/>
     </row>
     <row r="395">
       <c r="B395" s="2" t="n"/>
-      <c r="E395" s="3" t="n"/>
       <c r="F395" s="3" t="n"/>
+      <c r="G395" s="3" t="n"/>
     </row>
     <row r="396">
       <c r="B396" s="2" t="n"/>
-      <c r="E396" s="3" t="n"/>
       <c r="F396" s="3" t="n"/>
+      <c r="G396" s="3" t="n"/>
     </row>
     <row r="397">
       <c r="B397" s="2" t="n"/>
-      <c r="E397" s="3" t="n"/>
       <c r="F397" s="3" t="n"/>
+      <c r="G397" s="3" t="n"/>
     </row>
     <row r="398">
       <c r="B398" s="2" t="n"/>
-      <c r="E398" s="3" t="n"/>
       <c r="F398" s="3" t="n"/>
+      <c r="G398" s="3" t="n"/>
     </row>
     <row r="399">
       <c r="B399" s="2" t="n"/>
-      <c r="E399" s="3" t="n"/>
       <c r="F399" s="3" t="n"/>
+      <c r="G399" s="3" t="n"/>
     </row>
     <row r="400">
       <c r="B400" s="2" t="n"/>
-      <c r="E400" s="3" t="n"/>
       <c r="F400" s="3" t="n"/>
+      <c r="G400" s="3" t="n"/>
     </row>
     <row r="401">
       <c r="B401" s="2" t="n"/>
-      <c r="E401" s="3" t="n"/>
       <c r="F401" s="3" t="n"/>
+      <c r="G401" s="3" t="n"/>
     </row>
     <row r="402">
       <c r="B402" s="2" t="n"/>
-      <c r="E402" s="3" t="n"/>
       <c r="F402" s="3" t="n"/>
+      <c r="G402" s="3" t="n"/>
     </row>
     <row r="403">
       <c r="B403" s="2" t="n"/>
-      <c r="E403" s="3" t="n"/>
       <c r="F403" s="3" t="n"/>
+      <c r="G403" s="3" t="n"/>
     </row>
     <row r="404">
       <c r="B404" s="2" t="n"/>
-      <c r="E404" s="3" t="n"/>
       <c r="F404" s="3" t="n"/>
+      <c r="G404" s="3" t="n"/>
     </row>
     <row r="405">
       <c r="B405" s="2" t="n"/>
-      <c r="E405" s="3" t="n"/>
       <c r="F405" s="3" t="n"/>
+      <c r="G405" s="3" t="n"/>
     </row>
     <row r="406">
       <c r="B406" s="2" t="n"/>
-      <c r="E406" s="3" t="n"/>
       <c r="F406" s="3" t="n"/>
+      <c r="G406" s="3" t="n"/>
     </row>
     <row r="407">
       <c r="B407" s="2" t="n"/>
-      <c r="E407" s="3" t="n"/>
       <c r="F407" s="3" t="n"/>
+      <c r="G407" s="3" t="n"/>
     </row>
     <row r="408">
       <c r="B408" s="2" t="n"/>
-      <c r="E408" s="3" t="n"/>
       <c r="F408" s="3" t="n"/>
+      <c r="G408" s="3" t="n"/>
     </row>
     <row r="409">
       <c r="B409" s="2" t="n"/>
-      <c r="E409" s="3" t="n"/>
       <c r="F409" s="3" t="n"/>
+      <c r="G409" s="3" t="n"/>
     </row>
     <row r="410">
       <c r="B410" s="2" t="n"/>
-      <c r="E410" s="3" t="n"/>
       <c r="F410" s="3" t="n"/>
+      <c r="G410" s="3" t="n"/>
     </row>
     <row r="411">
       <c r="B411" s="2" t="n"/>
-      <c r="E411" s="3" t="n"/>
       <c r="F411" s="3" t="n"/>
+      <c r="G411" s="3" t="n"/>
     </row>
     <row r="412">
       <c r="B412" s="2" t="n"/>
-      <c r="E412" s="3" t="n"/>
       <c r="F412" s="3" t="n"/>
+      <c r="G412" s="3" t="n"/>
     </row>
     <row r="413">
       <c r="B413" s="2" t="n"/>
-      <c r="E413" s="3" t="n"/>
       <c r="F413" s="3" t="n"/>
+      <c r="G413" s="3" t="n"/>
     </row>
     <row r="414">
       <c r="B414" s="2" t="n"/>
-      <c r="E414" s="3" t="n"/>
       <c r="F414" s="3" t="n"/>
+      <c r="G414" s="3" t="n"/>
     </row>
     <row r="415">
       <c r="B415" s="2" t="n"/>
-      <c r="E415" s="3" t="n"/>
       <c r="F415" s="3" t="n"/>
+      <c r="G415" s="3" t="n"/>
     </row>
     <row r="416">
       <c r="B416" s="2" t="n"/>
-      <c r="E416" s="3" t="n"/>
       <c r="F416" s="3" t="n"/>
+      <c r="G416" s="3" t="n"/>
     </row>
     <row r="417">
       <c r="B417" s="2" t="n"/>
-      <c r="E417" s="3" t="n"/>
       <c r="F417" s="3" t="n"/>
+      <c r="G417" s="3" t="n"/>
     </row>
     <row r="418">
       <c r="B418" s="2" t="n"/>
-      <c r="E418" s="3" t="n"/>
       <c r="F418" s="3" t="n"/>
+      <c r="G418" s="3" t="n"/>
     </row>
     <row r="419">
       <c r="B419" s="2" t="n"/>
-      <c r="E419" s="3" t="n"/>
       <c r="F419" s="3" t="n"/>
+      <c r="G419" s="3" t="n"/>
     </row>
     <row r="420">
       <c r="B420" s="2" t="n"/>
-      <c r="E420" s="3" t="n"/>
       <c r="F420" s="3" t="n"/>
+      <c r="G420" s="3" t="n"/>
     </row>
     <row r="421">
       <c r="B421" s="2" t="n"/>
-      <c r="E421" s="3" t="n"/>
       <c r="F421" s="3" t="n"/>
+      <c r="G421" s="3" t="n"/>
     </row>
     <row r="422">
       <c r="B422" s="2" t="n"/>
-      <c r="E422" s="3" t="n"/>
       <c r="F422" s="3" t="n"/>
+      <c r="G422" s="3" t="n"/>
     </row>
     <row r="423">
       <c r="B423" s="2" t="n"/>
-      <c r="E423" s="3" t="n"/>
       <c r="F423" s="3" t="n"/>
+      <c r="G423" s="3" t="n"/>
     </row>
     <row r="424">
       <c r="B424" s="2" t="n"/>
-      <c r="E424" s="3" t="n"/>
       <c r="F424" s="3" t="n"/>
+      <c r="G424" s="3" t="n"/>
     </row>
     <row r="425">
       <c r="B425" s="2" t="n"/>
-      <c r="E425" s="3" t="n"/>
       <c r="F425" s="3" t="n"/>
+      <c r="G425" s="3" t="n"/>
     </row>
     <row r="426">
       <c r="B426" s="2" t="n"/>
-      <c r="E426" s="3" t="n"/>
       <c r="F426" s="3" t="n"/>
+      <c r="G426" s="3" t="n"/>
     </row>
     <row r="427">
       <c r="B427" s="2" t="n"/>
-      <c r="E427" s="3" t="n"/>
       <c r="F427" s="3" t="n"/>
+      <c r="G427" s="3" t="n"/>
     </row>
     <row r="428">
       <c r="B428" s="2" t="n"/>
-      <c r="E428" s="3" t="n"/>
       <c r="F428" s="3" t="n"/>
+      <c r="G428" s="3" t="n"/>
     </row>
     <row r="429">
       <c r="B429" s="2" t="n"/>
-      <c r="E429" s="3" t="n"/>
       <c r="F429" s="3" t="n"/>
+      <c r="G429" s="3" t="n"/>
     </row>
     <row r="430">
       <c r="B430" s="2" t="n"/>
-      <c r="E430" s="3" t="n"/>
       <c r="F430" s="3" t="n"/>
+      <c r="G430" s="3" t="n"/>
     </row>
     <row r="431">
       <c r="B431" s="2" t="n"/>
-      <c r="E431" s="3" t="n"/>
       <c r="F431" s="3" t="n"/>
+      <c r="G431" s="3" t="n"/>
     </row>
     <row r="432">
       <c r="B432" s="2" t="n"/>
-      <c r="E432" s="3" t="n"/>
       <c r="F432" s="3" t="n"/>
+      <c r="G432" s="3" t="n"/>
     </row>
     <row r="433">
       <c r="B433" s="2" t="n"/>
-      <c r="E433" s="3" t="n"/>
       <c r="F433" s="3" t="n"/>
+      <c r="G433" s="3" t="n"/>
     </row>
     <row r="434">
       <c r="B434" s="2" t="n"/>
-      <c r="E434" s="3" t="n"/>
       <c r="F434" s="3" t="n"/>
+      <c r="G434" s="3" t="n"/>
     </row>
     <row r="435">
       <c r="B435" s="2" t="n"/>
-      <c r="E435" s="3" t="n"/>
       <c r="F435" s="3" t="n"/>
+      <c r="G435" s="3" t="n"/>
     </row>
     <row r="436">
       <c r="B436" s="2" t="n"/>
-      <c r="E436" s="3" t="n"/>
       <c r="F436" s="3" t="n"/>
+      <c r="G436" s="3" t="n"/>
     </row>
     <row r="437">
       <c r="B437" s="2" t="n"/>
-      <c r="E437" s="3" t="n"/>
       <c r="F437" s="3" t="n"/>
+      <c r="G437" s="3" t="n"/>
     </row>
     <row r="438">
       <c r="B438" s="2" t="n"/>
-      <c r="E438" s="3" t="n"/>
       <c r="F438" s="3" t="n"/>
+      <c r="G438" s="3" t="n"/>
     </row>
     <row r="439">
       <c r="B439" s="2" t="n"/>
-      <c r="E439" s="3" t="n"/>
       <c r="F439" s="3" t="n"/>
+      <c r="G439" s="3" t="n"/>
     </row>
     <row r="440">
       <c r="B440" s="2" t="n"/>
-      <c r="E440" s="3" t="n"/>
       <c r="F440" s="3" t="n"/>
+      <c r="G440" s="3" t="n"/>
     </row>
     <row r="441">
       <c r="B441" s="2" t="n"/>
-      <c r="E441" s="3" t="n"/>
       <c r="F441" s="3" t="n"/>
+      <c r="G441" s="3" t="n"/>
     </row>
     <row r="442">
       <c r="B442" s="2" t="n"/>
-      <c r="E442" s="3" t="n"/>
       <c r="F442" s="3" t="n"/>
+      <c r="G442" s="3" t="n"/>
     </row>
     <row r="443">
       <c r="B443" s="2" t="n"/>
-      <c r="E443" s="3" t="n"/>
       <c r="F443" s="3" t="n"/>
+      <c r="G443" s="3" t="n"/>
     </row>
     <row r="444">
       <c r="B444" s="2" t="n"/>
-      <c r="E444" s="3" t="n"/>
       <c r="F444" s="3" t="n"/>
+      <c r="G444" s="3" t="n"/>
     </row>
     <row r="445">
       <c r="B445" s="2" t="n"/>
-      <c r="E445" s="3" t="n"/>
       <c r="F445" s="3" t="n"/>
+      <c r="G445" s="3" t="n"/>
     </row>
     <row r="446">
       <c r="B446" s="2" t="n"/>
-      <c r="E446" s="3" t="n"/>
       <c r="F446" s="3" t="n"/>
+      <c r="G446" s="3" t="n"/>
     </row>
     <row r="447">
       <c r="B447" s="2" t="n"/>
-      <c r="E447" s="3" t="n"/>
       <c r="F447" s="3" t="n"/>
+      <c r="G447" s="3" t="n"/>
     </row>
     <row r="448">
       <c r="B448" s="2" t="n"/>
-      <c r="E448" s="3" t="n"/>
       <c r="F448" s="3" t="n"/>
+      <c r="G448" s="3" t="n"/>
     </row>
     <row r="449">
       <c r="B449" s="2" t="n"/>
-      <c r="E449" s="3" t="n"/>
       <c r="F449" s="3" t="n"/>
+      <c r="G449" s="3" t="n"/>
     </row>
     <row r="450">
       <c r="B450" s="2" t="n"/>
-      <c r="E450" s="3" t="n"/>
       <c r="F450" s="3" t="n"/>
+      <c r="G450" s="3" t="n"/>
     </row>
     <row r="451">
       <c r="B451" s="2" t="n"/>
-      <c r="E451" s="3" t="n"/>
       <c r="F451" s="3" t="n"/>
+      <c r="G451" s="3" t="n"/>
     </row>
     <row r="452">
       <c r="B452" s="2" t="n"/>
-      <c r="E452" s="3" t="n"/>
       <c r="F452" s="3" t="n"/>
+      <c r="G452" s="3" t="n"/>
     </row>
     <row r="453">
       <c r="B453" s="2" t="n"/>
-      <c r="E453" s="3" t="n"/>
       <c r="F453" s="3" t="n"/>
+      <c r="G453" s="3" t="n"/>
     </row>
     <row r="454">
       <c r="B454" s="2" t="n"/>
-      <c r="E454" s="3" t="n"/>
       <c r="F454" s="3" t="n"/>
+      <c r="G454" s="3" t="n"/>
     </row>
     <row r="455">
       <c r="B455" s="2" t="n"/>
-      <c r="E455" s="3" t="n"/>
       <c r="F455" s="3" t="n"/>
+      <c r="G455" s="3" t="n"/>
     </row>
     <row r="456">
       <c r="B456" s="2" t="n"/>
-      <c r="E456" s="3" t="n"/>
       <c r="F456" s="3" t="n"/>
+      <c r="G456" s="3" t="n"/>
     </row>
     <row r="457">
       <c r="B457" s="2" t="n"/>
-      <c r="E457" s="3" t="n"/>
       <c r="F457" s="3" t="n"/>
+      <c r="G457" s="3" t="n"/>
     </row>
     <row r="458">
       <c r="B458" s="2" t="n"/>
-      <c r="E458" s="3" t="n"/>
       <c r="F458" s="3" t="n"/>
+      <c r="G458" s="3" t="n"/>
     </row>
     <row r="459">
       <c r="B459" s="2" t="n"/>
-      <c r="E459" s="3" t="n"/>
       <c r="F459" s="3" t="n"/>
+      <c r="G459" s="3" t="n"/>
     </row>
     <row r="460">
       <c r="B460" s="2" t="n"/>
-      <c r="E460" s="3" t="n"/>
       <c r="F460" s="3" t="n"/>
+      <c r="G460" s="3" t="n"/>
     </row>
     <row r="461">
       <c r="B461" s="2" t="n"/>
-      <c r="E461" s="3" t="n"/>
       <c r="F461" s="3" t="n"/>
+      <c r="G461" s="3" t="n"/>
     </row>
     <row r="462">
       <c r="B462" s="2" t="n"/>
-      <c r="E462" s="3" t="n"/>
       <c r="F462" s="3" t="n"/>
+      <c r="G462" s="3" t="n"/>
     </row>
     <row r="463">
       <c r="B463" s="2" t="n"/>
-      <c r="E463" s="3" t="n"/>
       <c r="F463" s="3" t="n"/>
+      <c r="G463" s="3" t="n"/>
     </row>
     <row r="464">
       <c r="B464" s="2" t="n"/>
-      <c r="E464" s="3" t="n"/>
       <c r="F464" s="3" t="n"/>
+      <c r="G464" s="3" t="n"/>
     </row>
     <row r="465">
       <c r="B465" s="2" t="n"/>
-      <c r="E465" s="3" t="n"/>
       <c r="F465" s="3" t="n"/>
+      <c r="G465" s="3" t="n"/>
     </row>
     <row r="466">
       <c r="B466" s="2" t="n"/>
-      <c r="E466" s="3" t="n"/>
       <c r="F466" s="3" t="n"/>
+      <c r="G466" s="3" t="n"/>
     </row>
     <row r="467">
       <c r="B467" s="2" t="n"/>
-      <c r="E467" s="3" t="n"/>
       <c r="F467" s="3" t="n"/>
+      <c r="G467" s="3" t="n"/>
     </row>
     <row r="468">
       <c r="B468" s="2" t="n"/>
-      <c r="E468" s="3" t="n"/>
       <c r="F468" s="3" t="n"/>
+      <c r="G468" s="3" t="n"/>
     </row>
     <row r="469">
       <c r="B469" s="2" t="n"/>
-      <c r="E469" s="3" t="n"/>
       <c r="F469" s="3" t="n"/>
+      <c r="G469" s="3" t="n"/>
     </row>
     <row r="470">
       <c r="B470" s="2" t="n"/>
-      <c r="E470" s="3" t="n"/>
       <c r="F470" s="3" t="n"/>
+      <c r="G470" s="3" t="n"/>
     </row>
     <row r="471">
       <c r="B471" s="2" t="n"/>
-      <c r="E471" s="3" t="n"/>
       <c r="F471" s="3" t="n"/>
+      <c r="G471" s="3" t="n"/>
     </row>
     <row r="472">
       <c r="B472" s="2" t="n"/>
-      <c r="E472" s="3" t="n"/>
       <c r="F472" s="3" t="n"/>
+      <c r="G472" s="3" t="n"/>
     </row>
     <row r="473">
       <c r="B473" s="2" t="n"/>
-      <c r="E473" s="3" t="n"/>
       <c r="F473" s="3" t="n"/>
+      <c r="G473" s="3" t="n"/>
     </row>
     <row r="474">
       <c r="B474" s="2" t="n"/>
-      <c r="E474" s="3" t="n"/>
       <c r="F474" s="3" t="n"/>
+      <c r="G474" s="3" t="n"/>
     </row>
     <row r="475">
       <c r="B475" s="2" t="n"/>
-      <c r="E475" s="3" t="n"/>
       <c r="F475" s="3" t="n"/>
+      <c r="G475" s="3" t="n"/>
     </row>
     <row r="476">
       <c r="B476" s="2" t="n"/>
-      <c r="E476" s="3" t="n"/>
       <c r="F476" s="3" t="n"/>
+      <c r="G476" s="3" t="n"/>
     </row>
     <row r="477">
       <c r="B477" s="2" t="n"/>
-      <c r="E477" s="3" t="n"/>
       <c r="F477" s="3" t="n"/>
+      <c r="G477" s="3" t="n"/>
     </row>
     <row r="478">
       <c r="B478" s="2" t="n"/>
-      <c r="E478" s="3" t="n"/>
       <c r="F478" s="3" t="n"/>
+      <c r="G478" s="3" t="n"/>
     </row>
     <row r="479">
       <c r="B479" s="2" t="n"/>
-      <c r="E479" s="3" t="n"/>
       <c r="F479" s="3" t="n"/>
+      <c r="G479" s="3" t="n"/>
     </row>
     <row r="480">
       <c r="B480" s="2" t="n"/>
-      <c r="E480" s="3" t="n"/>
       <c r="F480" s="3" t="n"/>
+      <c r="G480" s="3" t="n"/>
     </row>
     <row r="481">
       <c r="B481" s="2" t="n"/>
-      <c r="E481" s="3" t="n"/>
       <c r="F481" s="3" t="n"/>
+      <c r="G481" s="3" t="n"/>
     </row>
     <row r="482">
       <c r="B482" s="2" t="n"/>
-      <c r="E482" s="3" t="n"/>
       <c r="F482" s="3" t="n"/>
+      <c r="G482" s="3" t="n"/>
     </row>
     <row r="483">
       <c r="B483" s="2" t="n"/>
-      <c r="E483" s="3" t="n"/>
       <c r="F483" s="3" t="n"/>
+      <c r="G483" s="3" t="n"/>
     </row>
     <row r="484">
       <c r="B484" s="2" t="n"/>
-      <c r="E484" s="3" t="n"/>
       <c r="F484" s="3" t="n"/>
+      <c r="G484" s="3" t="n"/>
     </row>
     <row r="485">
       <c r="B485" s="2" t="n"/>
-      <c r="E485" s="3" t="n"/>
       <c r="F485" s="3" t="n"/>
+      <c r="G485" s="3" t="n"/>
     </row>
     <row r="486">
       <c r="B486" s="2" t="n"/>
-      <c r="E486" s="3" t="n"/>
       <c r="F486" s="3" t="n"/>
+      <c r="G486" s="3" t="n"/>
     </row>
     <row r="487">
       <c r="B487" s="2" t="n"/>
-      <c r="E487" s="3" t="n"/>
       <c r="F487" s="3" t="n"/>
+      <c r="G487" s="3" t="n"/>
     </row>
     <row r="488">
       <c r="B488" s="2" t="n"/>
-      <c r="E488" s="3" t="n"/>
       <c r="F488" s="3" t="n"/>
+      <c r="G488" s="3" t="n"/>
     </row>
     <row r="489">
       <c r="B489" s="2" t="n"/>
-      <c r="E489" s="3" t="n"/>
       <c r="F489" s="3" t="n"/>
+      <c r="G489" s="3" t="n"/>
     </row>
     <row r="490">
       <c r="B490" s="2" t="n"/>
-      <c r="E490" s="3" t="n"/>
       <c r="F490" s="3" t="n"/>
+      <c r="G490" s="3" t="n"/>
     </row>
     <row r="491">
       <c r="B491" s="2" t="n"/>
-      <c r="E491" s="3" t="n"/>
       <c r="F491" s="3" t="n"/>
+      <c r="G491" s="3" t="n"/>
     </row>
     <row r="492">
       <c r="B492" s="2" t="n"/>
-      <c r="E492" s="3" t="n"/>
       <c r="F492" s="3" t="n"/>
+      <c r="G492" s="3" t="n"/>
     </row>
     <row r="493">
       <c r="B493" s="2" t="n"/>
-      <c r="E493" s="3" t="n"/>
       <c r="F493" s="3" t="n"/>
+      <c r="G493" s="3" t="n"/>
     </row>
     <row r="494">
       <c r="B494" s="2" t="n"/>
-      <c r="E494" s="3" t="n"/>
       <c r="F494" s="3" t="n"/>
+      <c r="G494" s="3" t="n"/>
     </row>
     <row r="495">
       <c r="B495" s="2" t="n"/>
-      <c r="E495" s="3" t="n"/>
       <c r="F495" s="3" t="n"/>
+      <c r="G495" s="3" t="n"/>
     </row>
     <row r="496">
       <c r="B496" s="2" t="n"/>
-      <c r="E496" s="3" t="n"/>
       <c r="F496" s="3" t="n"/>
+      <c r="G496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="B497" s="2" t="n"/>
-      <c r="E497" s="3" t="n"/>
       <c r="F497" s="3" t="n"/>
+      <c r="G497" s="3" t="n"/>
     </row>
     <row r="498">
       <c r="B498" s="2" t="n"/>
-      <c r="E498" s="3" t="n"/>
       <c r="F498" s="3" t="n"/>
+      <c r="G498" s="3" t="n"/>
     </row>
     <row r="499">
       <c r="B499" s="2" t="n"/>
-      <c r="E499" s="3" t="n"/>
       <c r="F499" s="3" t="n"/>
+      <c r="G499" s="3" t="n"/>
     </row>
     <row r="500">
       <c r="B500" s="2" t="n"/>
-      <c r="E500" s="3" t="n"/>
       <c r="F500" s="3" t="n"/>
+      <c r="G500" s="3" t="n"/>
     </row>
     <row r="501">
       <c r="B501" s="2" t="n"/>
-      <c r="E501" s="3" t="n"/>
       <c r="F501" s="3" t="n"/>
+      <c r="G501" s="3" t="n"/>
     </row>
     <row r="502">
       <c r="B502" s="2" t="n"/>
-      <c r="E502" s="3" t="n"/>
       <c r="F502" s="3" t="n"/>
+      <c r="G502" s="3" t="n"/>
     </row>
     <row r="503">
       <c r="B503" s="2" t="n"/>
-      <c r="E503" s="3" t="n"/>
       <c r="F503" s="3" t="n"/>
+      <c r="G503" s="3" t="n"/>
     </row>
     <row r="504">
       <c r="B504" s="2" t="n"/>
-      <c r="E504" s="3" t="n"/>
       <c r="F504" s="3" t="n"/>
+      <c r="G504" s="3" t="n"/>
     </row>
     <row r="505">
       <c r="B505" s="2" t="n"/>
-      <c r="E505" s="3" t="n"/>
       <c r="F505" s="3" t="n"/>
+      <c r="G505" s="3" t="n"/>
     </row>
     <row r="506">
       <c r="B506" s="2" t="n"/>
-      <c r="E506" s="3" t="n"/>
       <c r="F506" s="3" t="n"/>
+      <c r="G506" s="3" t="n"/>
     </row>
     <row r="507">
       <c r="B507" s="2" t="n"/>
-      <c r="E507" s="3" t="n"/>
       <c r="F507" s="3" t="n"/>
+      <c r="G507" s="3" t="n"/>
     </row>
     <row r="508">
       <c r="B508" s="2" t="n"/>
-      <c r="E508" s="3" t="n"/>
       <c r="F508" s="3" t="n"/>
+      <c r="G508" s="3" t="n"/>
     </row>
     <row r="509">
       <c r="B509" s="2" t="n"/>
-      <c r="E509" s="3" t="n"/>
       <c r="F509" s="3" t="n"/>
+      <c r="G509" s="3" t="n"/>
     </row>
     <row r="510">
       <c r="B510" s="2" t="n"/>
-      <c r="E510" s="3" t="n"/>
       <c r="F510" s="3" t="n"/>
+      <c r="G510" s="3" t="n"/>
     </row>
     <row r="511">
       <c r="B511" s="2" t="n"/>
-      <c r="E511" s="3" t="n"/>
       <c r="F511" s="3" t="n"/>
+      <c r="G511" s="3" t="n"/>
     </row>
     <row r="512">
       <c r="B512" s="2" t="n"/>
-      <c r="E512" s="3" t="n"/>
       <c r="F512" s="3" t="n"/>
+      <c r="G512" s="3" t="n"/>
     </row>
     <row r="513">
       <c r="B513" s="2" t="n"/>
-      <c r="E513" s="3" t="n"/>
       <c r="F513" s="3" t="n"/>
+      <c r="G513" s="3" t="n"/>
     </row>
     <row r="514">
       <c r="B514" s="2" t="n"/>
-      <c r="E514" s="3" t="n"/>
       <c r="F514" s="3" t="n"/>
+      <c r="G514" s="3" t="n"/>
     </row>
     <row r="515">
       <c r="B515" s="2" t="n"/>
-      <c r="E515" s="3" t="n"/>
       <c r="F515" s="3" t="n"/>
+      <c r="G515" s="3" t="n"/>
     </row>
     <row r="516">
       <c r="B516" s="2" t="n"/>
-      <c r="E516" s="3" t="n"/>
       <c r="F516" s="3" t="n"/>
+      <c r="G516" s="3" t="n"/>
     </row>
     <row r="517">
       <c r="B517" s="2" t="n"/>
-      <c r="E517" s="3" t="n"/>
       <c r="F517" s="3" t="n"/>
+      <c r="G517" s="3" t="n"/>
     </row>
     <row r="518">
       <c r="B518" s="2" t="n"/>
-      <c r="E518" s="3" t="n"/>
       <c r="F518" s="3" t="n"/>
+      <c r="G518" s="3" t="n"/>
     </row>
     <row r="519">
       <c r="B519" s="2" t="n"/>
-      <c r="E519" s="3" t="n"/>
       <c r="F519" s="3" t="n"/>
+      <c r="G519" s="3" t="n"/>
     </row>
     <row r="520">
       <c r="B520" s="2" t="n"/>
-      <c r="E520" s="3" t="n"/>
       <c r="F520" s="3" t="n"/>
+      <c r="G520" s="3" t="n"/>
     </row>
     <row r="521">
       <c r="B521" s="2" t="n"/>
-      <c r="E521" s="3" t="n"/>
       <c r="F521" s="3" t="n"/>
+      <c r="G521" s="3" t="n"/>
     </row>
     <row r="522">
       <c r="B522" s="2" t="n"/>
-      <c r="E522" s="3" t="n"/>
       <c r="F522" s="3" t="n"/>
+      <c r="G522" s="3" t="n"/>
     </row>
     <row r="523">
       <c r="B523" s="2" t="n"/>
-      <c r="E523" s="3" t="n"/>
       <c r="F523" s="3" t="n"/>
+      <c r="G523" s="3" t="n"/>
     </row>
     <row r="524">
       <c r="B524" s="2" t="n"/>
-      <c r="E524" s="3" t="n"/>
       <c r="F524" s="3" t="n"/>
+      <c r="G524" s="3" t="n"/>
     </row>
     <row r="525">
       <c r="B525" s="2" t="n"/>
-      <c r="E525" s="3" t="n"/>
       <c r="F525" s="3" t="n"/>
+      <c r="G525" s="3" t="n"/>
     </row>
     <row r="526">
       <c r="B526" s="2" t="n"/>
-      <c r="E526" s="3" t="n"/>
       <c r="F526" s="3" t="n"/>
+      <c r="G526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="B527" s="2" t="n"/>
-      <c r="E527" s="3" t="n"/>
       <c r="F527" s="3" t="n"/>
+      <c r="G527" s="3" t="n"/>
     </row>
     <row r="528">
       <c r="B528" s="2" t="n"/>
-      <c r="E528" s="3" t="n"/>
       <c r="F528" s="3" t="n"/>
+      <c r="G528" s="3" t="n"/>
     </row>
     <row r="529">
       <c r="B529" s="2" t="n"/>
-      <c r="E529" s="3" t="n"/>
       <c r="F529" s="3" t="n"/>
+      <c r="G529" s="3" t="n"/>
     </row>
     <row r="530">
       <c r="B530" s="2" t="n"/>
-      <c r="E530" s="3" t="n"/>
       <c r="F530" s="3" t="n"/>
+      <c r="G530" s="3" t="n"/>
     </row>
     <row r="531">
       <c r="B531" s="2" t="n"/>
-      <c r="E531" s="3" t="n"/>
       <c r="F531" s="3" t="n"/>
+      <c r="G531" s="3" t="n"/>
     </row>
     <row r="532">
       <c r="B532" s="2" t="n"/>
-      <c r="E532" s="3" t="n"/>
       <c r="F532" s="3" t="n"/>
+      <c r="G532" s="3" t="n"/>
     </row>
     <row r="533">
       <c r="B533" s="2" t="n"/>
-      <c r="E533" s="3" t="n"/>
       <c r="F533" s="3" t="n"/>
+      <c r="G533" s="3" t="n"/>
     </row>
     <row r="534">
       <c r="B534" s="2" t="n"/>
-      <c r="E534" s="3" t="n"/>
       <c r="F534" s="3" t="n"/>
+      <c r="G534" s="3" t="n"/>
     </row>
     <row r="535">
       <c r="B535" s="2" t="n"/>
-      <c r="E535" s="3" t="n"/>
       <c r="F535" s="3" t="n"/>
+      <c r="G535" s="3" t="n"/>
     </row>
     <row r="536">
       <c r="B536" s="2" t="n"/>
-      <c r="E536" s="3" t="n"/>
       <c r="F536" s="3" t="n"/>
+      <c r="G536" s="3" t="n"/>
     </row>
     <row r="537">
       <c r="B537" s="2" t="n"/>
-      <c r="E537" s="3" t="n"/>
       <c r="F537" s="3" t="n"/>
+      <c r="G537" s="3" t="n"/>
     </row>
     <row r="538">
       <c r="B538" s="2" t="n"/>
-      <c r="E538" s="3" t="n"/>
       <c r="F538" s="3" t="n"/>
+      <c r="G538" s="3" t="n"/>
     </row>
     <row r="539">
       <c r="B539" s="2" t="n"/>
-      <c r="E539" s="3" t="n"/>
       <c r="F539" s="3" t="n"/>
+      <c r="G539" s="3" t="n"/>
     </row>
     <row r="540">
       <c r="B540" s="2" t="n"/>
-      <c r="E540" s="3" t="n"/>
       <c r="F540" s="3" t="n"/>
+      <c r="G540" s="3" t="n"/>
     </row>
     <row r="541">
       <c r="B541" s="2" t="n"/>
-      <c r="E541" s="3" t="n"/>
       <c r="F541" s="3" t="n"/>
+      <c r="G541" s="3" t="n"/>
     </row>
     <row r="542">
       <c r="B542" s="2" t="n"/>
-      <c r="E542" s="3" t="n"/>
       <c r="F542" s="3" t="n"/>
+      <c r="G542" s="3" t="n"/>
     </row>
     <row r="543">
       <c r="B543" s="2" t="n"/>
-      <c r="E543" s="3" t="n"/>
       <c r="F543" s="3" t="n"/>
+      <c r="G543" s="3" t="n"/>
     </row>
     <row r="544">
       <c r="B544" s="2" t="n"/>
-      <c r="E544" s="3" t="n"/>
       <c r="F544" s="3" t="n"/>
+      <c r="G544" s="3" t="n"/>
     </row>
     <row r="545">
       <c r="B545" s="2" t="n"/>
-      <c r="E545" s="3" t="n"/>
       <c r="F545" s="3" t="n"/>
+      <c r="G545" s="3" t="n"/>
     </row>
     <row r="546">
       <c r="B546" s="2" t="n"/>
-      <c r="E546" s="3" t="n"/>
       <c r="F546" s="3" t="n"/>
+      <c r="G546" s="3" t="n"/>
     </row>
     <row r="547">
       <c r="B547" s="2" t="n"/>
-      <c r="E547" s="3" t="n"/>
       <c r="F547" s="3" t="n"/>
+      <c r="G547" s="3" t="n"/>
     </row>
     <row r="548">
       <c r="B548" s="2" t="n"/>
-      <c r="E548" s="3" t="n"/>
       <c r="F548" s="3" t="n"/>
+      <c r="G548" s="3" t="n"/>
     </row>
     <row r="549">
       <c r="B549" s="2" t="n"/>
-      <c r="E549" s="3" t="n"/>
       <c r="F549" s="3" t="n"/>
+      <c r="G549" s="3" t="n"/>
     </row>
     <row r="550">
       <c r="B550" s="2" t="n"/>
-      <c r="E550" s="3" t="n"/>
       <c r="F550" s="3" t="n"/>
+      <c r="G550" s="3" t="n"/>
     </row>
     <row r="551">
       <c r="B551" s="2" t="n"/>
-      <c r="E551" s="3" t="n"/>
       <c r="F551" s="3" t="n"/>
+      <c r="G551" s="3" t="n"/>
     </row>
     <row r="552">
       <c r="B552" s="2" t="n"/>
-      <c r="E552" s="3" t="n"/>
       <c r="F552" s="3" t="n"/>
+      <c r="G552" s="3" t="n"/>
     </row>
     <row r="553">
       <c r="B553" s="2" t="n"/>
-      <c r="E553" s="3" t="n"/>
       <c r="F553" s="3" t="n"/>
+      <c r="G553" s="3" t="n"/>
     </row>
     <row r="554">
       <c r="B554" s="2" t="n"/>
-      <c r="E554" s="3" t="n"/>
       <c r="F554" s="3" t="n"/>
+      <c r="G554" s="3" t="n"/>
     </row>
     <row r="555">
       <c r="B555" s="2" t="n"/>
-      <c r="E555" s="3" t="n"/>
       <c r="F555" s="3" t="n"/>
+      <c r="G555" s="3" t="n"/>
     </row>
     <row r="556">
       <c r="B556" s="2" t="n"/>
-      <c r="E556" s="3" t="n"/>
       <c r="F556" s="3" t="n"/>
+      <c r="G556" s="3" t="n"/>
     </row>
     <row r="557">
       <c r="B557" s="2" t="n"/>
-      <c r="E557" s="3" t="n"/>
       <c r="F557" s="3" t="n"/>
+      <c r="G557" s="3" t="n"/>
     </row>
     <row r="558">
       <c r="B558" s="2" t="n"/>
-      <c r="E558" s="3" t="n"/>
       <c r="F558" s="3" t="n"/>
+      <c r="G558" s="3" t="n"/>
     </row>
     <row r="559">
       <c r="B559" s="2" t="n"/>
-      <c r="E559" s="3" t="n"/>
       <c r="F559" s="3" t="n"/>
+      <c r="G559" s="3" t="n"/>
     </row>
     <row r="560">
       <c r="B560" s="2" t="n"/>
-      <c r="E560" s="3" t="n"/>
       <c r="F560" s="3" t="n"/>
+      <c r="G560" s="3" t="n"/>
     </row>
     <row r="561">
       <c r="B561" s="2" t="n"/>
-      <c r="E561" s="3" t="n"/>
       <c r="F561" s="3" t="n"/>
+      <c r="G561" s="3" t="n"/>
     </row>
     <row r="562">
       <c r="B562" s="2" t="n"/>
-      <c r="E562" s="3" t="n"/>
       <c r="F562" s="3" t="n"/>
+      <c r="G562" s="3" t="n"/>
     </row>
     <row r="563">
       <c r="B563" s="2" t="n"/>
-      <c r="E563" s="3" t="n"/>
       <c r="F563" s="3" t="n"/>
+      <c r="G563" s="3" t="n"/>
     </row>
     <row r="564">
       <c r="B564" s="2" t="n"/>
-      <c r="E564" s="3" t="n"/>
       <c r="F564" s="3" t="n"/>
+      <c r="G564" s="3" t="n"/>
     </row>
     <row r="565">
       <c r="B565" s="2" t="n"/>
-      <c r="E565" s="3" t="n"/>
       <c r="F565" s="3" t="n"/>
+      <c r="G565" s="3" t="n"/>
     </row>
     <row r="566">
       <c r="B566" s="2" t="n"/>
-      <c r="E566" s="3" t="n"/>
       <c r="F566" s="3" t="n"/>
+      <c r="G566" s="3" t="n"/>
     </row>
     <row r="567">
       <c r="B567" s="2" t="n"/>
-      <c r="E567" s="3" t="n"/>
       <c r="F567" s="3" t="n"/>
+      <c r="G567" s="3" t="n"/>
     </row>
     <row r="568">
       <c r="B568" s="2" t="n"/>
-      <c r="E568" s="3" t="n"/>
       <c r="F568" s="3" t="n"/>
+      <c r="G568" s="3" t="n"/>
     </row>
     <row r="569">
       <c r="B569" s="2" t="n"/>
-      <c r="E569" s="3" t="n"/>
       <c r="F569" s="3" t="n"/>
+      <c r="G569" s="3" t="n"/>
     </row>
     <row r="570">
       <c r="B570" s="2" t="n"/>
-      <c r="E570" s="3" t="n"/>
       <c r="F570" s="3" t="n"/>
+      <c r="G570" s="3" t="n"/>
     </row>
     <row r="571">
       <c r="B571" s="2" t="n"/>
-      <c r="E571" s="3" t="n"/>
       <c r="F571" s="3" t="n"/>
+      <c r="G571" s="3" t="n"/>
     </row>
     <row r="572">
       <c r="B572" s="2" t="n"/>
-      <c r="E572" s="3" t="n"/>
       <c r="F572" s="3" t="n"/>
+      <c r="G572" s="3" t="n"/>
     </row>
     <row r="573">
       <c r="B573" s="2" t="n"/>
-      <c r="E573" s="3" t="n"/>
       <c r="F573" s="3" t="n"/>
+      <c r="G573" s="3" t="n"/>
     </row>
     <row r="574">
       <c r="B574" s="2" t="n"/>
-      <c r="E574" s="3" t="n"/>
       <c r="F574" s="3" t="n"/>
+      <c r="G574" s="3" t="n"/>
     </row>
     <row r="575">
       <c r="B575" s="2" t="n"/>
-      <c r="E575" s="3" t="n"/>
       <c r="F575" s="3" t="n"/>
+      <c r="G575" s="3" t="n"/>
     </row>
     <row r="576">
       <c r="B576" s="2" t="n"/>
-      <c r="E576" s="3" t="n"/>
       <c r="F576" s="3" t="n"/>
+      <c r="G576" s="3" t="n"/>
     </row>
     <row r="577">
       <c r="B577" s="2" t="n"/>
-      <c r="E577" s="3" t="n"/>
       <c r="F577" s="3" t="n"/>
+      <c r="G577" s="3" t="n"/>
     </row>
     <row r="578">
       <c r="B578" s="2" t="n"/>
-      <c r="E578" s="3" t="n"/>
       <c r="F578" s="3" t="n"/>
+      <c r="G578" s="3" t="n"/>
     </row>
     <row r="579">
       <c r="B579" s="2" t="n"/>
-      <c r="E579" s="3" t="n"/>
       <c r="F579" s="3" t="n"/>
+      <c r="G579" s="3" t="n"/>
     </row>
     <row r="580">
       <c r="B580" s="2" t="n"/>
-      <c r="E580" s="3" t="n"/>
       <c r="F580" s="3" t="n"/>
+      <c r="G580" s="3" t="n"/>
     </row>
     <row r="581">
       <c r="B581" s="2" t="n"/>
-      <c r="E581" s="3" t="n"/>
       <c r="F581" s="3" t="n"/>
+      <c r="G581" s="3" t="n"/>
     </row>
     <row r="582">
       <c r="B582" s="2" t="n"/>
-      <c r="E582" s="3" t="n"/>
       <c r="F582" s="3" t="n"/>
+      <c r="G582" s="3" t="n"/>
     </row>
     <row r="583">
       <c r="B583" s="2" t="n"/>
-      <c r="E583" s="3" t="n"/>
       <c r="F583" s="3" t="n"/>
+      <c r="G583" s="3" t="n"/>
     </row>
     <row r="584">
       <c r="B584" s="2" t="n"/>
-      <c r="E584" s="3" t="n"/>
       <c r="F584" s="3" t="n"/>
+      <c r="G584" s="3" t="n"/>
     </row>
     <row r="585">
       <c r="B585" s="2" t="n"/>
-      <c r="E585" s="3" t="n"/>
       <c r="F585" s="3" t="n"/>
+      <c r="G585" s="3" t="n"/>
     </row>
     <row r="586">
       <c r="B586" s="2" t="n"/>
-      <c r="E586" s="3" t="n"/>
       <c r="F586" s="3" t="n"/>
+      <c r="G586" s="3" t="n"/>
     </row>
     <row r="587">
       <c r="B587" s="2" t="n"/>
-      <c r="E587" s="3" t="n"/>
       <c r="F587" s="3" t="n"/>
+      <c r="G587" s="3" t="n"/>
     </row>
     <row r="588">
       <c r="B588" s="2" t="n"/>
-      <c r="E588" s="3" t="n"/>
       <c r="F588" s="3" t="n"/>
+      <c r="G588" s="3" t="n"/>
     </row>
     <row r="589">
       <c r="B589" s="2" t="n"/>
-      <c r="E589" s="3" t="n"/>
       <c r="F589" s="3" t="n"/>
+      <c r="G589" s="3" t="n"/>
     </row>
     <row r="590">
       <c r="B590" s="2" t="n"/>
-      <c r="E590" s="3" t="n"/>
       <c r="F590" s="3" t="n"/>
+      <c r="G590" s="3" t="n"/>
     </row>
     <row r="591">
       <c r="B591" s="2" t="n"/>
-      <c r="E591" s="3" t="n"/>
       <c r="F591" s="3" t="n"/>
+      <c r="G591" s="3" t="n"/>
     </row>
     <row r="592">
       <c r="B592" s="2" t="n"/>
-      <c r="E592" s="3" t="n"/>
       <c r="F592" s="3" t="n"/>
+      <c r="G592" s="3" t="n"/>
     </row>
     <row r="593">
       <c r="B593" s="2" t="n"/>
-      <c r="E593" s="3" t="n"/>
       <c r="F593" s="3" t="n"/>
+      <c r="G593" s="3" t="n"/>
     </row>
     <row r="594">
       <c r="B594" s="2" t="n"/>
-      <c r="E594" s="3" t="n"/>
       <c r="F594" s="3" t="n"/>
+      <c r="G594" s="3" t="n"/>
     </row>
     <row r="595">
       <c r="B595" s="2" t="n"/>
-      <c r="E595" s="3" t="n"/>
       <c r="F595" s="3" t="n"/>
+      <c r="G595" s="3" t="n"/>
     </row>
     <row r="596">
       <c r="B596" s="2" t="n"/>
-      <c r="E596" s="3" t="n"/>
       <c r="F596" s="3" t="n"/>
+      <c r="G596" s="3" t="n"/>
     </row>
     <row r="597">
       <c r="B597" s="2" t="n"/>
-      <c r="E597" s="3" t="n"/>
       <c r="F597" s="3" t="n"/>
+      <c r="G597" s="3" t="n"/>
     </row>
     <row r="598">
       <c r="B598" s="2" t="n"/>
-      <c r="E598" s="3" t="n"/>
       <c r="F598" s="3" t="n"/>
+      <c r="G598" s="3" t="n"/>
     </row>
     <row r="599">
       <c r="B599" s="2" t="n"/>
-      <c r="E599" s="3" t="n"/>
       <c r="F599" s="3" t="n"/>
+      <c r="G599" s="3" t="n"/>
     </row>
     <row r="600">
       <c r="B600" s="2" t="n"/>
-      <c r="E600" s="3" t="n"/>
       <c r="F600" s="3" t="n"/>
+      <c r="G600" s="3" t="n"/>
     </row>
     <row r="601">
       <c r="B601" s="2" t="n"/>
-      <c r="E601" s="3" t="n"/>
       <c r="F601" s="3" t="n"/>
+      <c r="G601" s="3" t="n"/>
     </row>
     <row r="602">
       <c r="B602" s="2" t="n"/>
-      <c r="E602" s="3" t="n"/>
       <c r="F602" s="3" t="n"/>
+      <c r="G602" s="3" t="n"/>
     </row>
     <row r="603">
       <c r="B603" s="2" t="n"/>
-      <c r="E603" s="3" t="n"/>
       <c r="F603" s="3" t="n"/>
+      <c r="G603" s="3" t="n"/>
     </row>
     <row r="604">
       <c r="B604" s="2" t="n"/>
-      <c r="E604" s="3" t="n"/>
       <c r="F604" s="3" t="n"/>
+      <c r="G604" s="3" t="n"/>
     </row>
     <row r="605">
       <c r="B605" s="2" t="n"/>
-      <c r="E605" s="3" t="n"/>
       <c r="F605" s="3" t="n"/>
+      <c r="G605" s="3" t="n"/>
     </row>
     <row r="606">
       <c r="B606" s="2" t="n"/>
-      <c r="E606" s="3" t="n"/>
       <c r="F606" s="3" t="n"/>
+      <c r="G606" s="3" t="n"/>
     </row>
     <row r="607">
       <c r="B607" s="2" t="n"/>
-      <c r="E607" s="3" t="n"/>
       <c r="F607" s="3" t="n"/>
+      <c r="G607" s="3" t="n"/>
     </row>
     <row r="608">
       <c r="B608" s="2" t="n"/>
-      <c r="E608" s="3" t="n"/>
       <c r="F608" s="3" t="n"/>
+      <c r="G608" s="3" t="n"/>
     </row>
     <row r="609">
       <c r="B609" s="2" t="n"/>
-      <c r="E609" s="3" t="n"/>
       <c r="F609" s="3" t="n"/>
+      <c r="G609" s="3" t="n"/>
     </row>
     <row r="610">
       <c r="B610" s="2" t="n"/>
-      <c r="E610" s="3" t="n"/>
       <c r="F610" s="3" t="n"/>
+      <c r="G610" s="3" t="n"/>
     </row>
     <row r="611">
       <c r="B611" s="2" t="n"/>
-      <c r="E611" s="3" t="n"/>
       <c r="F611" s="3" t="n"/>
+      <c r="G611" s="3" t="n"/>
     </row>
     <row r="612">
       <c r="B612" s="2" t="n"/>
-      <c r="E612" s="3" t="n"/>
       <c r="F612" s="3" t="n"/>
+      <c r="G612" s="3" t="n"/>
     </row>
     <row r="613">
       <c r="B613" s="2" t="n"/>
-      <c r="E613" s="3" t="n"/>
       <c r="F613" s="3" t="n"/>
+      <c r="G613" s="3" t="n"/>
     </row>
     <row r="614">
       <c r="B614" s="2" t="n"/>
-      <c r="E614" s="3" t="n"/>
       <c r="F614" s="3" t="n"/>
+      <c r="G614" s="3" t="n"/>
     </row>
     <row r="615">
       <c r="B615" s="2" t="n"/>
-      <c r="E615" s="3" t="n"/>
       <c r="F615" s="3" t="n"/>
+      <c r="G615" s="3" t="n"/>
     </row>
     <row r="616">
       <c r="B616" s="2" t="n"/>
-      <c r="E616" s="3" t="n"/>
       <c r="F616" s="3" t="n"/>
+      <c r="G616" s="3" t="n"/>
     </row>
     <row r="617">
       <c r="B617" s="2" t="n"/>
-      <c r="E617" s="3" t="n"/>
       <c r="F617" s="3" t="n"/>
+      <c r="G617" s="3" t="n"/>
     </row>
     <row r="618">
       <c r="B618" s="2" t="n"/>
-      <c r="E618" s="3" t="n"/>
       <c r="F618" s="3" t="n"/>
+      <c r="G618" s="3" t="n"/>
     </row>
     <row r="619">
       <c r="B619" s="2" t="n"/>
-      <c r="E619" s="3" t="n"/>
       <c r="F619" s="3" t="n"/>
+      <c r="G619" s="3" t="n"/>
     </row>
     <row r="620">
       <c r="B620" s="2" t="n"/>
-      <c r="E620" s="3" t="n"/>
       <c r="F620" s="3" t="n"/>
+      <c r="G620" s="3" t="n"/>
     </row>
     <row r="621">
       <c r="B621" s="2" t="n"/>
-      <c r="E621" s="3" t="n"/>
       <c r="F621" s="3" t="n"/>
+      <c r="G621" s="3" t="n"/>
     </row>
     <row r="622">
       <c r="B622" s="2" t="n"/>
-      <c r="E622" s="3" t="n"/>
       <c r="F622" s="3" t="n"/>
+      <c r="G622" s="3" t="n"/>
     </row>
     <row r="623">
       <c r="B623" s="2" t="n"/>
-      <c r="E623" s="3" t="n"/>
       <c r="F623" s="3" t="n"/>
+      <c r="G623" s="3" t="n"/>
     </row>
     <row r="624">
       <c r="B624" s="2" t="n"/>
-      <c r="E624" s="3" t="n"/>
       <c r="F624" s="3" t="n"/>
+      <c r="G624" s="3" t="n"/>
     </row>
     <row r="625">
       <c r="B625" s="2" t="n"/>
-      <c r="E625" s="3" t="n"/>
       <c r="F625" s="3" t="n"/>
+      <c r="G625" s="3" t="n"/>
     </row>
     <row r="626">
       <c r="B626" s="2" t="n"/>
-      <c r="E626" s="3" t="n"/>
       <c r="F626" s="3" t="n"/>
+      <c r="G626" s="3" t="n"/>
     </row>
     <row r="627">
       <c r="B627" s="2" t="n"/>
-      <c r="E627" s="3" t="n"/>
       <c r="F627" s="3" t="n"/>
+      <c r="G627" s="3" t="n"/>
     </row>
     <row r="628">
       <c r="B628" s="2" t="n"/>
-      <c r="E628" s="3" t="n"/>
       <c r="F628" s="3" t="n"/>
+      <c r="G628" s="3" t="n"/>
     </row>
     <row r="629">
       <c r="B629" s="2" t="n"/>
-      <c r="E629" s="3" t="n"/>
       <c r="F629" s="3" t="n"/>
+      <c r="G629" s="3" t="n"/>
     </row>
     <row r="630">
       <c r="B630" s="2" t="n"/>
-      <c r="E630" s="3" t="n"/>
       <c r="F630" s="3" t="n"/>
+      <c r="G630" s="3" t="n"/>
     </row>
     <row r="631">
       <c r="B631" s="2" t="n"/>
-      <c r="E631" s="3" t="n"/>
       <c r="F631" s="3" t="n"/>
+      <c r="G631" s="3" t="n"/>
     </row>
     <row r="632">
       <c r="B632" s="2" t="n"/>
-      <c r="E632" s="3" t="n"/>
       <c r="F632" s="3" t="n"/>
+      <c r="G632" s="3" t="n"/>
     </row>
     <row r="633">
       <c r="B633" s="2" t="n"/>
-      <c r="E633" s="3" t="n"/>
       <c r="F633" s="3" t="n"/>
+      <c r="G633" s="3" t="n"/>
     </row>
     <row r="634">
       <c r="B634" s="2" t="n"/>
-      <c r="E634" s="3" t="n"/>
       <c r="F634" s="3" t="n"/>
+      <c r="G634" s="3" t="n"/>
     </row>
     <row r="635">
       <c r="B635" s="2" t="n"/>
-      <c r="E635" s="3" t="n"/>
       <c r="F635" s="3" t="n"/>
+      <c r="G635" s="3" t="n"/>
     </row>
     <row r="636">
       <c r="B636" s="2" t="n"/>
-      <c r="E636" s="3" t="n"/>
       <c r="F636" s="3" t="n"/>
+      <c r="G636" s="3" t="n"/>
     </row>
     <row r="637">
       <c r="B637" s="2" t="n"/>
-      <c r="E637" s="3" t="n"/>
       <c r="F637" s="3" t="n"/>
+      <c r="G637" s="3" t="n"/>
     </row>
     <row r="638">
       <c r="B638" s="2" t="n"/>
-      <c r="E638" s="3" t="n"/>
       <c r="F638" s="3" t="n"/>
+      <c r="G638" s="3" t="n"/>
     </row>
     <row r="639">
       <c r="B639" s="2" t="n"/>
-      <c r="E639" s="3" t="n"/>
       <c r="F639" s="3" t="n"/>
+      <c r="G639" s="3" t="n"/>
     </row>
     <row r="640">
       <c r="B640" s="2" t="n"/>
-      <c r="E640" s="3" t="n"/>
       <c r="F640" s="3" t="n"/>
+      <c r="G640" s="3" t="n"/>
     </row>
     <row r="641">
       <c r="B641" s="2" t="n"/>
-      <c r="E641" s="3" t="n"/>
       <c r="F641" s="3" t="n"/>
+      <c r="G641" s="3" t="n"/>
     </row>
     <row r="642">
       <c r="B642" s="2" t="n"/>
-      <c r="E642" s="3" t="n"/>
       <c r="F642" s="3" t="n"/>
+      <c r="G642" s="3" t="n"/>
     </row>
     <row r="643">
       <c r="B643" s="2" t="n"/>
-      <c r="E643" s="3" t="n"/>
       <c r="F643" s="3" t="n"/>
+      <c r="G643" s="3" t="n"/>
     </row>
     <row r="644">
       <c r="B644" s="2" t="n"/>
-      <c r="E644" s="3" t="n"/>
       <c r="F644" s="3" t="n"/>
+      <c r="G644" s="3" t="n"/>
     </row>
     <row r="645">
       <c r="B645" s="2" t="n"/>
-      <c r="E645" s="3" t="n"/>
       <c r="F645" s="3" t="n"/>
+      <c r="G645" s="3" t="n"/>
     </row>
     <row r="646">
       <c r="B646" s="2" t="n"/>
-      <c r="E646" s="3" t="n"/>
       <c r="F646" s="3" t="n"/>
+      <c r="G646" s="3" t="n"/>
     </row>
     <row r="647">
       <c r="B647" s="2" t="n"/>
-      <c r="E647" s="3" t="n"/>
       <c r="F647" s="3" t="n"/>
+      <c r="G647" s="3" t="n"/>
     </row>
     <row r="648">
       <c r="B648" s="2" t="n"/>
-      <c r="E648" s="3" t="n"/>
       <c r="F648" s="3" t="n"/>
+      <c r="G648" s="3" t="n"/>
     </row>
     <row r="649">
       <c r="B649" s="2" t="n"/>
-      <c r="E649" s="3" t="n"/>
       <c r="F649" s="3" t="n"/>
+      <c r="G649" s="3" t="n"/>
     </row>
     <row r="650">
       <c r="B650" s="2" t="n"/>
-      <c r="E650" s="3" t="n"/>
       <c r="F650" s="3" t="n"/>
+      <c r="G650" s="3" t="n"/>
     </row>
     <row r="651">
       <c r="B651" s="2" t="n"/>
-      <c r="E651" s="3" t="n"/>
       <c r="F651" s="3" t="n"/>
+      <c r="G651" s="3" t="n"/>
     </row>
     <row r="652">
       <c r="B652" s="2" t="n"/>
-      <c r="E652" s="3" t="n"/>
       <c r="F652" s="3" t="n"/>
+      <c r="G652" s="3" t="n"/>
     </row>
     <row r="653">
       <c r="B653" s="2" t="n"/>
-      <c r="E653" s="3" t="n"/>
       <c r="F653" s="3" t="n"/>
+      <c r="G653" s="3" t="n"/>
     </row>
     <row r="654">
       <c r="B654" s="2" t="n"/>
-      <c r="E654" s="3" t="n"/>
       <c r="F654" s="3" t="n"/>
+      <c r="G654" s="3" t="n"/>
     </row>
     <row r="655">
       <c r="B655" s="2" t="n"/>
-      <c r="E655" s="3" t="n"/>
       <c r="F655" s="3" t="n"/>
+      <c r="G655" s="3" t="n"/>
     </row>
     <row r="656">
       <c r="B656" s="2" t="n"/>
-      <c r="E656" s="3" t="n"/>
       <c r="F656" s="3" t="n"/>
+      <c r="G656" s="3" t="n"/>
     </row>
     <row r="657">
       <c r="B657" s="2" t="n"/>
-      <c r="E657" s="3" t="n"/>
       <c r="F657" s="3" t="n"/>
+      <c r="G657" s="3" t="n"/>
     </row>
     <row r="658">
       <c r="B658" s="2" t="n"/>
-      <c r="E658" s="3" t="n"/>
       <c r="F658" s="3" t="n"/>
+      <c r="G658" s="3" t="n"/>
     </row>
     <row r="659">
       <c r="B659" s="2" t="n"/>
-      <c r="E659" s="3" t="n"/>
       <c r="F659" s="3" t="n"/>
+      <c r="G659" s="3" t="n"/>
     </row>
     <row r="660">
       <c r="B660" s="2" t="n"/>
-      <c r="E660" s="3" t="n"/>
       <c r="F660" s="3" t="n"/>
+      <c r="G660" s="3" t="n"/>
     </row>
     <row r="661">
       <c r="B661" s="2" t="n"/>
-      <c r="E661" s="3" t="n"/>
       <c r="F661" s="3" t="n"/>
+      <c r="G661" s="3" t="n"/>
     </row>
     <row r="662">
       <c r="B662" s="2" t="n"/>
-      <c r="E662" s="3" t="n"/>
       <c r="F662" s="3" t="n"/>
+      <c r="G662" s="3" t="n"/>
     </row>
     <row r="663">
       <c r="B663" s="2" t="n"/>
-      <c r="E663" s="3" t="n"/>
       <c r="F663" s="3" t="n"/>
+      <c r="G663" s="3" t="n"/>
     </row>
     <row r="664">
       <c r="B664" s="2" t="n"/>
-      <c r="E664" s="3" t="n"/>
       <c r="F664" s="3" t="n"/>
+      <c r="G664" s="3" t="n"/>
     </row>
     <row r="665">
       <c r="B665" s="2" t="n"/>
-      <c r="E665" s="3" t="n"/>
       <c r="F665" s="3" t="n"/>
+      <c r="G665" s="3" t="n"/>
     </row>
     <row r="666">
       <c r="B666" s="2" t="n"/>
-      <c r="E666" s="3" t="n"/>
       <c r="F666" s="3" t="n"/>
+      <c r="G666" s="3" t="n"/>
     </row>
     <row r="667">
       <c r="B667" s="2" t="n"/>
-      <c r="E667" s="3" t="n"/>
       <c r="F667" s="3" t="n"/>
+      <c r="G667" s="3" t="n"/>
     </row>
     <row r="668">
       <c r="B668" s="2" t="n"/>
-      <c r="E668" s="3" t="n"/>
       <c r="F668" s="3" t="n"/>
+      <c r="G668" s="3" t="n"/>
     </row>
     <row r="669">
       <c r="B669" s="2" t="n"/>
-      <c r="E669" s="3" t="n"/>
       <c r="F669" s="3" t="n"/>
+      <c r="G669" s="3" t="n"/>
     </row>
     <row r="670">
       <c r="B670" s="2" t="n"/>
-      <c r="E670" s="3" t="n"/>
       <c r="F670" s="3" t="n"/>
+      <c r="G670" s="3" t="n"/>
     </row>
     <row r="671">
       <c r="B671" s="2" t="n"/>
-      <c r="E671" s="3" t="n"/>
       <c r="F671" s="3" t="n"/>
+      <c r="G671" s="3" t="n"/>
     </row>
     <row r="672">
       <c r="B672" s="2" t="n"/>
-      <c r="E672" s="3" t="n"/>
       <c r="F672" s="3" t="n"/>
+      <c r="G672" s="3" t="n"/>
     </row>
     <row r="673">
       <c r="B673" s="2" t="n"/>
-      <c r="E673" s="3" t="n"/>
       <c r="F673" s="3" t="n"/>
+      <c r="G673" s="3" t="n"/>
     </row>
     <row r="674">
       <c r="B674" s="2" t="n"/>
-      <c r="E674" s="3" t="n"/>
       <c r="F674" s="3" t="n"/>
+      <c r="G674" s="3" t="n"/>
     </row>
     <row r="675">
       <c r="B675" s="2" t="n"/>
-      <c r="E675" s="3" t="n"/>
       <c r="F675" s="3" t="n"/>
+      <c r="G675" s="3" t="n"/>
     </row>
     <row r="676">
       <c r="B676" s="2" t="n"/>
-      <c r="E676" s="3" t="n"/>
       <c r="F676" s="3" t="n"/>
+      <c r="G676" s="3" t="n"/>
     </row>
     <row r="677">
       <c r="B677" s="2" t="n"/>
-      <c r="E677" s="3" t="n"/>
       <c r="F677" s="3" t="n"/>
+      <c r="G677" s="3" t="n"/>
     </row>
     <row r="678">
       <c r="B678" s="2" t="n"/>
-      <c r="E678" s="3" t="n"/>
       <c r="F678" s="3" t="n"/>
+      <c r="G678" s="3" t="n"/>
     </row>
     <row r="679">
       <c r="B679" s="2" t="n"/>
-      <c r="E679" s="3" t="n"/>
       <c r="F679" s="3" t="n"/>
+      <c r="G679" s="3" t="n"/>
     </row>
     <row r="680">
       <c r="B680" s="2" t="n"/>
-      <c r="E680" s="3" t="n"/>
       <c r="F680" s="3" t="n"/>
+      <c r="G680" s="3" t="n"/>
     </row>
     <row r="681">
       <c r="B681" s="2" t="n"/>
-      <c r="E681" s="3" t="n"/>
       <c r="F681" s="3" t="n"/>
+      <c r="G681" s="3" t="n"/>
     </row>
     <row r="682">
       <c r="B682" s="2" t="n"/>
-      <c r="E682" s="3" t="n"/>
       <c r="F682" s="3" t="n"/>
+      <c r="G682" s="3" t="n"/>
     </row>
     <row r="683">
       <c r="B683" s="2" t="n"/>
-      <c r="E683" s="3" t="n"/>
       <c r="F683" s="3" t="n"/>
+      <c r="G683" s="3" t="n"/>
     </row>
     <row r="684">
       <c r="B684" s="2" t="n"/>
-      <c r="E684" s="3" t="n"/>
       <c r="F684" s="3" t="n"/>
+      <c r="G684" s="3" t="n"/>
     </row>
     <row r="685">
       <c r="B685" s="2" t="n"/>
-      <c r="E685" s="3" t="n"/>
       <c r="F685" s="3" t="n"/>
+      <c r="G685" s="3" t="n"/>
     </row>
     <row r="686">
       <c r="B686" s="2" t="n"/>
-      <c r="E686" s="3" t="n"/>
       <c r="F686" s="3" t="n"/>
+      <c r="G686" s="3" t="n"/>
     </row>
     <row r="687">
       <c r="B687" s="2" t="n"/>
-      <c r="E687" s="3" t="n"/>
       <c r="F687" s="3" t="n"/>
+      <c r="G687" s="3" t="n"/>
     </row>
     <row r="688">
       <c r="B688" s="2" t="n"/>
-      <c r="E688" s="3" t="n"/>
       <c r="F688" s="3" t="n"/>
+      <c r="G688" s="3" t="n"/>
     </row>
     <row r="689">
       <c r="B689" s="2" t="n"/>
-      <c r="E689" s="3" t="n"/>
       <c r="F689" s="3" t="n"/>
+      <c r="G689" s="3" t="n"/>
     </row>
     <row r="690">
       <c r="B690" s="2" t="n"/>
-      <c r="E690" s="3" t="n"/>
       <c r="F690" s="3" t="n"/>
+      <c r="G690" s="3" t="n"/>
     </row>
     <row r="691">
       <c r="B691" s="2" t="n"/>
-      <c r="E691" s="3" t="n"/>
       <c r="F691" s="3" t="n"/>
+      <c r="G691" s="3" t="n"/>
     </row>
     <row r="692">
       <c r="B692" s="2" t="n"/>
-      <c r="E692" s="3" t="n"/>
       <c r="F692" s="3" t="n"/>
+      <c r="G692" s="3" t="n"/>
     </row>
     <row r="693">
       <c r="B693" s="2" t="n"/>
-      <c r="E693" s="3" t="n"/>
       <c r="F693" s="3" t="n"/>
+      <c r="G693" s="3" t="n"/>
     </row>
     <row r="694">
       <c r="B694" s="2" t="n"/>
-      <c r="E694" s="3" t="n"/>
       <c r="F694" s="3" t="n"/>
+      <c r="G694" s="3" t="n"/>
     </row>
     <row r="695">
       <c r="B695" s="2" t="n"/>
-      <c r="E695" s="3" t="n"/>
       <c r="F695" s="3" t="n"/>
+      <c r="G695" s="3" t="n"/>
     </row>
     <row r="696">
       <c r="B696" s="2" t="n"/>
-      <c r="E696" s="3" t="n"/>
       <c r="F696" s="3" t="n"/>
+      <c r="G696" s="3" t="n"/>
     </row>
     <row r="697">
       <c r="B697" s="2" t="n"/>
-      <c r="E697" s="3" t="n"/>
       <c r="F697" s="3" t="n"/>
+      <c r="G697" s="3" t="n"/>
     </row>
     <row r="698">
       <c r="B698" s="2" t="n"/>
-      <c r="E698" s="3" t="n"/>
       <c r="F698" s="3" t="n"/>
+      <c r="G698" s="3" t="n"/>
     </row>
     <row r="699">
       <c r="B699" s="2" t="n"/>
-      <c r="E699" s="3" t="n"/>
       <c r="F699" s="3" t="n"/>
+      <c r="G699" s="3" t="n"/>
     </row>
     <row r="700">
       <c r="B700" s="2" t="n"/>
-      <c r="E700" s="3" t="n"/>
       <c r="F700" s="3" t="n"/>
+      <c r="G700" s="3" t="n"/>
     </row>
     <row r="701">
       <c r="B701" s="2" t="n"/>
-      <c r="E701" s="3" t="n"/>
       <c r="F701" s="3" t="n"/>
+      <c r="G701" s="3" t="n"/>
     </row>
     <row r="702">
       <c r="B702" s="2" t="n"/>
-      <c r="E702" s="3" t="n"/>
       <c r="F702" s="3" t="n"/>
+      <c r="G702" s="3" t="n"/>
     </row>
     <row r="703">
       <c r="B703" s="2" t="n"/>
-      <c r="E703" s="3" t="n"/>
       <c r="F703" s="3" t="n"/>
+      <c r="G703" s="3" t="n"/>
     </row>
     <row r="704">
       <c r="B704" s="2" t="n"/>
-      <c r="E704" s="3" t="n"/>
       <c r="F704" s="3" t="n"/>
+      <c r="G704" s="3" t="n"/>
     </row>
     <row r="705">
       <c r="B705" s="2" t="n"/>
-      <c r="E705" s="3" t="n"/>
       <c r="F705" s="3" t="n"/>
+      <c r="G705" s="3" t="n"/>
     </row>
     <row r="706">
       <c r="B706" s="2" t="n"/>
-      <c r="E706" s="3" t="n"/>
       <c r="F706" s="3" t="n"/>
+      <c r="G706" s="3" t="n"/>
     </row>
     <row r="707">
       <c r="B707" s="2" t="n"/>
-      <c r="E707" s="3" t="n"/>
       <c r="F707" s="3" t="n"/>
+      <c r="G707" s="3" t="n"/>
     </row>
     <row r="708">
       <c r="B708" s="2" t="n"/>
-      <c r="E708" s="3" t="n"/>
       <c r="F708" s="3" t="n"/>
+      <c r="G708" s="3" t="n"/>
     </row>
     <row r="709">
       <c r="B709" s="2" t="n"/>
-      <c r="E709" s="3" t="n"/>
       <c r="F709" s="3" t="n"/>
+      <c r="G709" s="3" t="n"/>
     </row>
     <row r="710">
       <c r="B710" s="2" t="n"/>
-      <c r="E710" s="3" t="n"/>
       <c r="F710" s="3" t="n"/>
+      <c r="G710" s="3" t="n"/>
     </row>
     <row r="711">
       <c r="B711" s="2" t="n"/>
-      <c r="E711" s="3" t="n"/>
       <c r="F711" s="3" t="n"/>
+      <c r="G711" s="3" t="n"/>
     </row>
     <row r="712">
       <c r="B712" s="2" t="n"/>
-      <c r="E712" s="3" t="n"/>
       <c r="F712" s="3" t="n"/>
+      <c r="G712" s="3" t="n"/>
     </row>
     <row r="713">
       <c r="B713" s="2" t="n"/>
-      <c r="E713" s="3" t="n"/>
       <c r="F713" s="3" t="n"/>
+      <c r="G713" s="3" t="n"/>
     </row>
     <row r="714">
       <c r="B714" s="2" t="n"/>
-      <c r="E714" s="3" t="n"/>
       <c r="F714" s="3" t="n"/>
+      <c r="G714" s="3" t="n"/>
     </row>
     <row r="715">
       <c r="B715" s="2" t="n"/>
-      <c r="E715" s="3" t="n"/>
       <c r="F715" s="3" t="n"/>
+      <c r="G715" s="3" t="n"/>
     </row>
     <row r="716">
       <c r="B716" s="2" t="n"/>
-      <c r="E716" s="3" t="n"/>
       <c r="F716" s="3" t="n"/>
+      <c r="G716" s="3" t="n"/>
     </row>
     <row r="717">
       <c r="B717" s="2" t="n"/>
-      <c r="E717" s="3" t="n"/>
       <c r="F717" s="3" t="n"/>
+      <c r="G717" s="3" t="n"/>
     </row>
     <row r="718">
       <c r="B718" s="2" t="n"/>
-      <c r="E718" s="3" t="n"/>
       <c r="F718" s="3" t="n"/>
+      <c r="G718" s="3" t="n"/>
     </row>
     <row r="719">
       <c r="B719" s="2" t="n"/>
-      <c r="E719" s="3" t="n"/>
       <c r="F719" s="3" t="n"/>
+      <c r="G719" s="3" t="n"/>
     </row>
     <row r="720">
       <c r="B720" s="2" t="n"/>
-      <c r="E720" s="3" t="n"/>
       <c r="F720" s="3" t="n"/>
+      <c r="G720" s="3" t="n"/>
     </row>
     <row r="721">
       <c r="B721" s="2" t="n"/>
-      <c r="E721" s="3" t="n"/>
       <c r="F721" s="3" t="n"/>
+      <c r="G721" s="3" t="n"/>
     </row>
     <row r="722">
       <c r="B722" s="2" t="n"/>
-      <c r="E722" s="3" t="n"/>
       <c r="F722" s="3" t="n"/>
+      <c r="G722" s="3" t="n"/>
     </row>
     <row r="723">
       <c r="B723" s="2" t="n"/>
-      <c r="E723" s="3" t="n"/>
       <c r="F723" s="3" t="n"/>
+      <c r="G723" s="3" t="n"/>
     </row>
     <row r="724">
       <c r="B724" s="2" t="n"/>
-      <c r="E724" s="3" t="n"/>
       <c r="F724" s="3" t="n"/>
+      <c r="G724" s="3" t="n"/>
     </row>
     <row r="725">
       <c r="B725" s="2" t="n"/>
-      <c r="E725" s="3" t="n"/>
       <c r="F725" s="3" t="n"/>
+      <c r="G725" s="3" t="n"/>
     </row>
     <row r="726">
       <c r="B726" s="2" t="n"/>
-      <c r="E726" s="3" t="n"/>
       <c r="F726" s="3" t="n"/>
+      <c r="G726" s="3" t="n"/>
     </row>
     <row r="727">
       <c r="B727" s="2" t="n"/>
-      <c r="E727" s="3" t="n"/>
       <c r="F727" s="3" t="n"/>
+      <c r="G727" s="3" t="n"/>
     </row>
     <row r="728">
       <c r="B728" s="2" t="n"/>
-      <c r="E728" s="3" t="n"/>
       <c r="F728" s="3" t="n"/>
+      <c r="G728" s="3" t="n"/>
     </row>
     <row r="729">
       <c r="B729" s="2" t="n"/>
-      <c r="E729" s="3" t="n"/>
       <c r="F729" s="3" t="n"/>
+      <c r="G729" s="3" t="n"/>
     </row>
     <row r="730">
       <c r="B730" s="2" t="n"/>
-      <c r="E730" s="3" t="n"/>
       <c r="F730" s="3" t="n"/>
+      <c r="G730" s="3" t="n"/>
     </row>
     <row r="731">
       <c r="B731" s="2" t="n"/>
-      <c r="E731" s="3" t="n"/>
       <c r="F731" s="3" t="n"/>
+      <c r="G731" s="3" t="n"/>
     </row>
     <row r="732">
       <c r="B732" s="2" t="n"/>
-      <c r="E732" s="3" t="n"/>
       <c r="F732" s="3" t="n"/>
+      <c r="G732" s="3" t="n"/>
     </row>
     <row r="733">
       <c r="B733" s="2" t="n"/>
-      <c r="E733" s="3" t="n"/>
       <c r="F733" s="3" t="n"/>
+      <c r="G733" s="3" t="n"/>
     </row>
     <row r="734">
       <c r="B734" s="2" t="n"/>
-      <c r="E734" s="3" t="n"/>
       <c r="F734" s="3" t="n"/>
+      <c r="G734" s="3" t="n"/>
     </row>
     <row r="735">
       <c r="B735" s="2" t="n"/>
-      <c r="E735" s="3" t="n"/>
       <c r="F735" s="3" t="n"/>
+      <c r="G735" s="3" t="n"/>
     </row>
     <row r="736">
       <c r="B736" s="2" t="n"/>
-      <c r="E736" s="3" t="n"/>
       <c r="F736" s="3" t="n"/>
+      <c r="G736" s="3" t="n"/>
     </row>
     <row r="737">
       <c r="B737" s="2" t="n"/>
-      <c r="E737" s="3" t="n"/>
       <c r="F737" s="3" t="n"/>
+      <c r="G737" s="3" t="n"/>
     </row>
     <row r="738">
       <c r="B738" s="2" t="n"/>
-      <c r="E738" s="3" t="n"/>
       <c r="F738" s="3" t="n"/>
+      <c r="G738" s="3" t="n"/>
     </row>
     <row r="739">
       <c r="B739" s="2" t="n"/>
-      <c r="E739" s="3" t="n"/>
       <c r="F739" s="3" t="n"/>
+      <c r="G739" s="3" t="n"/>
     </row>
     <row r="740">
       <c r="B740" s="2" t="n"/>
-      <c r="E740" s="3" t="n"/>
       <c r="F740" s="3" t="n"/>
+      <c r="G740" s="3" t="n"/>
     </row>
     <row r="741">
       <c r="B741" s="2" t="n"/>
-      <c r="E741" s="3" t="n"/>
       <c r="F741" s="3" t="n"/>
+      <c r="G741" s="3" t="n"/>
     </row>
     <row r="742">
       <c r="B742" s="2" t="n"/>
-      <c r="E742" s="3" t="n"/>
       <c r="F742" s="3" t="n"/>
+      <c r="G742" s="3" t="n"/>
     </row>
     <row r="743">
       <c r="B743" s="2" t="n"/>
-      <c r="E743" s="3" t="n"/>
       <c r="F743" s="3" t="n"/>
+      <c r="G743" s="3" t="n"/>
     </row>
     <row r="744">
       <c r="B744" s="2" t="n"/>
-      <c r="E744" s="3" t="n"/>
       <c r="F744" s="3" t="n"/>
+      <c r="G744" s="3" t="n"/>
     </row>
     <row r="745">
       <c r="B745" s="2" t="n"/>
-      <c r="E745" s="3" t="n"/>
       <c r="F745" s="3" t="n"/>
+      <c r="G745" s="3" t="n"/>
     </row>
     <row r="746">
       <c r="B746" s="2" t="n"/>
-      <c r="E746" s="3" t="n"/>
       <c r="F746" s="3" t="n"/>
+      <c r="G746" s="3" t="n"/>
     </row>
     <row r="747">
       <c r="B747" s="2" t="n"/>
-      <c r="E747" s="3" t="n"/>
       <c r="F747" s="3" t="n"/>
+      <c r="G747" s="3" t="n"/>
     </row>
     <row r="748">
       <c r="B748" s="2" t="n"/>
-      <c r="E748" s="3" t="n"/>
       <c r="F748" s="3" t="n"/>
+      <c r="G748" s="3" t="n"/>
     </row>
     <row r="749">
       <c r="B749" s="2" t="n"/>
-      <c r="E749" s="3" t="n"/>
       <c r="F749" s="3" t="n"/>
+      <c r="G749" s="3" t="n"/>
     </row>
     <row r="750">
       <c r="B750" s="2" t="n"/>
-      <c r="E750" s="3" t="n"/>
       <c r="F750" s="3" t="n"/>
+      <c r="G750" s="3" t="n"/>
     </row>
     <row r="751">
       <c r="B751" s="2" t="n"/>
-      <c r="E751" s="3" t="n"/>
       <c r="F751" s="3" t="n"/>
+      <c r="G751" s="3" t="n"/>
     </row>
     <row r="752">
       <c r="B752" s="2" t="n"/>
-      <c r="E752" s="3" t="n"/>
       <c r="F752" s="3" t="n"/>
+      <c r="G752" s="3" t="n"/>
     </row>
     <row r="753">
       <c r="B753" s="2" t="n"/>
-      <c r="E753" s="3" t="n"/>
       <c r="F753" s="3" t="n"/>
+      <c r="G753" s="3" t="n"/>
     </row>
     <row r="754">
       <c r="B754" s="2" t="n"/>
-      <c r="E754" s="3" t="n"/>
       <c r="F754" s="3" t="n"/>
+      <c r="G754" s="3" t="n"/>
     </row>
     <row r="755">
       <c r="B755" s="2" t="n"/>
-      <c r="E755" s="3" t="n"/>
       <c r="F755" s="3" t="n"/>
+      <c r="G755" s="3" t="n"/>
     </row>
     <row r="756">
       <c r="B756" s="2" t="n"/>
-      <c r="E756" s="3" t="n"/>
       <c r="F756" s="3" t="n"/>
+      <c r="G756" s="3" t="n"/>
     </row>
     <row r="757">
       <c r="B757" s="2" t="n"/>
-      <c r="E757" s="3" t="n"/>
       <c r="F757" s="3" t="n"/>
+      <c r="G757" s="3" t="n"/>
     </row>
     <row r="758">
       <c r="B758" s="2" t="n"/>
-      <c r="E758" s="3" t="n"/>
       <c r="F758" s="3" t="n"/>
+      <c r="G758" s="3" t="n"/>
     </row>
     <row r="759">
       <c r="B759" s="2" t="n"/>
-      <c r="E759" s="3" t="n"/>
       <c r="F759" s="3" t="n"/>
+      <c r="G759" s="3" t="n"/>
     </row>
     <row r="760">
       <c r="B760" s="2" t="n"/>
-      <c r="E760" s="3" t="n"/>
       <c r="F760" s="3" t="n"/>
+      <c r="G760" s="3" t="n"/>
     </row>
     <row r="761">
       <c r="B761" s="2" t="n"/>
-      <c r="E761" s="3" t="n"/>
       <c r="F761" s="3" t="n"/>
+      <c r="G761" s="3" t="n"/>
     </row>
     <row r="762">
       <c r="B762" s="2" t="n"/>
-      <c r="E762" s="3" t="n"/>
       <c r="F762" s="3" t="n"/>
+      <c r="G762" s="3" t="n"/>
     </row>
     <row r="763">
       <c r="B763" s="2" t="n"/>
-      <c r="E763" s="3" t="n"/>
       <c r="F763" s="3" t="n"/>
+      <c r="G763" s="3" t="n"/>
     </row>
     <row r="764">
       <c r="B764" s="2" t="n"/>
-      <c r="E764" s="3" t="n"/>
       <c r="F764" s="3" t="n"/>
+      <c r="G764" s="3" t="n"/>
     </row>
     <row r="765">
       <c r="B765" s="2" t="n"/>
-      <c r="E765" s="3" t="n"/>
       <c r="F765" s="3" t="n"/>
+      <c r="G765" s="3" t="n"/>
     </row>
     <row r="766">
       <c r="B766" s="2" t="n"/>
-      <c r="E766" s="3" t="n"/>
       <c r="F766" s="3" t="n"/>
+      <c r="G766" s="3" t="n"/>
     </row>
     <row r="767">
       <c r="B767" s="2" t="n"/>
-      <c r="E767" s="3" t="n"/>
       <c r="F767" s="3" t="n"/>
+      <c r="G767" s="3" t="n"/>
     </row>
     <row r="768">
       <c r="B768" s="2" t="n"/>
-      <c r="E768" s="3" t="n"/>
       <c r="F768" s="3" t="n"/>
+      <c r="G768" s="3" t="n"/>
     </row>
     <row r="769">
       <c r="B769" s="2" t="n"/>
-      <c r="E769" s="3" t="n"/>
       <c r="F769" s="3" t="n"/>
+      <c r="G769" s="3" t="n"/>
     </row>
     <row r="770">
       <c r="B770" s="2" t="n"/>
-      <c r="E770" s="3" t="n"/>
       <c r="F770" s="3" t="n"/>
+      <c r="G770" s="3" t="n"/>
     </row>
     <row r="771">
       <c r="B771" s="2" t="n"/>
-      <c r="E771" s="3" t="n"/>
       <c r="F771" s="3" t="n"/>
+      <c r="G771" s="3" t="n"/>
     </row>
     <row r="772">
       <c r="B772" s="2" t="n"/>
-      <c r="E772" s="3" t="n"/>
       <c r="F772" s="3" t="n"/>
+      <c r="G772" s="3" t="n"/>
     </row>
     <row r="773">
       <c r="B773" s="2" t="n"/>
-      <c r="E773" s="3" t="n"/>
       <c r="F773" s="3" t="n"/>
+      <c r="G773" s="3" t="n"/>
     </row>
     <row r="774">
       <c r="B774" s="2" t="n"/>
-      <c r="E774" s="3" t="n"/>
       <c r="F774" s="3" t="n"/>
+      <c r="G774" s="3" t="n"/>
     </row>
     <row r="775">
       <c r="B775" s="2" t="n"/>
-      <c r="E775" s="3" t="n"/>
       <c r="F775" s="3" t="n"/>
+      <c r="G775" s="3" t="n"/>
     </row>
     <row r="776">
       <c r="B776" s="2" t="n"/>
-      <c r="E776" s="3" t="n"/>
       <c r="F776" s="3" t="n"/>
+      <c r="G776" s="3" t="n"/>
     </row>
     <row r="777">
       <c r="B777" s="2" t="n"/>
-      <c r="E777" s="3" t="n"/>
       <c r="F777" s="3" t="n"/>
+      <c r="G777" s="3" t="n"/>
     </row>
     <row r="778">
       <c r="B778" s="2" t="n"/>
-      <c r="E778" s="3" t="n"/>
       <c r="F778" s="3" t="n"/>
+      <c r="G778" s="3" t="n"/>
     </row>
     <row r="779">
       <c r="B779" s="2" t="n"/>
-      <c r="E779" s="3" t="n"/>
       <c r="F779" s="3" t="n"/>
+      <c r="G779" s="3" t="n"/>
     </row>
     <row r="780">
       <c r="B780" s="2" t="n"/>
-      <c r="E780" s="3" t="n"/>
       <c r="F780" s="3" t="n"/>
+      <c r="G780" s="3" t="n"/>
     </row>
     <row r="781">
       <c r="B781" s="2" t="n"/>
-      <c r="E781" s="3" t="n"/>
       <c r="F781" s="3" t="n"/>
+      <c r="G781" s="3" t="n"/>
     </row>
     <row r="782">
       <c r="B782" s="2" t="n"/>
-      <c r="E782" s="3" t="n"/>
       <c r="F782" s="3" t="n"/>
+      <c r="G782" s="3" t="n"/>
     </row>
     <row r="783">
       <c r="B783" s="2" t="n"/>
-      <c r="E783" s="3" t="n"/>
       <c r="F783" s="3" t="n"/>
+      <c r="G783" s="3" t="n"/>
     </row>
     <row r="784">
       <c r="B784" s="2" t="n"/>
-      <c r="E784" s="3" t="n"/>
       <c r="F784" s="3" t="n"/>
+      <c r="G784" s="3" t="n"/>
     </row>
     <row r="785">
       <c r="B785" s="2" t="n"/>
-      <c r="E785" s="3" t="n"/>
       <c r="F785" s="3" t="n"/>
+      <c r="G785" s="3" t="n"/>
     </row>
     <row r="786">
       <c r="B786" s="2" t="n"/>
-      <c r="E786" s="3" t="n"/>
       <c r="F786" s="3" t="n"/>
+      <c r="G786" s="3" t="n"/>
     </row>
     <row r="787">
       <c r="B787" s="2" t="n"/>
-      <c r="E787" s="3" t="n"/>
       <c r="F787" s="3" t="n"/>
+      <c r="G787" s="3" t="n"/>
     </row>
     <row r="788">
       <c r="B788" s="2" t="n"/>
-      <c r="E788" s="3" t="n"/>
       <c r="F788" s="3" t="n"/>
+      <c r="G788" s="3" t="n"/>
     </row>
     <row r="789">
       <c r="B789" s="2" t="n"/>
-      <c r="E789" s="3" t="n"/>
       <c r="F789" s="3" t="n"/>
+      <c r="G789" s="3" t="n"/>
     </row>
     <row r="790">
       <c r="B790" s="2" t="n"/>
-      <c r="E790" s="3" t="n"/>
       <c r="F790" s="3" t="n"/>
+      <c r="G790" s="3" t="n"/>
     </row>
     <row r="791">
       <c r="B791" s="2" t="n"/>
-      <c r="E791" s="3" t="n"/>
       <c r="F791" s="3" t="n"/>
+      <c r="G791" s="3" t="n"/>
     </row>
     <row r="792">
       <c r="B792" s="2" t="n"/>
-      <c r="E792" s="3" t="n"/>
       <c r="F792" s="3" t="n"/>
+      <c r="G792" s="3" t="n"/>
     </row>
     <row r="793">
       <c r="B793" s="2" t="n"/>
-      <c r="E793" s="3" t="n"/>
       <c r="F793" s="3" t="n"/>
+      <c r="G793" s="3" t="n"/>
     </row>
     <row r="794">
       <c r="B794" s="2" t="n"/>
-      <c r="E794" s="3" t="n"/>
       <c r="F794" s="3" t="n"/>
+      <c r="G794" s="3" t="n"/>
     </row>
     <row r="795">
       <c r="B795" s="2" t="n"/>
-      <c r="E795" s="3" t="n"/>
       <c r="F795" s="3" t="n"/>
+      <c r="G795" s="3" t="n"/>
     </row>
     <row r="796">
       <c r="B796" s="2" t="n"/>
-      <c r="E796" s="3" t="n"/>
       <c r="F796" s="3" t="n"/>
+      <c r="G796" s="3" t="n"/>
     </row>
     <row r="797">
       <c r="B797" s="2" t="n"/>
-      <c r="E797" s="3" t="n"/>
       <c r="F797" s="3" t="n"/>
+      <c r="G797" s="3" t="n"/>
     </row>
     <row r="798">
       <c r="B798" s="2" t="n"/>
-      <c r="E798" s="3" t="n"/>
       <c r="F798" s="3" t="n"/>
+      <c r="G798" s="3" t="n"/>
     </row>
     <row r="799">
       <c r="B799" s="2" t="n"/>
-      <c r="E799" s="3" t="n"/>
       <c r="F799" s="3" t="n"/>
+      <c r="G799" s="3" t="n"/>
     </row>
     <row r="800">
       <c r="B800" s="2" t="n"/>
-      <c r="E800" s="3" t="n"/>
       <c r="F800" s="3" t="n"/>
+      <c r="G800" s="3" t="n"/>
     </row>
     <row r="801">
       <c r="B801" s="2" t="n"/>
-      <c r="E801" s="3" t="n"/>
       <c r="F801" s="3" t="n"/>
+      <c r="G801" s="3" t="n"/>
     </row>
     <row r="802">
       <c r="B802" s="2" t="n"/>
-      <c r="E802" s="3" t="n"/>
       <c r="F802" s="3" t="n"/>
+      <c r="G802" s="3" t="n"/>
     </row>
     <row r="803">
       <c r="B803" s="2" t="n"/>
-      <c r="E803" s="3" t="n"/>
       <c r="F803" s="3" t="n"/>
+      <c r="G803" s="3" t="n"/>
     </row>
     <row r="804">
       <c r="B804" s="2" t="n"/>
-      <c r="E804" s="3" t="n"/>
       <c r="F804" s="3" t="n"/>
+      <c r="G804" s="3" t="n"/>
     </row>
     <row r="805">
       <c r="B805" s="2" t="n"/>
-      <c r="E805" s="3" t="n"/>
       <c r="F805" s="3" t="n"/>
+      <c r="G805" s="3" t="n"/>
     </row>
     <row r="806">
       <c r="B806" s="2" t="n"/>
-      <c r="E806" s="3" t="n"/>
       <c r="F806" s="3" t="n"/>
+      <c r="G806" s="3" t="n"/>
     </row>
     <row r="807">
       <c r="B807" s="2" t="n"/>
-      <c r="E807" s="3" t="n"/>
       <c r="F807" s="3" t="n"/>
+      <c r="G807" s="3" t="n"/>
     </row>
     <row r="808">
       <c r="B808" s="2" t="n"/>
-      <c r="E808" s="3" t="n"/>
       <c r="F808" s="3" t="n"/>
+      <c r="G808" s="3" t="n"/>
     </row>
     <row r="809">
       <c r="B809" s="2" t="n"/>
-      <c r="E809" s="3" t="n"/>
       <c r="F809" s="3" t="n"/>
+      <c r="G809" s="3" t="n"/>
     </row>
     <row r="810">
       <c r="B810" s="2" t="n"/>
-      <c r="E810" s="3" t="n"/>
       <c r="F810" s="3" t="n"/>
+      <c r="G810" s="3" t="n"/>
     </row>
     <row r="811">
       <c r="B811" s="2" t="n"/>
-      <c r="E811" s="3" t="n"/>
       <c r="F811" s="3" t="n"/>
+      <c r="G811" s="3" t="n"/>
     </row>
     <row r="812">
       <c r="B812" s="2" t="n"/>
-      <c r="E812" s="3" t="n"/>
       <c r="F812" s="3" t="n"/>
+      <c r="G812" s="3" t="n"/>
     </row>
     <row r="813">
       <c r="B813" s="2" t="n"/>
-      <c r="E813" s="3" t="n"/>
       <c r="F813" s="3" t="n"/>
+      <c r="G813" s="3" t="n"/>
     </row>
     <row r="814">
       <c r="B814" s="2" t="n"/>
-      <c r="E814" s="3" t="n"/>
       <c r="F814" s="3" t="n"/>
+      <c r="G814" s="3" t="n"/>
     </row>
     <row r="815">
       <c r="B815" s="2" t="n"/>
-      <c r="E815" s="3" t="n"/>
       <c r="F815" s="3" t="n"/>
+      <c r="G815" s="3" t="n"/>
     </row>
     <row r="816">
       <c r="B816" s="2" t="n"/>
-      <c r="E816" s="3" t="n"/>
       <c r="F816" s="3" t="n"/>
+      <c r="G816" s="3" t="n"/>
     </row>
     <row r="817">
       <c r="B817" s="2" t="n"/>
-      <c r="E817" s="3" t="n"/>
       <c r="F817" s="3" t="n"/>
+      <c r="G817" s="3" t="n"/>
     </row>
     <row r="818">
       <c r="B818" s="2" t="n"/>
-      <c r="E818" s="3" t="n"/>
       <c r="F818" s="3" t="n"/>
+      <c r="G818" s="3" t="n"/>
     </row>
     <row r="819">
       <c r="B819" s="2" t="n"/>
-      <c r="E819" s="3" t="n"/>
       <c r="F819" s="3" t="n"/>
+      <c r="G819" s="3" t="n"/>
     </row>
     <row r="820">
       <c r="B820" s="2" t="n"/>
-      <c r="E820" s="3" t="n"/>
       <c r="F820" s="3" t="n"/>
+      <c r="G820" s="3" t="n"/>
     </row>
     <row r="821">
       <c r="B821" s="2" t="n"/>
-      <c r="E821" s="3" t="n"/>
       <c r="F821" s="3" t="n"/>
+      <c r="G821" s="3" t="n"/>
     </row>
     <row r="822">
       <c r="B822" s="2" t="n"/>
-      <c r="E822" s="3" t="n"/>
       <c r="F822" s="3" t="n"/>
+      <c r="G822" s="3" t="n"/>
     </row>
     <row r="823">
       <c r="B823" s="2" t="n"/>
-      <c r="E823" s="3" t="n"/>
       <c r="F823" s="3" t="n"/>
+      <c r="G823" s="3" t="n"/>
     </row>
     <row r="824">
       <c r="B824" s="2" t="n"/>
-      <c r="E824" s="3" t="n"/>
       <c r="F824" s="3" t="n"/>
+      <c r="G824" s="3" t="n"/>
     </row>
     <row r="825">
       <c r="B825" s="2" t="n"/>
-      <c r="E825" s="3" t="n"/>
       <c r="F825" s="3" t="n"/>
+      <c r="G825" s="3" t="n"/>
     </row>
     <row r="826">
       <c r="B826" s="2" t="n"/>
-      <c r="E826" s="3" t="n"/>
       <c r="F826" s="3" t="n"/>
+      <c r="G826" s="3" t="n"/>
     </row>
     <row r="827">
       <c r="B827" s="2" t="n"/>
-      <c r="E827" s="3" t="n"/>
       <c r="F827" s="3" t="n"/>
+      <c r="G827" s="3" t="n"/>
     </row>
     <row r="828">
       <c r="B828" s="2" t="n"/>
-      <c r="E828" s="3" t="n"/>
       <c r="F828" s="3" t="n"/>
+      <c r="G828" s="3" t="n"/>
     </row>
     <row r="829">
       <c r="B829" s="2" t="n"/>
-      <c r="E829" s="3" t="n"/>
       <c r="F829" s="3" t="n"/>
+      <c r="G829" s="3" t="n"/>
     </row>
     <row r="830">
       <c r="B830" s="2" t="n"/>
-      <c r="E830" s="3" t="n"/>
       <c r="F830" s="3" t="n"/>
+      <c r="G830" s="3" t="n"/>
     </row>
     <row r="831">
       <c r="B831" s="2" t="n"/>
-      <c r="E831" s="3" t="n"/>
       <c r="F831" s="3" t="n"/>
+      <c r="G831" s="3" t="n"/>
     </row>
     <row r="832">
       <c r="B832" s="2" t="n"/>
-      <c r="E832" s="3" t="n"/>
       <c r="F832" s="3" t="n"/>
+      <c r="G832" s="3" t="n"/>
     </row>
     <row r="833">
       <c r="B833" s="2" t="n"/>
-      <c r="E833" s="3" t="n"/>
       <c r="F833" s="3" t="n"/>
+      <c r="G833" s="3" t="n"/>
     </row>
     <row r="834">
       <c r="B834" s="2" t="n"/>
-      <c r="E834" s="3" t="n"/>
       <c r="F834" s="3" t="n"/>
+      <c r="G834" s="3" t="n"/>
     </row>
     <row r="835">
       <c r="B835" s="2" t="n"/>
-      <c r="E835" s="3" t="n"/>
       <c r="F835" s="3" t="n"/>
+      <c r="G835" s="3" t="n"/>
     </row>
     <row r="836">
       <c r="B836" s="2" t="n"/>
-      <c r="E836" s="3" t="n"/>
       <c r="F836" s="3" t="n"/>
+      <c r="G836" s="3" t="n"/>
     </row>
     <row r="837">
       <c r="B837" s="2" t="n"/>
-      <c r="E837" s="3" t="n"/>
       <c r="F837" s="3" t="n"/>
+      <c r="G837" s="3" t="n"/>
     </row>
     <row r="838">
       <c r="B838" s="2" t="n"/>
-      <c r="E838" s="3" t="n"/>
       <c r="F838" s="3" t="n"/>
+      <c r="G838" s="3" t="n"/>
     </row>
     <row r="839">
       <c r="B839" s="2" t="n"/>
-      <c r="E839" s="3" t="n"/>
       <c r="F839" s="3" t="n"/>
+      <c r="G839" s="3" t="n"/>
     </row>
     <row r="840">
       <c r="B840" s="2" t="n"/>
-      <c r="E840" s="3" t="n"/>
       <c r="F840" s="3" t="n"/>
+      <c r="G840" s="3" t="n"/>
     </row>
     <row r="841">
       <c r="B841" s="2" t="n"/>
-      <c r="E841" s="3" t="n"/>
       <c r="F841" s="3" t="n"/>
+      <c r="G841" s="3" t="n"/>
     </row>
     <row r="842">
       <c r="B842" s="2" t="n"/>
-      <c r="E842" s="3" t="n"/>
       <c r="F842" s="3" t="n"/>
+      <c r="G842" s="3" t="n"/>
     </row>
     <row r="843">
       <c r="B843" s="2" t="n"/>
-      <c r="E843" s="3" t="n"/>
       <c r="F843" s="3" t="n"/>
+      <c r="G843" s="3" t="n"/>
     </row>
     <row r="844">
       <c r="B844" s="2" t="n"/>
-      <c r="E844" s="3" t="n"/>
       <c r="F844" s="3" t="n"/>
+      <c r="G844" s="3" t="n"/>
     </row>
     <row r="845">
       <c r="B845" s="2" t="n"/>
-      <c r="E845" s="3" t="n"/>
       <c r="F845" s="3" t="n"/>
+      <c r="G845" s="3" t="n"/>
     </row>
     <row r="846">
       <c r="B846" s="2" t="n"/>
-      <c r="E846" s="3" t="n"/>
       <c r="F846" s="3" t="n"/>
+      <c r="G846" s="3" t="n"/>
     </row>
     <row r="847">
       <c r="B847" s="2" t="n"/>
-      <c r="E847" s="3" t="n"/>
       <c r="F847" s="3" t="n"/>
+      <c r="G847" s="3" t="n"/>
     </row>
     <row r="848">
       <c r="B848" s="2" t="n"/>
-      <c r="E848" s="3" t="n"/>
       <c r="F848" s="3" t="n"/>
+      <c r="G848" s="3" t="n"/>
     </row>
     <row r="849">
       <c r="B849" s="2" t="n"/>
-      <c r="E849" s="3" t="n"/>
       <c r="F849" s="3" t="n"/>
+      <c r="G849" s="3" t="n"/>
     </row>
     <row r="850">
       <c r="B850" s="2" t="n"/>
-      <c r="E850" s="3" t="n"/>
       <c r="F850" s="3" t="n"/>
+      <c r="G850" s="3" t="n"/>
     </row>
     <row r="851">
       <c r="B851" s="2" t="n"/>
-      <c r="E851" s="3" t="n"/>
       <c r="F851" s="3" t="n"/>
+      <c r="G851" s="3" t="n"/>
     </row>
     <row r="852">
       <c r="B852" s="2" t="n"/>
-      <c r="E852" s="3" t="n"/>
       <c r="F852" s="3" t="n"/>
+      <c r="G852" s="3" t="n"/>
     </row>
     <row r="853">
       <c r="B853" s="2" t="n"/>
-      <c r="E853" s="3" t="n"/>
       <c r="F853" s="3" t="n"/>
+      <c r="G853" s="3" t="n"/>
     </row>
     <row r="854">
       <c r="B854" s="2" t="n"/>
-      <c r="E854" s="3" t="n"/>
       <c r="F854" s="3" t="n"/>
+      <c r="G854" s="3" t="n"/>
     </row>
     <row r="855">
       <c r="B855" s="2" t="n"/>
-      <c r="E855" s="3" t="n"/>
       <c r="F855" s="3" t="n"/>
+      <c r="G855" s="3" t="n"/>
     </row>
     <row r="856">
       <c r="B856" s="2" t="n"/>
-      <c r="E856" s="3" t="n"/>
       <c r="F856" s="3" t="n"/>
+      <c r="G856" s="3" t="n"/>
     </row>
     <row r="857">
       <c r="B857" s="2" t="n"/>
-      <c r="E857" s="3" t="n"/>
       <c r="F857" s="3" t="n"/>
+      <c r="G857" s="3" t="n"/>
     </row>
     <row r="858">
       <c r="B858" s="2" t="n"/>
-      <c r="E858" s="3" t="n"/>
       <c r="F858" s="3" t="n"/>
+      <c r="G858" s="3" t="n"/>
     </row>
     <row r="859">
       <c r="B859" s="2" t="n"/>
-      <c r="E859" s="3" t="n"/>
       <c r="F859" s="3" t="n"/>
+      <c r="G859" s="3" t="n"/>
     </row>
     <row r="860">
       <c r="B860" s="2" t="n"/>
-      <c r="E860" s="3" t="n"/>
       <c r="F860" s="3" t="n"/>
+      <c r="G860" s="3" t="n"/>
     </row>
     <row r="861">
       <c r="B861" s="2" t="n"/>
-      <c r="E861" s="3" t="n"/>
       <c r="F861" s="3" t="n"/>
+      <c r="G861" s="3" t="n"/>
     </row>
     <row r="862">
       <c r="B862" s="2" t="n"/>
-      <c r="E862" s="3" t="n"/>
       <c r="F862" s="3" t="n"/>
+      <c r="G862" s="3" t="n"/>
     </row>
     <row r="863">
       <c r="B863" s="2" t="n"/>
-      <c r="E863" s="3" t="n"/>
       <c r="F863" s="3" t="n"/>
+      <c r="G863" s="3" t="n"/>
     </row>
     <row r="864">
       <c r="B864" s="2" t="n"/>
-      <c r="E864" s="3" t="n"/>
       <c r="F864" s="3" t="n"/>
+      <c r="G864" s="3" t="n"/>
     </row>
     <row r="865">
       <c r="B865" s="2" t="n"/>
-      <c r="E865" s="3" t="n"/>
       <c r="F865" s="3" t="n"/>
+      <c r="G865" s="3" t="n"/>
     </row>
     <row r="866">
       <c r="B866" s="2" t="n"/>
-      <c r="E866" s="3" t="n"/>
       <c r="F866" s="3" t="n"/>
+      <c r="G866" s="3" t="n"/>
     </row>
     <row r="867">
       <c r="B867" s="2" t="n"/>
-      <c r="E867" s="3" t="n"/>
       <c r="F867" s="3" t="n"/>
+      <c r="G867" s="3" t="n"/>
     </row>
     <row r="868">
       <c r="B868" s="2" t="n"/>
-      <c r="E868" s="3" t="n"/>
       <c r="F868" s="3" t="n"/>
+      <c r="G868" s="3" t="n"/>
     </row>
     <row r="869">
       <c r="B869" s="2" t="n"/>
-      <c r="E869" s="3" t="n"/>
       <c r="F869" s="3" t="n"/>
+      <c r="G869" s="3" t="n"/>
     </row>
     <row r="870">
       <c r="B870" s="2" t="n"/>
-      <c r="E870" s="3" t="n"/>
       <c r="F870" s="3" t="n"/>
+      <c r="G870" s="3" t="n"/>
     </row>
     <row r="871">
       <c r="B871" s="2" t="n"/>
-      <c r="E871" s="3" t="n"/>
       <c r="F871" s="3" t="n"/>
+      <c r="G871" s="3" t="n"/>
     </row>
     <row r="872">
       <c r="B872" s="2" t="n"/>
-      <c r="E872" s="3" t="n"/>
       <c r="F872" s="3" t="n"/>
+      <c r="G872" s="3" t="n"/>
     </row>
     <row r="873">
       <c r="B873" s="2" t="n"/>
-      <c r="E873" s="3" t="n"/>
       <c r="F873" s="3" t="n"/>
+      <c r="G873" s="3" t="n"/>
     </row>
     <row r="874">
       <c r="B874" s="2" t="n"/>
-      <c r="E874" s="3" t="n"/>
       <c r="F874" s="3" t="n"/>
+      <c r="G874" s="3" t="n"/>
     </row>
     <row r="875">
       <c r="B875" s="2" t="n"/>
-      <c r="E875" s="3" t="n"/>
       <c r="F875" s="3" t="n"/>
+      <c r="G875" s="3" t="n"/>
     </row>
     <row r="876">
       <c r="B876" s="2" t="n"/>
-      <c r="E876" s="3" t="n"/>
       <c r="F876" s="3" t="n"/>
+      <c r="G876" s="3" t="n"/>
     </row>
     <row r="877">
       <c r="B877" s="2" t="n"/>
-      <c r="E877" s="3" t="n"/>
       <c r="F877" s="3" t="n"/>
+      <c r="G877" s="3" t="n"/>
     </row>
     <row r="878">
       <c r="B878" s="2" t="n"/>
-      <c r="E878" s="3" t="n"/>
       <c r="F878" s="3" t="n"/>
+      <c r="G878" s="3" t="n"/>
     </row>
     <row r="879">
       <c r="B879" s="2" t="n"/>
-      <c r="E879" s="3" t="n"/>
       <c r="F879" s="3" t="n"/>
+      <c r="G879" s="3" t="n"/>
     </row>
     <row r="880">
       <c r="B880" s="2" t="n"/>
-      <c r="E880" s="3" t="n"/>
       <c r="F880" s="3" t="n"/>
+      <c r="G880" s="3" t="n"/>
     </row>
     <row r="881">
       <c r="B881" s="2" t="n"/>
-      <c r="E881" s="3" t="n"/>
       <c r="F881" s="3" t="n"/>
+      <c r="G881" s="3" t="n"/>
     </row>
     <row r="882">
       <c r="B882" s="2" t="n"/>
-      <c r="E882" s="3" t="n"/>
       <c r="F882" s="3" t="n"/>
+      <c r="G882" s="3" t="n"/>
     </row>
     <row r="883">
       <c r="B883" s="2" t="n"/>
-      <c r="E883" s="3" t="n"/>
       <c r="F883" s="3" t="n"/>
+      <c r="G883" s="3" t="n"/>
     </row>
     <row r="884">
       <c r="B884" s="2" t="n"/>
-      <c r="E884" s="3" t="n"/>
       <c r="F884" s="3" t="n"/>
+      <c r="G884" s="3" t="n"/>
     </row>
     <row r="885">
       <c r="B885" s="2" t="n"/>
-      <c r="E885" s="3" t="n"/>
       <c r="F885" s="3" t="n"/>
+      <c r="G885" s="3" t="n"/>
     </row>
     <row r="886">
       <c r="B886" s="2" t="n"/>
-      <c r="E886" s="3" t="n"/>
       <c r="F886" s="3" t="n"/>
+      <c r="G886" s="3" t="n"/>
     </row>
     <row r="887">
       <c r="B887" s="2" t="n"/>
-      <c r="E887" s="3" t="n"/>
       <c r="F887" s="3" t="n"/>
+      <c r="G887" s="3" t="n"/>
     </row>
     <row r="888">
       <c r="B888" s="2" t="n"/>
-      <c r="E888" s="3" t="n"/>
       <c r="F888" s="3" t="n"/>
+      <c r="G888" s="3" t="n"/>
     </row>
     <row r="889">
       <c r="B889" s="2" t="n"/>
-      <c r="E889" s="3" t="n"/>
       <c r="F889" s="3" t="n"/>
+      <c r="G889" s="3" t="n"/>
     </row>
     <row r="890">
       <c r="B890" s="2" t="n"/>
-      <c r="E890" s="3" t="n"/>
       <c r="F890" s="3" t="n"/>
+      <c r="G890" s="3" t="n"/>
     </row>
     <row r="891">
       <c r="B891" s="2" t="n"/>
-      <c r="E891" s="3" t="n"/>
       <c r="F891" s="3" t="n"/>
+      <c r="G891" s="3" t="n"/>
     </row>
     <row r="892">
       <c r="B892" s="2" t="n"/>
-      <c r="E892" s="3" t="n"/>
       <c r="F892" s="3" t="n"/>
+      <c r="G892" s="3" t="n"/>
     </row>
     <row r="893">
       <c r="B893" s="2" t="n"/>
-      <c r="E893" s="3" t="n"/>
       <c r="F893" s="3" t="n"/>
+      <c r="G893" s="3" t="n"/>
     </row>
     <row r="894">
       <c r="B894" s="2" t="n"/>
-      <c r="E894" s="3" t="n"/>
       <c r="F894" s="3" t="n"/>
+      <c r="G894" s="3" t="n"/>
     </row>
     <row r="895">
       <c r="B895" s="2" t="n"/>
-      <c r="E895" s="3" t="n"/>
       <c r="F895" s="3" t="n"/>
+      <c r="G895" s="3" t="n"/>
     </row>
     <row r="896">
       <c r="B896" s="2" t="n"/>
-      <c r="E896" s="3" t="n"/>
       <c r="F896" s="3" t="n"/>
+      <c r="G896" s="3" t="n"/>
     </row>
     <row r="897">
       <c r="B897" s="2" t="n"/>
-      <c r="E897" s="3" t="n"/>
       <c r="F897" s="3" t="n"/>
+      <c r="G897" s="3" t="n"/>
     </row>
     <row r="898">
       <c r="B898" s="2" t="n"/>
-      <c r="E898" s="3" t="n"/>
       <c r="F898" s="3" t="n"/>
+      <c r="G898" s="3" t="n"/>
     </row>
     <row r="899">
       <c r="B899" s="2" t="n"/>
-      <c r="E899" s="3" t="n"/>
       <c r="F899" s="3" t="n"/>
+      <c r="G899" s="3" t="n"/>
     </row>
     <row r="900">
       <c r="B900" s="2" t="n"/>
-      <c r="E900" s="3" t="n"/>
       <c r="F900" s="3" t="n"/>
+      <c r="G900" s="3" t="n"/>
     </row>
     <row r="901">
       <c r="B901" s="2" t="n"/>
-      <c r="E901" s="3" t="n"/>
       <c r="F901" s="3" t="n"/>
+      <c r="G901" s="3" t="n"/>
     </row>
     <row r="902">
       <c r="B902" s="2" t="n"/>
-      <c r="E902" s="3" t="n"/>
       <c r="F902" s="3" t="n"/>
+      <c r="G902" s="3" t="n"/>
     </row>
     <row r="903">
       <c r="B903" s="2" t="n"/>
-      <c r="E903" s="3" t="n"/>
       <c r="F903" s="3" t="n"/>
+      <c r="G903" s="3" t="n"/>
     </row>
     <row r="904">
       <c r="B904" s="2" t="n"/>
-      <c r="E904" s="3" t="n"/>
       <c r="F904" s="3" t="n"/>
+      <c r="G904" s="3" t="n"/>
     </row>
     <row r="905">
       <c r="B905" s="2" t="n"/>
-      <c r="E905" s="3" t="n"/>
       <c r="F905" s="3" t="n"/>
+      <c r="G905" s="3" t="n"/>
     </row>
     <row r="906">
       <c r="B906" s="2" t="n"/>
-      <c r="E906" s="3" t="n"/>
       <c r="F906" s="3" t="n"/>
+      <c r="G906" s="3" t="n"/>
     </row>
     <row r="907">
       <c r="B907" s="2" t="n"/>
-      <c r="E907" s="3" t="n"/>
       <c r="F907" s="3" t="n"/>
+      <c r="G907" s="3" t="n"/>
     </row>
     <row r="908">
       <c r="B908" s="2" t="n"/>
-      <c r="E908" s="3" t="n"/>
       <c r="F908" s="3" t="n"/>
+      <c r="G908" s="3" t="n"/>
     </row>
     <row r="909">
       <c r="B909" s="2" t="n"/>
-      <c r="E909" s="3" t="n"/>
       <c r="F909" s="3" t="n"/>
+      <c r="G909" s="3" t="n"/>
     </row>
     <row r="910">
       <c r="B910" s="2" t="n"/>
-      <c r="E910" s="3" t="n"/>
       <c r="F910" s="3" t="n"/>
+      <c r="G910" s="3" t="n"/>
     </row>
     <row r="911">
       <c r="B911" s="2" t="n"/>
-      <c r="E911" s="3" t="n"/>
       <c r="F911" s="3" t="n"/>
+      <c r="G911" s="3" t="n"/>
     </row>
     <row r="912">
       <c r="B912" s="2" t="n"/>
-      <c r="E912" s="3" t="n"/>
       <c r="F912" s="3" t="n"/>
+      <c r="G912" s="3" t="n"/>
     </row>
     <row r="913">
       <c r="B913" s="2" t="n"/>
-      <c r="E913" s="3" t="n"/>
       <c r="F913" s="3" t="n"/>
+      <c r="G913" s="3" t="n"/>
     </row>
     <row r="914">
       <c r="B914" s="2" t="n"/>
-      <c r="E914" s="3" t="n"/>
       <c r="F914" s="3" t="n"/>
+      <c r="G914" s="3" t="n"/>
     </row>
     <row r="915">
       <c r="B915" s="2" t="n"/>
-      <c r="E915" s="3" t="n"/>
       <c r="F915" s="3" t="n"/>
+      <c r="G915" s="3" t="n"/>
     </row>
     <row r="916">
       <c r="B916" s="2" t="n"/>
-      <c r="E916" s="3" t="n"/>
       <c r="F916" s="3" t="n"/>
+      <c r="G916" s="3" t="n"/>
     </row>
     <row r="917">
       <c r="B917" s="2" t="n"/>
-      <c r="E917" s="3" t="n"/>
       <c r="F917" s="3" t="n"/>
+      <c r="G917" s="3" t="n"/>
     </row>
     <row r="918">
       <c r="B918" s="2" t="n"/>
-      <c r="E918" s="3" t="n"/>
       <c r="F918" s="3" t="n"/>
+      <c r="G918" s="3" t="n"/>
     </row>
     <row r="919">
       <c r="B919" s="2" t="n"/>
-      <c r="E919" s="3" t="n"/>
       <c r="F919" s="3" t="n"/>
+      <c r="G919" s="3" t="n"/>
     </row>
     <row r="920">
       <c r="B920" s="2" t="n"/>
-      <c r="E920" s="3" t="n"/>
       <c r="F920" s="3" t="n"/>
+      <c r="G920" s="3" t="n"/>
     </row>
     <row r="921">
       <c r="B921" s="2" t="n"/>
-      <c r="E921" s="3" t="n"/>
       <c r="F921" s="3" t="n"/>
+      <c r="G921" s="3" t="n"/>
     </row>
     <row r="922">
       <c r="B922" s="2" t="n"/>
-      <c r="E922" s="3" t="n"/>
       <c r="F922" s="3" t="n"/>
+      <c r="G922" s="3" t="n"/>
     </row>
     <row r="923">
       <c r="B923" s="2" t="n"/>
-      <c r="E923" s="3" t="n"/>
       <c r="F923" s="3" t="n"/>
+      <c r="G923" s="3" t="n"/>
     </row>
     <row r="924">
       <c r="B924" s="2" t="n"/>
-      <c r="E924" s="3" t="n"/>
       <c r="F924" s="3" t="n"/>
+      <c r="G924" s="3" t="n"/>
     </row>
     <row r="925">
       <c r="B925" s="2" t="n"/>
-      <c r="E925" s="3" t="n"/>
       <c r="F925" s="3" t="n"/>
+      <c r="G925" s="3" t="n"/>
     </row>
     <row r="926">
       <c r="B926" s="2" t="n"/>
-      <c r="E926" s="3" t="n"/>
       <c r="F926" s="3" t="n"/>
+      <c r="G926" s="3" t="n"/>
     </row>
     <row r="927">
       <c r="B927" s="2" t="n"/>
-      <c r="E927" s="3" t="n"/>
       <c r="F927" s="3" t="n"/>
+      <c r="G927" s="3" t="n"/>
     </row>
     <row r="928">
       <c r="B928" s="2" t="n"/>
-      <c r="E928" s="3" t="n"/>
       <c r="F928" s="3" t="n"/>
+      <c r="G928" s="3" t="n"/>
     </row>
     <row r="929">
       <c r="B929" s="2" t="n"/>
-      <c r="E929" s="3" t="n"/>
       <c r="F929" s="3" t="n"/>
+      <c r="G929" s="3" t="n"/>
     </row>
     <row r="930">
       <c r="B930" s="2" t="n"/>
-      <c r="E930" s="3" t="n"/>
       <c r="F930" s="3" t="n"/>
+      <c r="G930" s="3" t="n"/>
     </row>
     <row r="931">
       <c r="B931" s="2" t="n"/>
-      <c r="E931" s="3" t="n"/>
       <c r="F931" s="3" t="n"/>
+      <c r="G931" s="3" t="n"/>
     </row>
     <row r="932">
       <c r="B932" s="2" t="n"/>
-      <c r="E932" s="3" t="n"/>
       <c r="F932" s="3" t="n"/>
+      <c r="G932" s="3" t="n"/>
     </row>
     <row r="933">
       <c r="B933" s="2" t="n"/>
-      <c r="E933" s="3" t="n"/>
       <c r="F933" s="3" t="n"/>
+      <c r="G933" s="3" t="n"/>
     </row>
     <row r="934">
       <c r="B934" s="2" t="n"/>
-      <c r="E934" s="3" t="n"/>
       <c r="F934" s="3" t="n"/>
+      <c r="G934" s="3" t="n"/>
     </row>
     <row r="935">
       <c r="B935" s="2" t="n"/>
-      <c r="E935" s="3" t="n"/>
       <c r="F935" s="3" t="n"/>
+      <c r="G935" s="3" t="n"/>
     </row>
     <row r="936">
       <c r="B936" s="2" t="n"/>
-      <c r="E936" s="3" t="n"/>
       <c r="F936" s="3" t="n"/>
+      <c r="G936" s="3" t="n"/>
     </row>
     <row r="937">
       <c r="B937" s="2" t="n"/>
-      <c r="E937" s="3" t="n"/>
       <c r="F937" s="3" t="n"/>
+      <c r="G937" s="3" t="n"/>
     </row>
     <row r="938">
       <c r="B938" s="2" t="n"/>
-      <c r="E938" s="3" t="n"/>
       <c r="F938" s="3" t="n"/>
+      <c r="G938" s="3" t="n"/>
     </row>
     <row r="939">
       <c r="B939" s="2" t="n"/>
-      <c r="E939" s="3" t="n"/>
       <c r="F939" s="3" t="n"/>
+      <c r="G939" s="3" t="n"/>
     </row>
     <row r="940">
       <c r="B940" s="2" t="n"/>
-      <c r="E940" s="3" t="n"/>
       <c r="F940" s="3" t="n"/>
+      <c r="G940" s="3" t="n"/>
     </row>
     <row r="941">
       <c r="B941" s="2" t="n"/>
-      <c r="E941" s="3" t="n"/>
       <c r="F941" s="3" t="n"/>
+      <c r="G941" s="3" t="n"/>
     </row>
     <row r="942">
       <c r="B942" s="2" t="n"/>
-      <c r="E942" s="3" t="n"/>
       <c r="F942" s="3" t="n"/>
+      <c r="G942" s="3" t="n"/>
     </row>
     <row r="943">
       <c r="B943" s="2" t="n"/>
-      <c r="E943" s="3" t="n"/>
       <c r="F943" s="3" t="n"/>
+      <c r="G943" s="3" t="n"/>
     </row>
     <row r="944">
       <c r="B944" s="2" t="n"/>
-      <c r="E944" s="3" t="n"/>
       <c r="F944" s="3" t="n"/>
+      <c r="G944" s="3" t="n"/>
     </row>
     <row r="945">
       <c r="B945" s="2" t="n"/>
-      <c r="E945" s="3" t="n"/>
       <c r="F945" s="3" t="n"/>
+      <c r="G945" s="3" t="n"/>
     </row>
     <row r="946">
       <c r="B946" s="2" t="n"/>
-      <c r="E946" s="3" t="n"/>
       <c r="F946" s="3" t="n"/>
+      <c r="G946" s="3" t="n"/>
     </row>
     <row r="947">
       <c r="B947" s="2" t="n"/>
-      <c r="E947" s="3" t="n"/>
       <c r="F947" s="3" t="n"/>
+      <c r="G947" s="3" t="n"/>
     </row>
     <row r="948">
       <c r="B948" s="2" t="n"/>
-      <c r="E948" s="3" t="n"/>
       <c r="F948" s="3" t="n"/>
+      <c r="G948" s="3" t="n"/>
     </row>
     <row r="949">
       <c r="B949" s="2" t="n"/>
-      <c r="E949" s="3" t="n"/>
       <c r="F949" s="3" t="n"/>
+      <c r="G949" s="3" t="n"/>
     </row>
     <row r="950">
       <c r="B950" s="2" t="n"/>
-      <c r="E950" s="3" t="n"/>
       <c r="F950" s="3" t="n"/>
+      <c r="G950" s="3" t="n"/>
     </row>
     <row r="951">
       <c r="B951" s="2" t="n"/>
-      <c r="E951" s="3" t="n"/>
       <c r="F951" s="3" t="n"/>
+      <c r="G951" s="3" t="n"/>
     </row>
     <row r="952">
       <c r="B952" s="2" t="n"/>
-      <c r="E952" s="3" t="n"/>
       <c r="F952" s="3" t="n"/>
+      <c r="G952" s="3" t="n"/>
     </row>
     <row r="953">
       <c r="B953" s="2" t="n"/>
-      <c r="E953" s="3" t="n"/>
       <c r="F953" s="3" t="n"/>
+      <c r="G953" s="3" t="n"/>
     </row>
     <row r="954">
       <c r="B954" s="2" t="n"/>
-      <c r="E954" s="3" t="n"/>
       <c r="F954" s="3" t="n"/>
+      <c r="G954" s="3" t="n"/>
     </row>
     <row r="955">
       <c r="B955" s="2" t="n"/>
-      <c r="E955" s="3" t="n"/>
       <c r="F955" s="3" t="n"/>
+      <c r="G955" s="3" t="n"/>
     </row>
     <row r="956">
       <c r="B956" s="2" t="n"/>
-      <c r="E956" s="3" t="n"/>
       <c r="F956" s="3" t="n"/>
+      <c r="G956" s="3" t="n"/>
     </row>
     <row r="957">
       <c r="B957" s="2" t="n"/>
-      <c r="E957" s="3" t="n"/>
       <c r="F957" s="3" t="n"/>
+      <c r="G957" s="3" t="n"/>
     </row>
     <row r="958">
       <c r="B958" s="2" t="n"/>
-      <c r="E958" s="3" t="n"/>
       <c r="F958" s="3" t="n"/>
+      <c r="G958" s="3" t="n"/>
     </row>
     <row r="959">
       <c r="B959" s="2" t="n"/>
-      <c r="E959" s="3" t="n"/>
       <c r="F959" s="3" t="n"/>
+      <c r="G959" s="3" t="n"/>
     </row>
     <row r="960">
       <c r="B960" s="2" t="n"/>
-      <c r="E960" s="3" t="n"/>
       <c r="F960" s="3" t="n"/>
+      <c r="G960" s="3" t="n"/>
     </row>
     <row r="961">
       <c r="B961" s="2" t="n"/>
-      <c r="E961" s="3" t="n"/>
       <c r="F961" s="3" t="n"/>
+      <c r="G961" s="3" t="n"/>
     </row>
     <row r="962">
       <c r="B962" s="2" t="n"/>
-      <c r="E962" s="3" t="n"/>
       <c r="F962" s="3" t="n"/>
+      <c r="G962" s="3" t="n"/>
     </row>
     <row r="963">
       <c r="B963" s="2" t="n"/>
-      <c r="E963" s="3" t="n"/>
       <c r="F963" s="3" t="n"/>
+      <c r="G963" s="3" t="n"/>
     </row>
     <row r="964">
       <c r="B964" s="2" t="n"/>
-      <c r="E964" s="3" t="n"/>
       <c r="F964" s="3" t="n"/>
+      <c r="G964" s="3" t="n"/>
     </row>
     <row r="965">
       <c r="B965" s="2" t="n"/>
-      <c r="E965" s="3" t="n"/>
       <c r="F965" s="3" t="n"/>
+      <c r="G965" s="3" t="n"/>
     </row>
     <row r="966">
       <c r="B966" s="2" t="n"/>
-      <c r="E966" s="3" t="n"/>
       <c r="F966" s="3" t="n"/>
+      <c r="G966" s="3" t="n"/>
     </row>
     <row r="967">
       <c r="B967" s="2" t="n"/>
-      <c r="E967" s="3" t="n"/>
       <c r="F967" s="3" t="n"/>
+      <c r="G967" s="3" t="n"/>
     </row>
     <row r="968">
       <c r="B968" s="2" t="n"/>
-      <c r="E968" s="3" t="n"/>
       <c r="F968" s="3" t="n"/>
+      <c r="G968" s="3" t="n"/>
     </row>
     <row r="969">
       <c r="B969" s="2" t="n"/>
-      <c r="E969" s="3" t="n"/>
       <c r="F969" s="3" t="n"/>
+      <c r="G969" s="3" t="n"/>
     </row>
     <row r="970">
       <c r="B970" s="2" t="n"/>
-      <c r="E970" s="3" t="n"/>
       <c r="F970" s="3" t="n"/>
+      <c r="G970" s="3" t="n"/>
     </row>
     <row r="971">
       <c r="B971" s="2" t="n"/>
-      <c r="E971" s="3" t="n"/>
       <c r="F971" s="3" t="n"/>
+      <c r="G971" s="3" t="n"/>
     </row>
     <row r="972">
       <c r="B972" s="2" t="n"/>
-      <c r="E972" s="3" t="n"/>
       <c r="F972" s="3" t="n"/>
+      <c r="G972" s="3" t="n"/>
     </row>
     <row r="973">
       <c r="B973" s="2" t="n"/>
-      <c r="E973" s="3" t="n"/>
       <c r="F973" s="3" t="n"/>
+      <c r="G973" s="3" t="n"/>
     </row>
     <row r="974">
       <c r="B974" s="2" t="n"/>
-      <c r="E974" s="3" t="n"/>
       <c r="F974" s="3" t="n"/>
+      <c r="G974" s="3" t="n"/>
     </row>
     <row r="975">
       <c r="B975" s="2" t="n"/>
-      <c r="E975" s="3" t="n"/>
       <c r="F975" s="3" t="n"/>
+      <c r="G975" s="3" t="n"/>
     </row>
     <row r="976">
       <c r="B976" s="2" t="n"/>
-      <c r="E976" s="3" t="n"/>
       <c r="F976" s="3" t="n"/>
+      <c r="G976" s="3" t="n"/>
     </row>
     <row r="977">
       <c r="B977" s="2" t="n"/>
-      <c r="E977" s="3" t="n"/>
       <c r="F977" s="3" t="n"/>
+      <c r="G977" s="3" t="n"/>
     </row>
     <row r="978">
       <c r="B978" s="2" t="n"/>
-      <c r="E978" s="3" t="n"/>
       <c r="F978" s="3" t="n"/>
+      <c r="G978" s="3" t="n"/>
     </row>
     <row r="979">
       <c r="B979" s="2" t="n"/>
-      <c r="E979" s="3" t="n"/>
       <c r="F979" s="3" t="n"/>
+      <c r="G979" s="3" t="n"/>
     </row>
     <row r="980">
       <c r="B980" s="2" t="n"/>
-      <c r="E980" s="3" t="n"/>
       <c r="F980" s="3" t="n"/>
+      <c r="G980" s="3" t="n"/>
     </row>
     <row r="981">
       <c r="B981" s="2" t="n"/>
-      <c r="E981" s="3" t="n"/>
       <c r="F981" s="3" t="n"/>
+      <c r="G981" s="3" t="n"/>
     </row>
     <row r="982">
       <c r="B982" s="2" t="n"/>
-      <c r="E982" s="3" t="n"/>
       <c r="F982" s="3" t="n"/>
+      <c r="G982" s="3" t="n"/>
     </row>
     <row r="983">
       <c r="B983" s="2" t="n"/>
-      <c r="E983" s="3" t="n"/>
       <c r="F983" s="3" t="n"/>
+      <c r="G983" s="3" t="n"/>
     </row>
     <row r="984">
       <c r="B984" s="2" t="n"/>
-      <c r="E984" s="3" t="n"/>
       <c r="F984" s="3" t="n"/>
+      <c r="G984" s="3" t="n"/>
     </row>
     <row r="985">
       <c r="B985" s="2" t="n"/>
-      <c r="E985" s="3" t="n"/>
       <c r="F985" s="3" t="n"/>
+      <c r="G985" s="3" t="n"/>
     </row>
     <row r="986">
       <c r="B986" s="2" t="n"/>
-      <c r="E986" s="3" t="n"/>
       <c r="F986" s="3" t="n"/>
+      <c r="G986" s="3" t="n"/>
     </row>
     <row r="987">
       <c r="B987" s="2" t="n"/>
-      <c r="E987" s="3" t="n"/>
       <c r="F987" s="3" t="n"/>
+      <c r="G987" s="3" t="n"/>
     </row>
     <row r="988">
       <c r="B988" s="2" t="n"/>
-      <c r="E988" s="3" t="n"/>
       <c r="F988" s="3" t="n"/>
+      <c r="G988" s="3" t="n"/>
     </row>
     <row r="989">
       <c r="B989" s="2" t="n"/>
-      <c r="E989" s="3" t="n"/>
       <c r="F989" s="3" t="n"/>
+      <c r="G989" s="3" t="n"/>
     </row>
     <row r="990">
       <c r="B990" s="2" t="n"/>
-      <c r="E990" s="3" t="n"/>
       <c r="F990" s="3" t="n"/>
+      <c r="G990" s="3" t="n"/>
     </row>
     <row r="991">
       <c r="B991" s="2" t="n"/>
-      <c r="E991" s="3" t="n"/>
       <c r="F991" s="3" t="n"/>
+      <c r="G991" s="3" t="n"/>
     </row>
     <row r="992">
       <c r="B992" s="2" t="n"/>
-      <c r="E992" s="3" t="n"/>
       <c r="F992" s="3" t="n"/>
+      <c r="G992" s="3" t="n"/>
     </row>
     <row r="993">
       <c r="B993" s="2" t="n"/>
-      <c r="E993" s="3" t="n"/>
       <c r="F993" s="3" t="n"/>
+      <c r="G993" s="3" t="n"/>
     </row>
     <row r="994">
       <c r="B994" s="2" t="n"/>
-      <c r="E994" s="3" t="n"/>
       <c r="F994" s="3" t="n"/>
+      <c r="G994" s="3" t="n"/>
     </row>
     <row r="995">
       <c r="B995" s="2" t="n"/>
-      <c r="E995" s="3" t="n"/>
       <c r="F995" s="3" t="n"/>
+      <c r="G995" s="3" t="n"/>
     </row>
     <row r="996">
       <c r="B996" s="2" t="n"/>
-      <c r="E996" s="3" t="n"/>
       <c r="F996" s="3" t="n"/>
+      <c r="G996" s="3" t="n"/>
     </row>
     <row r="997">
       <c r="B997" s="2" t="n"/>
-      <c r="E997" s="3" t="n"/>
       <c r="F997" s="3" t="n"/>
+      <c r="G997" s="3" t="n"/>
     </row>
     <row r="998">
       <c r="B998" s="2" t="n"/>
-      <c r="E998" s="3" t="n"/>
       <c r="F998" s="3" t="n"/>
+      <c r="G998" s="3" t="n"/>
     </row>
     <row r="999">
       <c r="B999" s="2" t="n"/>
-      <c r="E999" s="3" t="n"/>
       <c r="F999" s="3" t="n"/>
+      <c r="G999" s="3" t="n"/>
     </row>
     <row r="1000">
       <c r="B1000" s="2" t="n"/>
-      <c r="E1000" s="3" t="n"/>
       <c r="F1000" s="3" t="n"/>
+      <c r="G1000" s="3" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="A2:A1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="輸入錯誤" error="必須填寫 R 或 D" type="list">
       <formula1>"R,D"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2:I1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="輸入無效" error="請選擇清單中的項目" promptTitle="選擇轉換定義" prompt="請從選單選擇轉換定義" type="list">
+    <dataValidation sqref="C2:C1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="輸入錯誤" error="請選擇 4A 或 台客" type="list">
+      <formula1>"4A,台客"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2:J1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="輸入無效" error="請選擇清單中的項目" promptTitle="選擇轉換定義" prompt="請從選單選擇轉換定義" type="list">
       <formula1>"CompleteCheckout,AddToCart,ViewContent,Checkout,Bookmark,Search,CompleteRegistration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/bh_import_template.xlsx
+++ b/static/bh_import_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Import Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,61 +421,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>平台</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>AccID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>名稱</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>StartDate</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>EndDate</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CPCGoal</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CPAGoal</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>R的cv定義</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>D Token</t>
         </is>
@@ -484,7 +505,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>111222</v>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,12 +516,12 @@
       <c r="D2" t="n">
         <v>50000</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
@@ -516,12 +537,6 @@
           <t>CompleteCheckout</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,7 +544,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>333444</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,12 +555,12 @@
       <c r="D3" t="n">
         <v>30000</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
@@ -556,15 +571,5009 @@
       <c r="H3" t="n">
         <v>200</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>example_token_abcdef123</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="2" t="n"/>
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="2" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="2" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="2" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="2" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="2" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="2" t="n"/>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="n"/>
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="2" t="n"/>
+      <c r="E68" s="3" t="n"/>
+      <c r="F68" s="3" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="2" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="n"/>
+      <c r="E70" s="3" t="n"/>
+      <c r="F70" s="3" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="n"/>
+      <c r="E72" s="3" t="n"/>
+      <c r="F72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="2" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="n"/>
+      <c r="E74" s="3" t="n"/>
+      <c r="F74" s="3" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="2" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="2" t="n"/>
+      <c r="E76" s="3" t="n"/>
+      <c r="F76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="2" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="2" t="n"/>
+      <c r="E78" s="3" t="n"/>
+      <c r="F78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="2" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="2" t="n"/>
+      <c r="E80" s="3" t="n"/>
+      <c r="F80" s="3" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="2" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="n"/>
+      <c r="E82" s="3" t="n"/>
+      <c r="F82" s="3" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="2" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="2" t="n"/>
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="3" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="2" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="2" t="n"/>
+      <c r="E86" s="3" t="n"/>
+      <c r="F86" s="3" t="n"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="2" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="n"/>
+      <c r="E88" s="3" t="n"/>
+      <c r="F88" s="3" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="2" t="n"/>
+      <c r="E89" s="3" t="n"/>
+      <c r="F89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="n"/>
+      <c r="E90" s="3" t="n"/>
+      <c r="F90" s="3" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="2" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="2" t="n"/>
+      <c r="E92" s="3" t="n"/>
+      <c r="F92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="2" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="2" t="n"/>
+      <c r="E94" s="3" t="n"/>
+      <c r="F94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="2" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="2" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="2" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="n"/>
+      <c r="E98" s="3" t="n"/>
+      <c r="F98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="2" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="2" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="3" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="2" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="2" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="2" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="2" t="n"/>
+      <c r="E104" s="3" t="n"/>
+      <c r="F104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="2" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="2" t="n"/>
+      <c r="E107" s="3" t="n"/>
+      <c r="F107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="2" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="2" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="2" t="n"/>
+      <c r="E110" s="3" t="n"/>
+      <c r="F110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="2" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="2" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="2" t="n"/>
+      <c r="E113" s="3" t="n"/>
+      <c r="F113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n"/>
+      <c r="E114" s="3" t="n"/>
+      <c r="F114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="2" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="2" t="n"/>
+      <c r="E116" s="3" t="n"/>
+      <c r="F116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="2" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="2" t="n"/>
+      <c r="E118" s="3" t="n"/>
+      <c r="F118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="2" t="n"/>
+      <c r="E119" s="3" t="n"/>
+      <c r="F119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="2" t="n"/>
+      <c r="E120" s="3" t="n"/>
+      <c r="F120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="2" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="n"/>
+      <c r="E122" s="3" t="n"/>
+      <c r="F122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="2" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="2" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="3" t="n"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="2" t="n"/>
+      <c r="E125" s="3" t="n"/>
+      <c r="F125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="2" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="2" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="2" t="n"/>
+      <c r="E128" s="3" t="n"/>
+      <c r="F128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="2" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="2" t="n"/>
+      <c r="E130" s="3" t="n"/>
+      <c r="F130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="2" t="n"/>
+      <c r="E131" s="3" t="n"/>
+      <c r="F131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="2" t="n"/>
+      <c r="E132" s="3" t="n"/>
+      <c r="F132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="2" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="2" t="n"/>
+      <c r="E134" s="3" t="n"/>
+      <c r="F134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="2" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="2" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="3" t="n"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="2" t="n"/>
+      <c r="E137" s="3" t="n"/>
+      <c r="F137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="2" t="n"/>
+      <c r="E138" s="3" t="n"/>
+      <c r="F138" s="3" t="n"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="n"/>
+      <c r="E139" s="3" t="n"/>
+      <c r="F139" s="3" t="n"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="2" t="n"/>
+      <c r="E140" s="3" t="n"/>
+      <c r="F140" s="3" t="n"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="2" t="n"/>
+      <c r="E141" s="3" t="n"/>
+      <c r="F141" s="3" t="n"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="2" t="n"/>
+      <c r="E142" s="3" t="n"/>
+      <c r="F142" s="3" t="n"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="2" t="n"/>
+      <c r="E143" s="3" t="n"/>
+      <c r="F143" s="3" t="n"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="2" t="n"/>
+      <c r="E144" s="3" t="n"/>
+      <c r="F144" s="3" t="n"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="2" t="n"/>
+      <c r="E145" s="3" t="n"/>
+      <c r="F145" s="3" t="n"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="2" t="n"/>
+      <c r="E146" s="3" t="n"/>
+      <c r="F146" s="3" t="n"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="2" t="n"/>
+      <c r="E147" s="3" t="n"/>
+      <c r="F147" s="3" t="n"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="2" t="n"/>
+      <c r="E148" s="3" t="n"/>
+      <c r="F148" s="3" t="n"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="2" t="n"/>
+      <c r="E149" s="3" t="n"/>
+      <c r="F149" s="3" t="n"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="2" t="n"/>
+      <c r="E150" s="3" t="n"/>
+      <c r="F150" s="3" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="2" t="n"/>
+      <c r="E151" s="3" t="n"/>
+      <c r="F151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="2" t="n"/>
+      <c r="E152" s="3" t="n"/>
+      <c r="F152" s="3" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="2" t="n"/>
+      <c r="E153" s="3" t="n"/>
+      <c r="F153" s="3" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="2" t="n"/>
+      <c r="E154" s="3" t="n"/>
+      <c r="F154" s="3" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="2" t="n"/>
+      <c r="E155" s="3" t="n"/>
+      <c r="F155" s="3" t="n"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="2" t="n"/>
+      <c r="E156" s="3" t="n"/>
+      <c r="F156" s="3" t="n"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="2" t="n"/>
+      <c r="E157" s="3" t="n"/>
+      <c r="F157" s="3" t="n"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="2" t="n"/>
+      <c r="E158" s="3" t="n"/>
+      <c r="F158" s="3" t="n"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="2" t="n"/>
+      <c r="E159" s="3" t="n"/>
+      <c r="F159" s="3" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="2" t="n"/>
+      <c r="E160" s="3" t="n"/>
+      <c r="F160" s="3" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="2" t="n"/>
+      <c r="E161" s="3" t="n"/>
+      <c r="F161" s="3" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="2" t="n"/>
+      <c r="E162" s="3" t="n"/>
+      <c r="F162" s="3" t="n"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="2" t="n"/>
+      <c r="E163" s="3" t="n"/>
+      <c r="F163" s="3" t="n"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="2" t="n"/>
+      <c r="E164" s="3" t="n"/>
+      <c r="F164" s="3" t="n"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="2" t="n"/>
+      <c r="E165" s="3" t="n"/>
+      <c r="F165" s="3" t="n"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="2" t="n"/>
+      <c r="E166" s="3" t="n"/>
+      <c r="F166" s="3" t="n"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="2" t="n"/>
+      <c r="E167" s="3" t="n"/>
+      <c r="F167" s="3" t="n"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="2" t="n"/>
+      <c r="E168" s="3" t="n"/>
+      <c r="F168" s="3" t="n"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="2" t="n"/>
+      <c r="E169" s="3" t="n"/>
+      <c r="F169" s="3" t="n"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="2" t="n"/>
+      <c r="E170" s="3" t="n"/>
+      <c r="F170" s="3" t="n"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="2" t="n"/>
+      <c r="E171" s="3" t="n"/>
+      <c r="F171" s="3" t="n"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="2" t="n"/>
+      <c r="E172" s="3" t="n"/>
+      <c r="F172" s="3" t="n"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="2" t="n"/>
+      <c r="E173" s="3" t="n"/>
+      <c r="F173" s="3" t="n"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="2" t="n"/>
+      <c r="E174" s="3" t="n"/>
+      <c r="F174" s="3" t="n"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="2" t="n"/>
+      <c r="E175" s="3" t="n"/>
+      <c r="F175" s="3" t="n"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="2" t="n"/>
+      <c r="E176" s="3" t="n"/>
+      <c r="F176" s="3" t="n"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="2" t="n"/>
+      <c r="E177" s="3" t="n"/>
+      <c r="F177" s="3" t="n"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="2" t="n"/>
+      <c r="E178" s="3" t="n"/>
+      <c r="F178" s="3" t="n"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="2" t="n"/>
+      <c r="E179" s="3" t="n"/>
+      <c r="F179" s="3" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="2" t="n"/>
+      <c r="E180" s="3" t="n"/>
+      <c r="F180" s="3" t="n"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="2" t="n"/>
+      <c r="E181" s="3" t="n"/>
+      <c r="F181" s="3" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="2" t="n"/>
+      <c r="E182" s="3" t="n"/>
+      <c r="F182" s="3" t="n"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="2" t="n"/>
+      <c r="E183" s="3" t="n"/>
+      <c r="F183" s="3" t="n"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="2" t="n"/>
+      <c r="E184" s="3" t="n"/>
+      <c r="F184" s="3" t="n"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="2" t="n"/>
+      <c r="E185" s="3" t="n"/>
+      <c r="F185" s="3" t="n"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="2" t="n"/>
+      <c r="E186" s="3" t="n"/>
+      <c r="F186" s="3" t="n"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="2" t="n"/>
+      <c r="E187" s="3" t="n"/>
+      <c r="F187" s="3" t="n"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="2" t="n"/>
+      <c r="E188" s="3" t="n"/>
+      <c r="F188" s="3" t="n"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="2" t="n"/>
+      <c r="E189" s="3" t="n"/>
+      <c r="F189" s="3" t="n"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="2" t="n"/>
+      <c r="E190" s="3" t="n"/>
+      <c r="F190" s="3" t="n"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="2" t="n"/>
+      <c r="E191" s="3" t="n"/>
+      <c r="F191" s="3" t="n"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="2" t="n"/>
+      <c r="E192" s="3" t="n"/>
+      <c r="F192" s="3" t="n"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="2" t="n"/>
+      <c r="E193" s="3" t="n"/>
+      <c r="F193" s="3" t="n"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="2" t="n"/>
+      <c r="E194" s="3" t="n"/>
+      <c r="F194" s="3" t="n"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="2" t="n"/>
+      <c r="E195" s="3" t="n"/>
+      <c r="F195" s="3" t="n"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="2" t="n"/>
+      <c r="E196" s="3" t="n"/>
+      <c r="F196" s="3" t="n"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="2" t="n"/>
+      <c r="E197" s="3" t="n"/>
+      <c r="F197" s="3" t="n"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="2" t="n"/>
+      <c r="E198" s="3" t="n"/>
+      <c r="F198" s="3" t="n"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="2" t="n"/>
+      <c r="E199" s="3" t="n"/>
+      <c r="F199" s="3" t="n"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="2" t="n"/>
+      <c r="E200" s="3" t="n"/>
+      <c r="F200" s="3" t="n"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="2" t="n"/>
+      <c r="E201" s="3" t="n"/>
+      <c r="F201" s="3" t="n"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="2" t="n"/>
+      <c r="E202" s="3" t="n"/>
+      <c r="F202" s="3" t="n"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="2" t="n"/>
+      <c r="E203" s="3" t="n"/>
+      <c r="F203" s="3" t="n"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="2" t="n"/>
+      <c r="E204" s="3" t="n"/>
+      <c r="F204" s="3" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="2" t="n"/>
+      <c r="E205" s="3" t="n"/>
+      <c r="F205" s="3" t="n"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="2" t="n"/>
+      <c r="E206" s="3" t="n"/>
+      <c r="F206" s="3" t="n"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="2" t="n"/>
+      <c r="E207" s="3" t="n"/>
+      <c r="F207" s="3" t="n"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="2" t="n"/>
+      <c r="E208" s="3" t="n"/>
+      <c r="F208" s="3" t="n"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="2" t="n"/>
+      <c r="E209" s="3" t="n"/>
+      <c r="F209" s="3" t="n"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="2" t="n"/>
+      <c r="E210" s="3" t="n"/>
+      <c r="F210" s="3" t="n"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="2" t="n"/>
+      <c r="E211" s="3" t="n"/>
+      <c r="F211" s="3" t="n"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="2" t="n"/>
+      <c r="E212" s="3" t="n"/>
+      <c r="F212" s="3" t="n"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="2" t="n"/>
+      <c r="E213" s="3" t="n"/>
+      <c r="F213" s="3" t="n"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="2" t="n"/>
+      <c r="E214" s="3" t="n"/>
+      <c r="F214" s="3" t="n"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="2" t="n"/>
+      <c r="E215" s="3" t="n"/>
+      <c r="F215" s="3" t="n"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="2" t="n"/>
+      <c r="E216" s="3" t="n"/>
+      <c r="F216" s="3" t="n"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="2" t="n"/>
+      <c r="E217" s="3" t="n"/>
+      <c r="F217" s="3" t="n"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="2" t="n"/>
+      <c r="E218" s="3" t="n"/>
+      <c r="F218" s="3" t="n"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="2" t="n"/>
+      <c r="E219" s="3" t="n"/>
+      <c r="F219" s="3" t="n"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="2" t="n"/>
+      <c r="E220" s="3" t="n"/>
+      <c r="F220" s="3" t="n"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="2" t="n"/>
+      <c r="E221" s="3" t="n"/>
+      <c r="F221" s="3" t="n"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="2" t="n"/>
+      <c r="E222" s="3" t="n"/>
+      <c r="F222" s="3" t="n"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="2" t="n"/>
+      <c r="E223" s="3" t="n"/>
+      <c r="F223" s="3" t="n"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="2" t="n"/>
+      <c r="E224" s="3" t="n"/>
+      <c r="F224" s="3" t="n"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="2" t="n"/>
+      <c r="E225" s="3" t="n"/>
+      <c r="F225" s="3" t="n"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="2" t="n"/>
+      <c r="E226" s="3" t="n"/>
+      <c r="F226" s="3" t="n"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="2" t="n"/>
+      <c r="E227" s="3" t="n"/>
+      <c r="F227" s="3" t="n"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="2" t="n"/>
+      <c r="E228" s="3" t="n"/>
+      <c r="F228" s="3" t="n"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="2" t="n"/>
+      <c r="E229" s="3" t="n"/>
+      <c r="F229" s="3" t="n"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="2" t="n"/>
+      <c r="E230" s="3" t="n"/>
+      <c r="F230" s="3" t="n"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="2" t="n"/>
+      <c r="E231" s="3" t="n"/>
+      <c r="F231" s="3" t="n"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="2" t="n"/>
+      <c r="E232" s="3" t="n"/>
+      <c r="F232" s="3" t="n"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="2" t="n"/>
+      <c r="E233" s="3" t="n"/>
+      <c r="F233" s="3" t="n"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="2" t="n"/>
+      <c r="E234" s="3" t="n"/>
+      <c r="F234" s="3" t="n"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="2" t="n"/>
+      <c r="E235" s="3" t="n"/>
+      <c r="F235" s="3" t="n"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="2" t="n"/>
+      <c r="E236" s="3" t="n"/>
+      <c r="F236" s="3" t="n"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="2" t="n"/>
+      <c r="E237" s="3" t="n"/>
+      <c r="F237" s="3" t="n"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="2" t="n"/>
+      <c r="E238" s="3" t="n"/>
+      <c r="F238" s="3" t="n"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="2" t="n"/>
+      <c r="E239" s="3" t="n"/>
+      <c r="F239" s="3" t="n"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="2" t="n"/>
+      <c r="E240" s="3" t="n"/>
+      <c r="F240" s="3" t="n"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="2" t="n"/>
+      <c r="E241" s="3" t="n"/>
+      <c r="F241" s="3" t="n"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="2" t="n"/>
+      <c r="E242" s="3" t="n"/>
+      <c r="F242" s="3" t="n"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="2" t="n"/>
+      <c r="E243" s="3" t="n"/>
+      <c r="F243" s="3" t="n"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="2" t="n"/>
+      <c r="E244" s="3" t="n"/>
+      <c r="F244" s="3" t="n"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="2" t="n"/>
+      <c r="E245" s="3" t="n"/>
+      <c r="F245" s="3" t="n"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="2" t="n"/>
+      <c r="E246" s="3" t="n"/>
+      <c r="F246" s="3" t="n"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="2" t="n"/>
+      <c r="E247" s="3" t="n"/>
+      <c r="F247" s="3" t="n"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="2" t="n"/>
+      <c r="E248" s="3" t="n"/>
+      <c r="F248" s="3" t="n"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="2" t="n"/>
+      <c r="E249" s="3" t="n"/>
+      <c r="F249" s="3" t="n"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="2" t="n"/>
+      <c r="E250" s="3" t="n"/>
+      <c r="F250" s="3" t="n"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="2" t="n"/>
+      <c r="E251" s="3" t="n"/>
+      <c r="F251" s="3" t="n"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="2" t="n"/>
+      <c r="E252" s="3" t="n"/>
+      <c r="F252" s="3" t="n"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="2" t="n"/>
+      <c r="E253" s="3" t="n"/>
+      <c r="F253" s="3" t="n"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="2" t="n"/>
+      <c r="E254" s="3" t="n"/>
+      <c r="F254" s="3" t="n"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="2" t="n"/>
+      <c r="E255" s="3" t="n"/>
+      <c r="F255" s="3" t="n"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="2" t="n"/>
+      <c r="E256" s="3" t="n"/>
+      <c r="F256" s="3" t="n"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="2" t="n"/>
+      <c r="E257" s="3" t="n"/>
+      <c r="F257" s="3" t="n"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="2" t="n"/>
+      <c r="E258" s="3" t="n"/>
+      <c r="F258" s="3" t="n"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="2" t="n"/>
+      <c r="E259" s="3" t="n"/>
+      <c r="F259" s="3" t="n"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="2" t="n"/>
+      <c r="E260" s="3" t="n"/>
+      <c r="F260" s="3" t="n"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="2" t="n"/>
+      <c r="E261" s="3" t="n"/>
+      <c r="F261" s="3" t="n"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="2" t="n"/>
+      <c r="E262" s="3" t="n"/>
+      <c r="F262" s="3" t="n"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="2" t="n"/>
+      <c r="E263" s="3" t="n"/>
+      <c r="F263" s="3" t="n"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="2" t="n"/>
+      <c r="E264" s="3" t="n"/>
+      <c r="F264" s="3" t="n"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="2" t="n"/>
+      <c r="E265" s="3" t="n"/>
+      <c r="F265" s="3" t="n"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="2" t="n"/>
+      <c r="E266" s="3" t="n"/>
+      <c r="F266" s="3" t="n"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="2" t="n"/>
+      <c r="E267" s="3" t="n"/>
+      <c r="F267" s="3" t="n"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="2" t="n"/>
+      <c r="E268" s="3" t="n"/>
+      <c r="F268" s="3" t="n"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="2" t="n"/>
+      <c r="E269" s="3" t="n"/>
+      <c r="F269" s="3" t="n"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="2" t="n"/>
+      <c r="E270" s="3" t="n"/>
+      <c r="F270" s="3" t="n"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="2" t="n"/>
+      <c r="E271" s="3" t="n"/>
+      <c r="F271" s="3" t="n"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="2" t="n"/>
+      <c r="E272" s="3" t="n"/>
+      <c r="F272" s="3" t="n"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="2" t="n"/>
+      <c r="E273" s="3" t="n"/>
+      <c r="F273" s="3" t="n"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="2" t="n"/>
+      <c r="E274" s="3" t="n"/>
+      <c r="F274" s="3" t="n"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="2" t="n"/>
+      <c r="E275" s="3" t="n"/>
+      <c r="F275" s="3" t="n"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="2" t="n"/>
+      <c r="E276" s="3" t="n"/>
+      <c r="F276" s="3" t="n"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="2" t="n"/>
+      <c r="E277" s="3" t="n"/>
+      <c r="F277" s="3" t="n"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="2" t="n"/>
+      <c r="E278" s="3" t="n"/>
+      <c r="F278" s="3" t="n"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="2" t="n"/>
+      <c r="E279" s="3" t="n"/>
+      <c r="F279" s="3" t="n"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="2" t="n"/>
+      <c r="E280" s="3" t="n"/>
+      <c r="F280" s="3" t="n"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="2" t="n"/>
+      <c r="E281" s="3" t="n"/>
+      <c r="F281" s="3" t="n"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="2" t="n"/>
+      <c r="E282" s="3" t="n"/>
+      <c r="F282" s="3" t="n"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="2" t="n"/>
+      <c r="E283" s="3" t="n"/>
+      <c r="F283" s="3" t="n"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="2" t="n"/>
+      <c r="E284" s="3" t="n"/>
+      <c r="F284" s="3" t="n"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="2" t="n"/>
+      <c r="E285" s="3" t="n"/>
+      <c r="F285" s="3" t="n"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="2" t="n"/>
+      <c r="E286" s="3" t="n"/>
+      <c r="F286" s="3" t="n"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="2" t="n"/>
+      <c r="E287" s="3" t="n"/>
+      <c r="F287" s="3" t="n"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="2" t="n"/>
+      <c r="E288" s="3" t="n"/>
+      <c r="F288" s="3" t="n"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="2" t="n"/>
+      <c r="E289" s="3" t="n"/>
+      <c r="F289" s="3" t="n"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="2" t="n"/>
+      <c r="E290" s="3" t="n"/>
+      <c r="F290" s="3" t="n"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="2" t="n"/>
+      <c r="E291" s="3" t="n"/>
+      <c r="F291" s="3" t="n"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="2" t="n"/>
+      <c r="E292" s="3" t="n"/>
+      <c r="F292" s="3" t="n"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="2" t="n"/>
+      <c r="E293" s="3" t="n"/>
+      <c r="F293" s="3" t="n"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="2" t="n"/>
+      <c r="E294" s="3" t="n"/>
+      <c r="F294" s="3" t="n"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="2" t="n"/>
+      <c r="E295" s="3" t="n"/>
+      <c r="F295" s="3" t="n"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="2" t="n"/>
+      <c r="E296" s="3" t="n"/>
+      <c r="F296" s="3" t="n"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="2" t="n"/>
+      <c r="E297" s="3" t="n"/>
+      <c r="F297" s="3" t="n"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="2" t="n"/>
+      <c r="E298" s="3" t="n"/>
+      <c r="F298" s="3" t="n"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="2" t="n"/>
+      <c r="E299" s="3" t="n"/>
+      <c r="F299" s="3" t="n"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="2" t="n"/>
+      <c r="E300" s="3" t="n"/>
+      <c r="F300" s="3" t="n"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="2" t="n"/>
+      <c r="E301" s="3" t="n"/>
+      <c r="F301" s="3" t="n"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="2" t="n"/>
+      <c r="E302" s="3" t="n"/>
+      <c r="F302" s="3" t="n"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="2" t="n"/>
+      <c r="E303" s="3" t="n"/>
+      <c r="F303" s="3" t="n"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="2" t="n"/>
+      <c r="E304" s="3" t="n"/>
+      <c r="F304" s="3" t="n"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="2" t="n"/>
+      <c r="E305" s="3" t="n"/>
+      <c r="F305" s="3" t="n"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="2" t="n"/>
+      <c r="E306" s="3" t="n"/>
+      <c r="F306" s="3" t="n"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="2" t="n"/>
+      <c r="E307" s="3" t="n"/>
+      <c r="F307" s="3" t="n"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="2" t="n"/>
+      <c r="E308" s="3" t="n"/>
+      <c r="F308" s="3" t="n"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="2" t="n"/>
+      <c r="E309" s="3" t="n"/>
+      <c r="F309" s="3" t="n"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="2" t="n"/>
+      <c r="E310" s="3" t="n"/>
+      <c r="F310" s="3" t="n"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="2" t="n"/>
+      <c r="E311" s="3" t="n"/>
+      <c r="F311" s="3" t="n"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="2" t="n"/>
+      <c r="E312" s="3" t="n"/>
+      <c r="F312" s="3" t="n"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="2" t="n"/>
+      <c r="E313" s="3" t="n"/>
+      <c r="F313" s="3" t="n"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="2" t="n"/>
+      <c r="E314" s="3" t="n"/>
+      <c r="F314" s="3" t="n"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="2" t="n"/>
+      <c r="E315" s="3" t="n"/>
+      <c r="F315" s="3" t="n"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="2" t="n"/>
+      <c r="E316" s="3" t="n"/>
+      <c r="F316" s="3" t="n"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="2" t="n"/>
+      <c r="E317" s="3" t="n"/>
+      <c r="F317" s="3" t="n"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="2" t="n"/>
+      <c r="E318" s="3" t="n"/>
+      <c r="F318" s="3" t="n"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="2" t="n"/>
+      <c r="E319" s="3" t="n"/>
+      <c r="F319" s="3" t="n"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="2" t="n"/>
+      <c r="E320" s="3" t="n"/>
+      <c r="F320" s="3" t="n"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="2" t="n"/>
+      <c r="E321" s="3" t="n"/>
+      <c r="F321" s="3" t="n"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="2" t="n"/>
+      <c r="E322" s="3" t="n"/>
+      <c r="F322" s="3" t="n"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="2" t="n"/>
+      <c r="E323" s="3" t="n"/>
+      <c r="F323" s="3" t="n"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="2" t="n"/>
+      <c r="E324" s="3" t="n"/>
+      <c r="F324" s="3" t="n"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="2" t="n"/>
+      <c r="E325" s="3" t="n"/>
+      <c r="F325" s="3" t="n"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="2" t="n"/>
+      <c r="E326" s="3" t="n"/>
+      <c r="F326" s="3" t="n"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="2" t="n"/>
+      <c r="E327" s="3" t="n"/>
+      <c r="F327" s="3" t="n"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="2" t="n"/>
+      <c r="E328" s="3" t="n"/>
+      <c r="F328" s="3" t="n"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="2" t="n"/>
+      <c r="E329" s="3" t="n"/>
+      <c r="F329" s="3" t="n"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="2" t="n"/>
+      <c r="E330" s="3" t="n"/>
+      <c r="F330" s="3" t="n"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="2" t="n"/>
+      <c r="E331" s="3" t="n"/>
+      <c r="F331" s="3" t="n"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="2" t="n"/>
+      <c r="E332" s="3" t="n"/>
+      <c r="F332" s="3" t="n"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="2" t="n"/>
+      <c r="E333" s="3" t="n"/>
+      <c r="F333" s="3" t="n"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="2" t="n"/>
+      <c r="E334" s="3" t="n"/>
+      <c r="F334" s="3" t="n"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="2" t="n"/>
+      <c r="E335" s="3" t="n"/>
+      <c r="F335" s="3" t="n"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="2" t="n"/>
+      <c r="E336" s="3" t="n"/>
+      <c r="F336" s="3" t="n"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="2" t="n"/>
+      <c r="E337" s="3" t="n"/>
+      <c r="F337" s="3" t="n"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="2" t="n"/>
+      <c r="E338" s="3" t="n"/>
+      <c r="F338" s="3" t="n"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="2" t="n"/>
+      <c r="E339" s="3" t="n"/>
+      <c r="F339" s="3" t="n"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="2" t="n"/>
+      <c r="E340" s="3" t="n"/>
+      <c r="F340" s="3" t="n"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="2" t="n"/>
+      <c r="E341" s="3" t="n"/>
+      <c r="F341" s="3" t="n"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="2" t="n"/>
+      <c r="E342" s="3" t="n"/>
+      <c r="F342" s="3" t="n"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="2" t="n"/>
+      <c r="E343" s="3" t="n"/>
+      <c r="F343" s="3" t="n"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="2" t="n"/>
+      <c r="E344" s="3" t="n"/>
+      <c r="F344" s="3" t="n"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="2" t="n"/>
+      <c r="E345" s="3" t="n"/>
+      <c r="F345" s="3" t="n"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="2" t="n"/>
+      <c r="E346" s="3" t="n"/>
+      <c r="F346" s="3" t="n"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="2" t="n"/>
+      <c r="E347" s="3" t="n"/>
+      <c r="F347" s="3" t="n"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="2" t="n"/>
+      <c r="E348" s="3" t="n"/>
+      <c r="F348" s="3" t="n"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="2" t="n"/>
+      <c r="E349" s="3" t="n"/>
+      <c r="F349" s="3" t="n"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="2" t="n"/>
+      <c r="E350" s="3" t="n"/>
+      <c r="F350" s="3" t="n"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="2" t="n"/>
+      <c r="E351" s="3" t="n"/>
+      <c r="F351" s="3" t="n"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="2" t="n"/>
+      <c r="E352" s="3" t="n"/>
+      <c r="F352" s="3" t="n"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="2" t="n"/>
+      <c r="E353" s="3" t="n"/>
+      <c r="F353" s="3" t="n"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="2" t="n"/>
+      <c r="E354" s="3" t="n"/>
+      <c r="F354" s="3" t="n"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="2" t="n"/>
+      <c r="E355" s="3" t="n"/>
+      <c r="F355" s="3" t="n"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="2" t="n"/>
+      <c r="E356" s="3" t="n"/>
+      <c r="F356" s="3" t="n"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="2" t="n"/>
+      <c r="E357" s="3" t="n"/>
+      <c r="F357" s="3" t="n"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="2" t="n"/>
+      <c r="E358" s="3" t="n"/>
+      <c r="F358" s="3" t="n"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="2" t="n"/>
+      <c r="E359" s="3" t="n"/>
+      <c r="F359" s="3" t="n"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="2" t="n"/>
+      <c r="E360" s="3" t="n"/>
+      <c r="F360" s="3" t="n"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="2" t="n"/>
+      <c r="E361" s="3" t="n"/>
+      <c r="F361" s="3" t="n"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="2" t="n"/>
+      <c r="E362" s="3" t="n"/>
+      <c r="F362" s="3" t="n"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="2" t="n"/>
+      <c r="E363" s="3" t="n"/>
+      <c r="F363" s="3" t="n"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="2" t="n"/>
+      <c r="E364" s="3" t="n"/>
+      <c r="F364" s="3" t="n"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="2" t="n"/>
+      <c r="E365" s="3" t="n"/>
+      <c r="F365" s="3" t="n"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="2" t="n"/>
+      <c r="E366" s="3" t="n"/>
+      <c r="F366" s="3" t="n"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="2" t="n"/>
+      <c r="E367" s="3" t="n"/>
+      <c r="F367" s="3" t="n"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="2" t="n"/>
+      <c r="E368" s="3" t="n"/>
+      <c r="F368" s="3" t="n"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="2" t="n"/>
+      <c r="E369" s="3" t="n"/>
+      <c r="F369" s="3" t="n"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="2" t="n"/>
+      <c r="E370" s="3" t="n"/>
+      <c r="F370" s="3" t="n"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="2" t="n"/>
+      <c r="E371" s="3" t="n"/>
+      <c r="F371" s="3" t="n"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="2" t="n"/>
+      <c r="E372" s="3" t="n"/>
+      <c r="F372" s="3" t="n"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="2" t="n"/>
+      <c r="E373" s="3" t="n"/>
+      <c r="F373" s="3" t="n"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="2" t="n"/>
+      <c r="E374" s="3" t="n"/>
+      <c r="F374" s="3" t="n"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="2" t="n"/>
+      <c r="E375" s="3" t="n"/>
+      <c r="F375" s="3" t="n"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="2" t="n"/>
+      <c r="E376" s="3" t="n"/>
+      <c r="F376" s="3" t="n"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="2" t="n"/>
+      <c r="E377" s="3" t="n"/>
+      <c r="F377" s="3" t="n"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="2" t="n"/>
+      <c r="E378" s="3" t="n"/>
+      <c r="F378" s="3" t="n"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="2" t="n"/>
+      <c r="E379" s="3" t="n"/>
+      <c r="F379" s="3" t="n"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="2" t="n"/>
+      <c r="E380" s="3" t="n"/>
+      <c r="F380" s="3" t="n"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="2" t="n"/>
+      <c r="E381" s="3" t="n"/>
+      <c r="F381" s="3" t="n"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="2" t="n"/>
+      <c r="E382" s="3" t="n"/>
+      <c r="F382" s="3" t="n"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="2" t="n"/>
+      <c r="E383" s="3" t="n"/>
+      <c r="F383" s="3" t="n"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="2" t="n"/>
+      <c r="E384" s="3" t="n"/>
+      <c r="F384" s="3" t="n"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="2" t="n"/>
+      <c r="E385" s="3" t="n"/>
+      <c r="F385" s="3" t="n"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="2" t="n"/>
+      <c r="E386" s="3" t="n"/>
+      <c r="F386" s="3" t="n"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="2" t="n"/>
+      <c r="E387" s="3" t="n"/>
+      <c r="F387" s="3" t="n"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="2" t="n"/>
+      <c r="E388" s="3" t="n"/>
+      <c r="F388" s="3" t="n"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="2" t="n"/>
+      <c r="E389" s="3" t="n"/>
+      <c r="F389" s="3" t="n"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="2" t="n"/>
+      <c r="E390" s="3" t="n"/>
+      <c r="F390" s="3" t="n"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="2" t="n"/>
+      <c r="E391" s="3" t="n"/>
+      <c r="F391" s="3" t="n"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="2" t="n"/>
+      <c r="E392" s="3" t="n"/>
+      <c r="F392" s="3" t="n"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="2" t="n"/>
+      <c r="E393" s="3" t="n"/>
+      <c r="F393" s="3" t="n"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="2" t="n"/>
+      <c r="E394" s="3" t="n"/>
+      <c r="F394" s="3" t="n"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="2" t="n"/>
+      <c r="E395" s="3" t="n"/>
+      <c r="F395" s="3" t="n"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="2" t="n"/>
+      <c r="E396" s="3" t="n"/>
+      <c r="F396" s="3" t="n"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="2" t="n"/>
+      <c r="E397" s="3" t="n"/>
+      <c r="F397" s="3" t="n"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="2" t="n"/>
+      <c r="E398" s="3" t="n"/>
+      <c r="F398" s="3" t="n"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="2" t="n"/>
+      <c r="E399" s="3" t="n"/>
+      <c r="F399" s="3" t="n"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="2" t="n"/>
+      <c r="E400" s="3" t="n"/>
+      <c r="F400" s="3" t="n"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="2" t="n"/>
+      <c r="E401" s="3" t="n"/>
+      <c r="F401" s="3" t="n"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="2" t="n"/>
+      <c r="E402" s="3" t="n"/>
+      <c r="F402" s="3" t="n"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="2" t="n"/>
+      <c r="E403" s="3" t="n"/>
+      <c r="F403" s="3" t="n"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="2" t="n"/>
+      <c r="E404" s="3" t="n"/>
+      <c r="F404" s="3" t="n"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="2" t="n"/>
+      <c r="E405" s="3" t="n"/>
+      <c r="F405" s="3" t="n"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="2" t="n"/>
+      <c r="E406" s="3" t="n"/>
+      <c r="F406" s="3" t="n"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="2" t="n"/>
+      <c r="E407" s="3" t="n"/>
+      <c r="F407" s="3" t="n"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="2" t="n"/>
+      <c r="E408" s="3" t="n"/>
+      <c r="F408" s="3" t="n"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="2" t="n"/>
+      <c r="E409" s="3" t="n"/>
+      <c r="F409" s="3" t="n"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="2" t="n"/>
+      <c r="E410" s="3" t="n"/>
+      <c r="F410" s="3" t="n"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="2" t="n"/>
+      <c r="E411" s="3" t="n"/>
+      <c r="F411" s="3" t="n"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="2" t="n"/>
+      <c r="E412" s="3" t="n"/>
+      <c r="F412" s="3" t="n"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="2" t="n"/>
+      <c r="E413" s="3" t="n"/>
+      <c r="F413" s="3" t="n"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="2" t="n"/>
+      <c r="E414" s="3" t="n"/>
+      <c r="F414" s="3" t="n"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="2" t="n"/>
+      <c r="E415" s="3" t="n"/>
+      <c r="F415" s="3" t="n"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="2" t="n"/>
+      <c r="E416" s="3" t="n"/>
+      <c r="F416" s="3" t="n"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="2" t="n"/>
+      <c r="E417" s="3" t="n"/>
+      <c r="F417" s="3" t="n"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="2" t="n"/>
+      <c r="E418" s="3" t="n"/>
+      <c r="F418" s="3" t="n"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="2" t="n"/>
+      <c r="E419" s="3" t="n"/>
+      <c r="F419" s="3" t="n"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="2" t="n"/>
+      <c r="E420" s="3" t="n"/>
+      <c r="F420" s="3" t="n"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="2" t="n"/>
+      <c r="E421" s="3" t="n"/>
+      <c r="F421" s="3" t="n"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="2" t="n"/>
+      <c r="E422" s="3" t="n"/>
+      <c r="F422" s="3" t="n"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="2" t="n"/>
+      <c r="E423" s="3" t="n"/>
+      <c r="F423" s="3" t="n"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="2" t="n"/>
+      <c r="E424" s="3" t="n"/>
+      <c r="F424" s="3" t="n"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="2" t="n"/>
+      <c r="E425" s="3" t="n"/>
+      <c r="F425" s="3" t="n"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="2" t="n"/>
+      <c r="E426" s="3" t="n"/>
+      <c r="F426" s="3" t="n"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="2" t="n"/>
+      <c r="E427" s="3" t="n"/>
+      <c r="F427" s="3" t="n"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="2" t="n"/>
+      <c r="E428" s="3" t="n"/>
+      <c r="F428" s="3" t="n"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="2" t="n"/>
+      <c r="E429" s="3" t="n"/>
+      <c r="F429" s="3" t="n"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="2" t="n"/>
+      <c r="E430" s="3" t="n"/>
+      <c r="F430" s="3" t="n"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="2" t="n"/>
+      <c r="E431" s="3" t="n"/>
+      <c r="F431" s="3" t="n"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="2" t="n"/>
+      <c r="E432" s="3" t="n"/>
+      <c r="F432" s="3" t="n"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="2" t="n"/>
+      <c r="E433" s="3" t="n"/>
+      <c r="F433" s="3" t="n"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="2" t="n"/>
+      <c r="E434" s="3" t="n"/>
+      <c r="F434" s="3" t="n"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="2" t="n"/>
+      <c r="E435" s="3" t="n"/>
+      <c r="F435" s="3" t="n"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="2" t="n"/>
+      <c r="E436" s="3" t="n"/>
+      <c r="F436" s="3" t="n"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="2" t="n"/>
+      <c r="E437" s="3" t="n"/>
+      <c r="F437" s="3" t="n"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="2" t="n"/>
+      <c r="E438" s="3" t="n"/>
+      <c r="F438" s="3" t="n"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="2" t="n"/>
+      <c r="E439" s="3" t="n"/>
+      <c r="F439" s="3" t="n"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="2" t="n"/>
+      <c r="E440" s="3" t="n"/>
+      <c r="F440" s="3" t="n"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="2" t="n"/>
+      <c r="E441" s="3" t="n"/>
+      <c r="F441" s="3" t="n"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="2" t="n"/>
+      <c r="E442" s="3" t="n"/>
+      <c r="F442" s="3" t="n"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="2" t="n"/>
+      <c r="E443" s="3" t="n"/>
+      <c r="F443" s="3" t="n"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="2" t="n"/>
+      <c r="E444" s="3" t="n"/>
+      <c r="F444" s="3" t="n"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="2" t="n"/>
+      <c r="E445" s="3" t="n"/>
+      <c r="F445" s="3" t="n"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="2" t="n"/>
+      <c r="E446" s="3" t="n"/>
+      <c r="F446" s="3" t="n"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="2" t="n"/>
+      <c r="E447" s="3" t="n"/>
+      <c r="F447" s="3" t="n"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="2" t="n"/>
+      <c r="E448" s="3" t="n"/>
+      <c r="F448" s="3" t="n"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="2" t="n"/>
+      <c r="E449" s="3" t="n"/>
+      <c r="F449" s="3" t="n"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="2" t="n"/>
+      <c r="E450" s="3" t="n"/>
+      <c r="F450" s="3" t="n"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="2" t="n"/>
+      <c r="E451" s="3" t="n"/>
+      <c r="F451" s="3" t="n"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="2" t="n"/>
+      <c r="E452" s="3" t="n"/>
+      <c r="F452" s="3" t="n"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="2" t="n"/>
+      <c r="E453" s="3" t="n"/>
+      <c r="F453" s="3" t="n"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="2" t="n"/>
+      <c r="E454" s="3" t="n"/>
+      <c r="F454" s="3" t="n"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="2" t="n"/>
+      <c r="E455" s="3" t="n"/>
+      <c r="F455" s="3" t="n"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="2" t="n"/>
+      <c r="E456" s="3" t="n"/>
+      <c r="F456" s="3" t="n"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="2" t="n"/>
+      <c r="E457" s="3" t="n"/>
+      <c r="F457" s="3" t="n"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="2" t="n"/>
+      <c r="E458" s="3" t="n"/>
+      <c r="F458" s="3" t="n"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="2" t="n"/>
+      <c r="E459" s="3" t="n"/>
+      <c r="F459" s="3" t="n"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="2" t="n"/>
+      <c r="E460" s="3" t="n"/>
+      <c r="F460" s="3" t="n"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="2" t="n"/>
+      <c r="E461" s="3" t="n"/>
+      <c r="F461" s="3" t="n"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="2" t="n"/>
+      <c r="E462" s="3" t="n"/>
+      <c r="F462" s="3" t="n"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="2" t="n"/>
+      <c r="E463" s="3" t="n"/>
+      <c r="F463" s="3" t="n"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="2" t="n"/>
+      <c r="E464" s="3" t="n"/>
+      <c r="F464" s="3" t="n"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="2" t="n"/>
+      <c r="E465" s="3" t="n"/>
+      <c r="F465" s="3" t="n"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="2" t="n"/>
+      <c r="E466" s="3" t="n"/>
+      <c r="F466" s="3" t="n"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="2" t="n"/>
+      <c r="E467" s="3" t="n"/>
+      <c r="F467" s="3" t="n"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="2" t="n"/>
+      <c r="E468" s="3" t="n"/>
+      <c r="F468" s="3" t="n"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="2" t="n"/>
+      <c r="E469" s="3" t="n"/>
+      <c r="F469" s="3" t="n"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="2" t="n"/>
+      <c r="E470" s="3" t="n"/>
+      <c r="F470" s="3" t="n"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="2" t="n"/>
+      <c r="E471" s="3" t="n"/>
+      <c r="F471" s="3" t="n"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="2" t="n"/>
+      <c r="E472" s="3" t="n"/>
+      <c r="F472" s="3" t="n"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="2" t="n"/>
+      <c r="E473" s="3" t="n"/>
+      <c r="F473" s="3" t="n"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="2" t="n"/>
+      <c r="E474" s="3" t="n"/>
+      <c r="F474" s="3" t="n"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="2" t="n"/>
+      <c r="E475" s="3" t="n"/>
+      <c r="F475" s="3" t="n"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="2" t="n"/>
+      <c r="E476" s="3" t="n"/>
+      <c r="F476" s="3" t="n"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="2" t="n"/>
+      <c r="E477" s="3" t="n"/>
+      <c r="F477" s="3" t="n"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="2" t="n"/>
+      <c r="E478" s="3" t="n"/>
+      <c r="F478" s="3" t="n"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="2" t="n"/>
+      <c r="E479" s="3" t="n"/>
+      <c r="F479" s="3" t="n"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="2" t="n"/>
+      <c r="E480" s="3" t="n"/>
+      <c r="F480" s="3" t="n"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="2" t="n"/>
+      <c r="E481" s="3" t="n"/>
+      <c r="F481" s="3" t="n"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="2" t="n"/>
+      <c r="E482" s="3" t="n"/>
+      <c r="F482" s="3" t="n"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="2" t="n"/>
+      <c r="E483" s="3" t="n"/>
+      <c r="F483" s="3" t="n"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="2" t="n"/>
+      <c r="E484" s="3" t="n"/>
+      <c r="F484" s="3" t="n"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="2" t="n"/>
+      <c r="E485" s="3" t="n"/>
+      <c r="F485" s="3" t="n"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="2" t="n"/>
+      <c r="E486" s="3" t="n"/>
+      <c r="F486" s="3" t="n"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="2" t="n"/>
+      <c r="E487" s="3" t="n"/>
+      <c r="F487" s="3" t="n"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="2" t="n"/>
+      <c r="E488" s="3" t="n"/>
+      <c r="F488" s="3" t="n"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="2" t="n"/>
+      <c r="E489" s="3" t="n"/>
+      <c r="F489" s="3" t="n"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="2" t="n"/>
+      <c r="E490" s="3" t="n"/>
+      <c r="F490" s="3" t="n"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="2" t="n"/>
+      <c r="E491" s="3" t="n"/>
+      <c r="F491" s="3" t="n"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="2" t="n"/>
+      <c r="E492" s="3" t="n"/>
+      <c r="F492" s="3" t="n"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="2" t="n"/>
+      <c r="E493" s="3" t="n"/>
+      <c r="F493" s="3" t="n"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="2" t="n"/>
+      <c r="E494" s="3" t="n"/>
+      <c r="F494" s="3" t="n"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="2" t="n"/>
+      <c r="E495" s="3" t="n"/>
+      <c r="F495" s="3" t="n"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="2" t="n"/>
+      <c r="E496" s="3" t="n"/>
+      <c r="F496" s="3" t="n"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="2" t="n"/>
+      <c r="E497" s="3" t="n"/>
+      <c r="F497" s="3" t="n"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="2" t="n"/>
+      <c r="E498" s="3" t="n"/>
+      <c r="F498" s="3" t="n"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="2" t="n"/>
+      <c r="E499" s="3" t="n"/>
+      <c r="F499" s="3" t="n"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="2" t="n"/>
+      <c r="E500" s="3" t="n"/>
+      <c r="F500" s="3" t="n"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="2" t="n"/>
+      <c r="E501" s="3" t="n"/>
+      <c r="F501" s="3" t="n"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="2" t="n"/>
+      <c r="E502" s="3" t="n"/>
+      <c r="F502" s="3" t="n"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="2" t="n"/>
+      <c r="E503" s="3" t="n"/>
+      <c r="F503" s="3" t="n"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="2" t="n"/>
+      <c r="E504" s="3" t="n"/>
+      <c r="F504" s="3" t="n"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="2" t="n"/>
+      <c r="E505" s="3" t="n"/>
+      <c r="F505" s="3" t="n"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="2" t="n"/>
+      <c r="E506" s="3" t="n"/>
+      <c r="F506" s="3" t="n"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="2" t="n"/>
+      <c r="E507" s="3" t="n"/>
+      <c r="F507" s="3" t="n"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="2" t="n"/>
+      <c r="E508" s="3" t="n"/>
+      <c r="F508" s="3" t="n"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="2" t="n"/>
+      <c r="E509" s="3" t="n"/>
+      <c r="F509" s="3" t="n"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="2" t="n"/>
+      <c r="E510" s="3" t="n"/>
+      <c r="F510" s="3" t="n"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="2" t="n"/>
+      <c r="E511" s="3" t="n"/>
+      <c r="F511" s="3" t="n"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="2" t="n"/>
+      <c r="E512" s="3" t="n"/>
+      <c r="F512" s="3" t="n"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="2" t="n"/>
+      <c r="E513" s="3" t="n"/>
+      <c r="F513" s="3" t="n"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="2" t="n"/>
+      <c r="E514" s="3" t="n"/>
+      <c r="F514" s="3" t="n"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="2" t="n"/>
+      <c r="E515" s="3" t="n"/>
+      <c r="F515" s="3" t="n"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="2" t="n"/>
+      <c r="E516" s="3" t="n"/>
+      <c r="F516" s="3" t="n"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="2" t="n"/>
+      <c r="E517" s="3" t="n"/>
+      <c r="F517" s="3" t="n"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="2" t="n"/>
+      <c r="E518" s="3" t="n"/>
+      <c r="F518" s="3" t="n"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="2" t="n"/>
+      <c r="E519" s="3" t="n"/>
+      <c r="F519" s="3" t="n"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="2" t="n"/>
+      <c r="E520" s="3" t="n"/>
+      <c r="F520" s="3" t="n"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="2" t="n"/>
+      <c r="E521" s="3" t="n"/>
+      <c r="F521" s="3" t="n"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="2" t="n"/>
+      <c r="E522" s="3" t="n"/>
+      <c r="F522" s="3" t="n"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="2" t="n"/>
+      <c r="E523" s="3" t="n"/>
+      <c r="F523" s="3" t="n"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="2" t="n"/>
+      <c r="E524" s="3" t="n"/>
+      <c r="F524" s="3" t="n"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="2" t="n"/>
+      <c r="E525" s="3" t="n"/>
+      <c r="F525" s="3" t="n"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="2" t="n"/>
+      <c r="E526" s="3" t="n"/>
+      <c r="F526" s="3" t="n"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="2" t="n"/>
+      <c r="E527" s="3" t="n"/>
+      <c r="F527" s="3" t="n"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="2" t="n"/>
+      <c r="E528" s="3" t="n"/>
+      <c r="F528" s="3" t="n"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="2" t="n"/>
+      <c r="E529" s="3" t="n"/>
+      <c r="F529" s="3" t="n"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="2" t="n"/>
+      <c r="E530" s="3" t="n"/>
+      <c r="F530" s="3" t="n"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="2" t="n"/>
+      <c r="E531" s="3" t="n"/>
+      <c r="F531" s="3" t="n"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="2" t="n"/>
+      <c r="E532" s="3" t="n"/>
+      <c r="F532" s="3" t="n"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="2" t="n"/>
+      <c r="E533" s="3" t="n"/>
+      <c r="F533" s="3" t="n"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="2" t="n"/>
+      <c r="E534" s="3" t="n"/>
+      <c r="F534" s="3" t="n"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="2" t="n"/>
+      <c r="E535" s="3" t="n"/>
+      <c r="F535" s="3" t="n"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="2" t="n"/>
+      <c r="E536" s="3" t="n"/>
+      <c r="F536" s="3" t="n"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="2" t="n"/>
+      <c r="E537" s="3" t="n"/>
+      <c r="F537" s="3" t="n"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="2" t="n"/>
+      <c r="E538" s="3" t="n"/>
+      <c r="F538" s="3" t="n"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="2" t="n"/>
+      <c r="E539" s="3" t="n"/>
+      <c r="F539" s="3" t="n"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="2" t="n"/>
+      <c r="E540" s="3" t="n"/>
+      <c r="F540" s="3" t="n"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="2" t="n"/>
+      <c r="E541" s="3" t="n"/>
+      <c r="F541" s="3" t="n"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="2" t="n"/>
+      <c r="E542" s="3" t="n"/>
+      <c r="F542" s="3" t="n"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="2" t="n"/>
+      <c r="E543" s="3" t="n"/>
+      <c r="F543" s="3" t="n"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="2" t="n"/>
+      <c r="E544" s="3" t="n"/>
+      <c r="F544" s="3" t="n"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="2" t="n"/>
+      <c r="E545" s="3" t="n"/>
+      <c r="F545" s="3" t="n"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="2" t="n"/>
+      <c r="E546" s="3" t="n"/>
+      <c r="F546" s="3" t="n"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="2" t="n"/>
+      <c r="E547" s="3" t="n"/>
+      <c r="F547" s="3" t="n"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="2" t="n"/>
+      <c r="E548" s="3" t="n"/>
+      <c r="F548" s="3" t="n"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="2" t="n"/>
+      <c r="E549" s="3" t="n"/>
+      <c r="F549" s="3" t="n"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="2" t="n"/>
+      <c r="E550" s="3" t="n"/>
+      <c r="F550" s="3" t="n"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="2" t="n"/>
+      <c r="E551" s="3" t="n"/>
+      <c r="F551" s="3" t="n"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="2" t="n"/>
+      <c r="E552" s="3" t="n"/>
+      <c r="F552" s="3" t="n"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="2" t="n"/>
+      <c r="E553" s="3" t="n"/>
+      <c r="F553" s="3" t="n"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="2" t="n"/>
+      <c r="E554" s="3" t="n"/>
+      <c r="F554" s="3" t="n"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="2" t="n"/>
+      <c r="E555" s="3" t="n"/>
+      <c r="F555" s="3" t="n"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="2" t="n"/>
+      <c r="E556" s="3" t="n"/>
+      <c r="F556" s="3" t="n"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="2" t="n"/>
+      <c r="E557" s="3" t="n"/>
+      <c r="F557" s="3" t="n"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="2" t="n"/>
+      <c r="E558" s="3" t="n"/>
+      <c r="F558" s="3" t="n"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="2" t="n"/>
+      <c r="E559" s="3" t="n"/>
+      <c r="F559" s="3" t="n"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="2" t="n"/>
+      <c r="E560" s="3" t="n"/>
+      <c r="F560" s="3" t="n"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="2" t="n"/>
+      <c r="E561" s="3" t="n"/>
+      <c r="F561" s="3" t="n"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="2" t="n"/>
+      <c r="E562" s="3" t="n"/>
+      <c r="F562" s="3" t="n"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="2" t="n"/>
+      <c r="E563" s="3" t="n"/>
+      <c r="F563" s="3" t="n"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="2" t="n"/>
+      <c r="E564" s="3" t="n"/>
+      <c r="F564" s="3" t="n"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="2" t="n"/>
+      <c r="E565" s="3" t="n"/>
+      <c r="F565" s="3" t="n"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="2" t="n"/>
+      <c r="E566" s="3" t="n"/>
+      <c r="F566" s="3" t="n"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="2" t="n"/>
+      <c r="E567" s="3" t="n"/>
+      <c r="F567" s="3" t="n"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="2" t="n"/>
+      <c r="E568" s="3" t="n"/>
+      <c r="F568" s="3" t="n"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="2" t="n"/>
+      <c r="E569" s="3" t="n"/>
+      <c r="F569" s="3" t="n"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="2" t="n"/>
+      <c r="E570" s="3" t="n"/>
+      <c r="F570" s="3" t="n"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="2" t="n"/>
+      <c r="E571" s="3" t="n"/>
+      <c r="F571" s="3" t="n"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="2" t="n"/>
+      <c r="E572" s="3" t="n"/>
+      <c r="F572" s="3" t="n"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="2" t="n"/>
+      <c r="E573" s="3" t="n"/>
+      <c r="F573" s="3" t="n"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="2" t="n"/>
+      <c r="E574" s="3" t="n"/>
+      <c r="F574" s="3" t="n"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="2" t="n"/>
+      <c r="E575" s="3" t="n"/>
+      <c r="F575" s="3" t="n"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="2" t="n"/>
+      <c r="E576" s="3" t="n"/>
+      <c r="F576" s="3" t="n"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="2" t="n"/>
+      <c r="E577" s="3" t="n"/>
+      <c r="F577" s="3" t="n"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="2" t="n"/>
+      <c r="E578" s="3" t="n"/>
+      <c r="F578" s="3" t="n"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="2" t="n"/>
+      <c r="E579" s="3" t="n"/>
+      <c r="F579" s="3" t="n"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="2" t="n"/>
+      <c r="E580" s="3" t="n"/>
+      <c r="F580" s="3" t="n"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="2" t="n"/>
+      <c r="E581" s="3" t="n"/>
+      <c r="F581" s="3" t="n"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="2" t="n"/>
+      <c r="E582" s="3" t="n"/>
+      <c r="F582" s="3" t="n"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="2" t="n"/>
+      <c r="E583" s="3" t="n"/>
+      <c r="F583" s="3" t="n"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="2" t="n"/>
+      <c r="E584" s="3" t="n"/>
+      <c r="F584" s="3" t="n"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="2" t="n"/>
+      <c r="E585" s="3" t="n"/>
+      <c r="F585" s="3" t="n"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="2" t="n"/>
+      <c r="E586" s="3" t="n"/>
+      <c r="F586" s="3" t="n"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="2" t="n"/>
+      <c r="E587" s="3" t="n"/>
+      <c r="F587" s="3" t="n"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="2" t="n"/>
+      <c r="E588" s="3" t="n"/>
+      <c r="F588" s="3" t="n"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="2" t="n"/>
+      <c r="E589" s="3" t="n"/>
+      <c r="F589" s="3" t="n"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="2" t="n"/>
+      <c r="E590" s="3" t="n"/>
+      <c r="F590" s="3" t="n"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="2" t="n"/>
+      <c r="E591" s="3" t="n"/>
+      <c r="F591" s="3" t="n"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="2" t="n"/>
+      <c r="E592" s="3" t="n"/>
+      <c r="F592" s="3" t="n"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="2" t="n"/>
+      <c r="E593" s="3" t="n"/>
+      <c r="F593" s="3" t="n"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="2" t="n"/>
+      <c r="E594" s="3" t="n"/>
+      <c r="F594" s="3" t="n"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="2" t="n"/>
+      <c r="E595" s="3" t="n"/>
+      <c r="F595" s="3" t="n"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="2" t="n"/>
+      <c r="E596" s="3" t="n"/>
+      <c r="F596" s="3" t="n"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="2" t="n"/>
+      <c r="E597" s="3" t="n"/>
+      <c r="F597" s="3" t="n"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="2" t="n"/>
+      <c r="E598" s="3" t="n"/>
+      <c r="F598" s="3" t="n"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="2" t="n"/>
+      <c r="E599" s="3" t="n"/>
+      <c r="F599" s="3" t="n"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="2" t="n"/>
+      <c r="E600" s="3" t="n"/>
+      <c r="F600" s="3" t="n"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="2" t="n"/>
+      <c r="E601" s="3" t="n"/>
+      <c r="F601" s="3" t="n"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="2" t="n"/>
+      <c r="E602" s="3" t="n"/>
+      <c r="F602" s="3" t="n"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="2" t="n"/>
+      <c r="E603" s="3" t="n"/>
+      <c r="F603" s="3" t="n"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="2" t="n"/>
+      <c r="E604" s="3" t="n"/>
+      <c r="F604" s="3" t="n"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="2" t="n"/>
+      <c r="E605" s="3" t="n"/>
+      <c r="F605" s="3" t="n"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="2" t="n"/>
+      <c r="E606" s="3" t="n"/>
+      <c r="F606" s="3" t="n"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="2" t="n"/>
+      <c r="E607" s="3" t="n"/>
+      <c r="F607" s="3" t="n"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="2" t="n"/>
+      <c r="E608" s="3" t="n"/>
+      <c r="F608" s="3" t="n"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="2" t="n"/>
+      <c r="E609" s="3" t="n"/>
+      <c r="F609" s="3" t="n"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="2" t="n"/>
+      <c r="E610" s="3" t="n"/>
+      <c r="F610" s="3" t="n"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="2" t="n"/>
+      <c r="E611" s="3" t="n"/>
+      <c r="F611" s="3" t="n"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="2" t="n"/>
+      <c r="E612" s="3" t="n"/>
+      <c r="F612" s="3" t="n"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="2" t="n"/>
+      <c r="E613" s="3" t="n"/>
+      <c r="F613" s="3" t="n"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="2" t="n"/>
+      <c r="E614" s="3" t="n"/>
+      <c r="F614" s="3" t="n"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="2" t="n"/>
+      <c r="E615" s="3" t="n"/>
+      <c r="F615" s="3" t="n"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="2" t="n"/>
+      <c r="E616" s="3" t="n"/>
+      <c r="F616" s="3" t="n"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="2" t="n"/>
+      <c r="E617" s="3" t="n"/>
+      <c r="F617" s="3" t="n"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="2" t="n"/>
+      <c r="E618" s="3" t="n"/>
+      <c r="F618" s="3" t="n"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="2" t="n"/>
+      <c r="E619" s="3" t="n"/>
+      <c r="F619" s="3" t="n"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="2" t="n"/>
+      <c r="E620" s="3" t="n"/>
+      <c r="F620" s="3" t="n"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="2" t="n"/>
+      <c r="E621" s="3" t="n"/>
+      <c r="F621" s="3" t="n"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="2" t="n"/>
+      <c r="E622" s="3" t="n"/>
+      <c r="F622" s="3" t="n"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="2" t="n"/>
+      <c r="E623" s="3" t="n"/>
+      <c r="F623" s="3" t="n"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="2" t="n"/>
+      <c r="E624" s="3" t="n"/>
+      <c r="F624" s="3" t="n"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="2" t="n"/>
+      <c r="E625" s="3" t="n"/>
+      <c r="F625" s="3" t="n"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="2" t="n"/>
+      <c r="E626" s="3" t="n"/>
+      <c r="F626" s="3" t="n"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="2" t="n"/>
+      <c r="E627" s="3" t="n"/>
+      <c r="F627" s="3" t="n"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="2" t="n"/>
+      <c r="E628" s="3" t="n"/>
+      <c r="F628" s="3" t="n"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="2" t="n"/>
+      <c r="E629" s="3" t="n"/>
+      <c r="F629" s="3" t="n"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="2" t="n"/>
+      <c r="E630" s="3" t="n"/>
+      <c r="F630" s="3" t="n"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="2" t="n"/>
+      <c r="E631" s="3" t="n"/>
+      <c r="F631" s="3" t="n"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="2" t="n"/>
+      <c r="E632" s="3" t="n"/>
+      <c r="F632" s="3" t="n"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="2" t="n"/>
+      <c r="E633" s="3" t="n"/>
+      <c r="F633" s="3" t="n"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="2" t="n"/>
+      <c r="E634" s="3" t="n"/>
+      <c r="F634" s="3" t="n"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="2" t="n"/>
+      <c r="E635" s="3" t="n"/>
+      <c r="F635" s="3" t="n"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="2" t="n"/>
+      <c r="E636" s="3" t="n"/>
+      <c r="F636" s="3" t="n"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="2" t="n"/>
+      <c r="E637" s="3" t="n"/>
+      <c r="F637" s="3" t="n"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="2" t="n"/>
+      <c r="E638" s="3" t="n"/>
+      <c r="F638" s="3" t="n"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="2" t="n"/>
+      <c r="E639" s="3" t="n"/>
+      <c r="F639" s="3" t="n"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="2" t="n"/>
+      <c r="E640" s="3" t="n"/>
+      <c r="F640" s="3" t="n"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="2" t="n"/>
+      <c r="E641" s="3" t="n"/>
+      <c r="F641" s="3" t="n"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="2" t="n"/>
+      <c r="E642" s="3" t="n"/>
+      <c r="F642" s="3" t="n"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="2" t="n"/>
+      <c r="E643" s="3" t="n"/>
+      <c r="F643" s="3" t="n"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="2" t="n"/>
+      <c r="E644" s="3" t="n"/>
+      <c r="F644" s="3" t="n"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="2" t="n"/>
+      <c r="E645" s="3" t="n"/>
+      <c r="F645" s="3" t="n"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="2" t="n"/>
+      <c r="E646" s="3" t="n"/>
+      <c r="F646" s="3" t="n"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="2" t="n"/>
+      <c r="E647" s="3" t="n"/>
+      <c r="F647" s="3" t="n"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="2" t="n"/>
+      <c r="E648" s="3" t="n"/>
+      <c r="F648" s="3" t="n"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="2" t="n"/>
+      <c r="E649" s="3" t="n"/>
+      <c r="F649" s="3" t="n"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="2" t="n"/>
+      <c r="E650" s="3" t="n"/>
+      <c r="F650" s="3" t="n"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="2" t="n"/>
+      <c r="E651" s="3" t="n"/>
+      <c r="F651" s="3" t="n"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="2" t="n"/>
+      <c r="E652" s="3" t="n"/>
+      <c r="F652" s="3" t="n"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="2" t="n"/>
+      <c r="E653" s="3" t="n"/>
+      <c r="F653" s="3" t="n"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="2" t="n"/>
+      <c r="E654" s="3" t="n"/>
+      <c r="F654" s="3" t="n"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="2" t="n"/>
+      <c r="E655" s="3" t="n"/>
+      <c r="F655" s="3" t="n"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="2" t="n"/>
+      <c r="E656" s="3" t="n"/>
+      <c r="F656" s="3" t="n"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="2" t="n"/>
+      <c r="E657" s="3" t="n"/>
+      <c r="F657" s="3" t="n"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="2" t="n"/>
+      <c r="E658" s="3" t="n"/>
+      <c r="F658" s="3" t="n"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="2" t="n"/>
+      <c r="E659" s="3" t="n"/>
+      <c r="F659" s="3" t="n"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="2" t="n"/>
+      <c r="E660" s="3" t="n"/>
+      <c r="F660" s="3" t="n"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="2" t="n"/>
+      <c r="E661" s="3" t="n"/>
+      <c r="F661" s="3" t="n"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="2" t="n"/>
+      <c r="E662" s="3" t="n"/>
+      <c r="F662" s="3" t="n"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="2" t="n"/>
+      <c r="E663" s="3" t="n"/>
+      <c r="F663" s="3" t="n"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="2" t="n"/>
+      <c r="E664" s="3" t="n"/>
+      <c r="F664" s="3" t="n"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="2" t="n"/>
+      <c r="E665" s="3" t="n"/>
+      <c r="F665" s="3" t="n"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="2" t="n"/>
+      <c r="E666" s="3" t="n"/>
+      <c r="F666" s="3" t="n"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="2" t="n"/>
+      <c r="E667" s="3" t="n"/>
+      <c r="F667" s="3" t="n"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="2" t="n"/>
+      <c r="E668" s="3" t="n"/>
+      <c r="F668" s="3" t="n"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="2" t="n"/>
+      <c r="E669" s="3" t="n"/>
+      <c r="F669" s="3" t="n"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="2" t="n"/>
+      <c r="E670" s="3" t="n"/>
+      <c r="F670" s="3" t="n"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="2" t="n"/>
+      <c r="E671" s="3" t="n"/>
+      <c r="F671" s="3" t="n"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="2" t="n"/>
+      <c r="E672" s="3" t="n"/>
+      <c r="F672" s="3" t="n"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="2" t="n"/>
+      <c r="E673" s="3" t="n"/>
+      <c r="F673" s="3" t="n"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="2" t="n"/>
+      <c r="E674" s="3" t="n"/>
+      <c r="F674" s="3" t="n"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="2" t="n"/>
+      <c r="E675" s="3" t="n"/>
+      <c r="F675" s="3" t="n"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="2" t="n"/>
+      <c r="E676" s="3" t="n"/>
+      <c r="F676" s="3" t="n"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="2" t="n"/>
+      <c r="E677" s="3" t="n"/>
+      <c r="F677" s="3" t="n"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="2" t="n"/>
+      <c r="E678" s="3" t="n"/>
+      <c r="F678" s="3" t="n"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="2" t="n"/>
+      <c r="E679" s="3" t="n"/>
+      <c r="F679" s="3" t="n"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="2" t="n"/>
+      <c r="E680" s="3" t="n"/>
+      <c r="F680" s="3" t="n"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="2" t="n"/>
+      <c r="E681" s="3" t="n"/>
+      <c r="F681" s="3" t="n"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="2" t="n"/>
+      <c r="E682" s="3" t="n"/>
+      <c r="F682" s="3" t="n"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="2" t="n"/>
+      <c r="E683" s="3" t="n"/>
+      <c r="F683" s="3" t="n"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="2" t="n"/>
+      <c r="E684" s="3" t="n"/>
+      <c r="F684" s="3" t="n"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="2" t="n"/>
+      <c r="E685" s="3" t="n"/>
+      <c r="F685" s="3" t="n"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="2" t="n"/>
+      <c r="E686" s="3" t="n"/>
+      <c r="F686" s="3" t="n"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="2" t="n"/>
+      <c r="E687" s="3" t="n"/>
+      <c r="F687" s="3" t="n"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="2" t="n"/>
+      <c r="E688" s="3" t="n"/>
+      <c r="F688" s="3" t="n"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="2" t="n"/>
+      <c r="E689" s="3" t="n"/>
+      <c r="F689" s="3" t="n"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="2" t="n"/>
+      <c r="E690" s="3" t="n"/>
+      <c r="F690" s="3" t="n"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="2" t="n"/>
+      <c r="E691" s="3" t="n"/>
+      <c r="F691" s="3" t="n"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="2" t="n"/>
+      <c r="E692" s="3" t="n"/>
+      <c r="F692" s="3" t="n"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="2" t="n"/>
+      <c r="E693" s="3" t="n"/>
+      <c r="F693" s="3" t="n"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="2" t="n"/>
+      <c r="E694" s="3" t="n"/>
+      <c r="F694" s="3" t="n"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="2" t="n"/>
+      <c r="E695" s="3" t="n"/>
+      <c r="F695" s="3" t="n"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="2" t="n"/>
+      <c r="E696" s="3" t="n"/>
+      <c r="F696" s="3" t="n"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="2" t="n"/>
+      <c r="E697" s="3" t="n"/>
+      <c r="F697" s="3" t="n"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="2" t="n"/>
+      <c r="E698" s="3" t="n"/>
+      <c r="F698" s="3" t="n"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="2" t="n"/>
+      <c r="E699" s="3" t="n"/>
+      <c r="F699" s="3" t="n"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="2" t="n"/>
+      <c r="E700" s="3" t="n"/>
+      <c r="F700" s="3" t="n"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="2" t="n"/>
+      <c r="E701" s="3" t="n"/>
+      <c r="F701" s="3" t="n"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="2" t="n"/>
+      <c r="E702" s="3" t="n"/>
+      <c r="F702" s="3" t="n"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="2" t="n"/>
+      <c r="E703" s="3" t="n"/>
+      <c r="F703" s="3" t="n"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="2" t="n"/>
+      <c r="E704" s="3" t="n"/>
+      <c r="F704" s="3" t="n"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="2" t="n"/>
+      <c r="E705" s="3" t="n"/>
+      <c r="F705" s="3" t="n"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="2" t="n"/>
+      <c r="E706" s="3" t="n"/>
+      <c r="F706" s="3" t="n"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="2" t="n"/>
+      <c r="E707" s="3" t="n"/>
+      <c r="F707" s="3" t="n"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="2" t="n"/>
+      <c r="E708" s="3" t="n"/>
+      <c r="F708" s="3" t="n"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="2" t="n"/>
+      <c r="E709" s="3" t="n"/>
+      <c r="F709" s="3" t="n"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="2" t="n"/>
+      <c r="E710" s="3" t="n"/>
+      <c r="F710" s="3" t="n"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="2" t="n"/>
+      <c r="E711" s="3" t="n"/>
+      <c r="F711" s="3" t="n"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="2" t="n"/>
+      <c r="E712" s="3" t="n"/>
+      <c r="F712" s="3" t="n"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="2" t="n"/>
+      <c r="E713" s="3" t="n"/>
+      <c r="F713" s="3" t="n"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="2" t="n"/>
+      <c r="E714" s="3" t="n"/>
+      <c r="F714" s="3" t="n"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="2" t="n"/>
+      <c r="E715" s="3" t="n"/>
+      <c r="F715" s="3" t="n"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="2" t="n"/>
+      <c r="E716" s="3" t="n"/>
+      <c r="F716" s="3" t="n"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="2" t="n"/>
+      <c r="E717" s="3" t="n"/>
+      <c r="F717" s="3" t="n"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="2" t="n"/>
+      <c r="E718" s="3" t="n"/>
+      <c r="F718" s="3" t="n"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="2" t="n"/>
+      <c r="E719" s="3" t="n"/>
+      <c r="F719" s="3" t="n"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="2" t="n"/>
+      <c r="E720" s="3" t="n"/>
+      <c r="F720" s="3" t="n"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="2" t="n"/>
+      <c r="E721" s="3" t="n"/>
+      <c r="F721" s="3" t="n"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="2" t="n"/>
+      <c r="E722" s="3" t="n"/>
+      <c r="F722" s="3" t="n"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="2" t="n"/>
+      <c r="E723" s="3" t="n"/>
+      <c r="F723" s="3" t="n"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="2" t="n"/>
+      <c r="E724" s="3" t="n"/>
+      <c r="F724" s="3" t="n"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="2" t="n"/>
+      <c r="E725" s="3" t="n"/>
+      <c r="F725" s="3" t="n"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="2" t="n"/>
+      <c r="E726" s="3" t="n"/>
+      <c r="F726" s="3" t="n"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="2" t="n"/>
+      <c r="E727" s="3" t="n"/>
+      <c r="F727" s="3" t="n"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="2" t="n"/>
+      <c r="E728" s="3" t="n"/>
+      <c r="F728" s="3" t="n"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="2" t="n"/>
+      <c r="E729" s="3" t="n"/>
+      <c r="F729" s="3" t="n"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="2" t="n"/>
+      <c r="E730" s="3" t="n"/>
+      <c r="F730" s="3" t="n"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="2" t="n"/>
+      <c r="E731" s="3" t="n"/>
+      <c r="F731" s="3" t="n"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="2" t="n"/>
+      <c r="E732" s="3" t="n"/>
+      <c r="F732" s="3" t="n"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="2" t="n"/>
+      <c r="E733" s="3" t="n"/>
+      <c r="F733" s="3" t="n"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="2" t="n"/>
+      <c r="E734" s="3" t="n"/>
+      <c r="F734" s="3" t="n"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="2" t="n"/>
+      <c r="E735" s="3" t="n"/>
+      <c r="F735" s="3" t="n"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="2" t="n"/>
+      <c r="E736" s="3" t="n"/>
+      <c r="F736" s="3" t="n"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="2" t="n"/>
+      <c r="E737" s="3" t="n"/>
+      <c r="F737" s="3" t="n"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="2" t="n"/>
+      <c r="E738" s="3" t="n"/>
+      <c r="F738" s="3" t="n"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="2" t="n"/>
+      <c r="E739" s="3" t="n"/>
+      <c r="F739" s="3" t="n"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="2" t="n"/>
+      <c r="E740" s="3" t="n"/>
+      <c r="F740" s="3" t="n"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="2" t="n"/>
+      <c r="E741" s="3" t="n"/>
+      <c r="F741" s="3" t="n"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="2" t="n"/>
+      <c r="E742" s="3" t="n"/>
+      <c r="F742" s="3" t="n"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="2" t="n"/>
+      <c r="E743" s="3" t="n"/>
+      <c r="F743" s="3" t="n"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="2" t="n"/>
+      <c r="E744" s="3" t="n"/>
+      <c r="F744" s="3" t="n"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="2" t="n"/>
+      <c r="E745" s="3" t="n"/>
+      <c r="F745" s="3" t="n"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="2" t="n"/>
+      <c r="E746" s="3" t="n"/>
+      <c r="F746" s="3" t="n"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="2" t="n"/>
+      <c r="E747" s="3" t="n"/>
+      <c r="F747" s="3" t="n"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="2" t="n"/>
+      <c r="E748" s="3" t="n"/>
+      <c r="F748" s="3" t="n"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="2" t="n"/>
+      <c r="E749" s="3" t="n"/>
+      <c r="F749" s="3" t="n"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="2" t="n"/>
+      <c r="E750" s="3" t="n"/>
+      <c r="F750" s="3" t="n"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="2" t="n"/>
+      <c r="E751" s="3" t="n"/>
+      <c r="F751" s="3" t="n"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="2" t="n"/>
+      <c r="E752" s="3" t="n"/>
+      <c r="F752" s="3" t="n"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="2" t="n"/>
+      <c r="E753" s="3" t="n"/>
+      <c r="F753" s="3" t="n"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="2" t="n"/>
+      <c r="E754" s="3" t="n"/>
+      <c r="F754" s="3" t="n"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="2" t="n"/>
+      <c r="E755" s="3" t="n"/>
+      <c r="F755" s="3" t="n"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="2" t="n"/>
+      <c r="E756" s="3" t="n"/>
+      <c r="F756" s="3" t="n"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="2" t="n"/>
+      <c r="E757" s="3" t="n"/>
+      <c r="F757" s="3" t="n"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="2" t="n"/>
+      <c r="E758" s="3" t="n"/>
+      <c r="F758" s="3" t="n"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="2" t="n"/>
+      <c r="E759" s="3" t="n"/>
+      <c r="F759" s="3" t="n"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="2" t="n"/>
+      <c r="E760" s="3" t="n"/>
+      <c r="F760" s="3" t="n"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="2" t="n"/>
+      <c r="E761" s="3" t="n"/>
+      <c r="F761" s="3" t="n"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="2" t="n"/>
+      <c r="E762" s="3" t="n"/>
+      <c r="F762" s="3" t="n"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="2" t="n"/>
+      <c r="E763" s="3" t="n"/>
+      <c r="F763" s="3" t="n"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="2" t="n"/>
+      <c r="E764" s="3" t="n"/>
+      <c r="F764" s="3" t="n"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="2" t="n"/>
+      <c r="E765" s="3" t="n"/>
+      <c r="F765" s="3" t="n"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="2" t="n"/>
+      <c r="E766" s="3" t="n"/>
+      <c r="F766" s="3" t="n"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="2" t="n"/>
+      <c r="E767" s="3" t="n"/>
+      <c r="F767" s="3" t="n"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="2" t="n"/>
+      <c r="E768" s="3" t="n"/>
+      <c r="F768" s="3" t="n"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="2" t="n"/>
+      <c r="E769" s="3" t="n"/>
+      <c r="F769" s="3" t="n"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="2" t="n"/>
+      <c r="E770" s="3" t="n"/>
+      <c r="F770" s="3" t="n"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="2" t="n"/>
+      <c r="E771" s="3" t="n"/>
+      <c r="F771" s="3" t="n"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="2" t="n"/>
+      <c r="E772" s="3" t="n"/>
+      <c r="F772" s="3" t="n"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="2" t="n"/>
+      <c r="E773" s="3" t="n"/>
+      <c r="F773" s="3" t="n"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="2" t="n"/>
+      <c r="E774" s="3" t="n"/>
+      <c r="F774" s="3" t="n"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="2" t="n"/>
+      <c r="E775" s="3" t="n"/>
+      <c r="F775" s="3" t="n"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="2" t="n"/>
+      <c r="E776" s="3" t="n"/>
+      <c r="F776" s="3" t="n"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="2" t="n"/>
+      <c r="E777" s="3" t="n"/>
+      <c r="F777" s="3" t="n"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="2" t="n"/>
+      <c r="E778" s="3" t="n"/>
+      <c r="F778" s="3" t="n"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="2" t="n"/>
+      <c r="E779" s="3" t="n"/>
+      <c r="F779" s="3" t="n"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="2" t="n"/>
+      <c r="E780" s="3" t="n"/>
+      <c r="F780" s="3" t="n"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="2" t="n"/>
+      <c r="E781" s="3" t="n"/>
+      <c r="F781" s="3" t="n"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="2" t="n"/>
+      <c r="E782" s="3" t="n"/>
+      <c r="F782" s="3" t="n"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="2" t="n"/>
+      <c r="E783" s="3" t="n"/>
+      <c r="F783" s="3" t="n"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="2" t="n"/>
+      <c r="E784" s="3" t="n"/>
+      <c r="F784" s="3" t="n"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="2" t="n"/>
+      <c r="E785" s="3" t="n"/>
+      <c r="F785" s="3" t="n"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="2" t="n"/>
+      <c r="E786" s="3" t="n"/>
+      <c r="F786" s="3" t="n"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="2" t="n"/>
+      <c r="E787" s="3" t="n"/>
+      <c r="F787" s="3" t="n"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="2" t="n"/>
+      <c r="E788" s="3" t="n"/>
+      <c r="F788" s="3" t="n"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="2" t="n"/>
+      <c r="E789" s="3" t="n"/>
+      <c r="F789" s="3" t="n"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="2" t="n"/>
+      <c r="E790" s="3" t="n"/>
+      <c r="F790" s="3" t="n"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="2" t="n"/>
+      <c r="E791" s="3" t="n"/>
+      <c r="F791" s="3" t="n"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="2" t="n"/>
+      <c r="E792" s="3" t="n"/>
+      <c r="F792" s="3" t="n"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="2" t="n"/>
+      <c r="E793" s="3" t="n"/>
+      <c r="F793" s="3" t="n"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="2" t="n"/>
+      <c r="E794" s="3" t="n"/>
+      <c r="F794" s="3" t="n"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="2" t="n"/>
+      <c r="E795" s="3" t="n"/>
+      <c r="F795" s="3" t="n"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="2" t="n"/>
+      <c r="E796" s="3" t="n"/>
+      <c r="F796" s="3" t="n"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="2" t="n"/>
+      <c r="E797" s="3" t="n"/>
+      <c r="F797" s="3" t="n"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="2" t="n"/>
+      <c r="E798" s="3" t="n"/>
+      <c r="F798" s="3" t="n"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="2" t="n"/>
+      <c r="E799" s="3" t="n"/>
+      <c r="F799" s="3" t="n"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="2" t="n"/>
+      <c r="E800" s="3" t="n"/>
+      <c r="F800" s="3" t="n"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="2" t="n"/>
+      <c r="E801" s="3" t="n"/>
+      <c r="F801" s="3" t="n"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="2" t="n"/>
+      <c r="E802" s="3" t="n"/>
+      <c r="F802" s="3" t="n"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="2" t="n"/>
+      <c r="E803" s="3" t="n"/>
+      <c r="F803" s="3" t="n"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="2" t="n"/>
+      <c r="E804" s="3" t="n"/>
+      <c r="F804" s="3" t="n"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="2" t="n"/>
+      <c r="E805" s="3" t="n"/>
+      <c r="F805" s="3" t="n"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="2" t="n"/>
+      <c r="E806" s="3" t="n"/>
+      <c r="F806" s="3" t="n"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="2" t="n"/>
+      <c r="E807" s="3" t="n"/>
+      <c r="F807" s="3" t="n"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="2" t="n"/>
+      <c r="E808" s="3" t="n"/>
+      <c r="F808" s="3" t="n"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="2" t="n"/>
+      <c r="E809" s="3" t="n"/>
+      <c r="F809" s="3" t="n"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="2" t="n"/>
+      <c r="E810" s="3" t="n"/>
+      <c r="F810" s="3" t="n"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="2" t="n"/>
+      <c r="E811" s="3" t="n"/>
+      <c r="F811" s="3" t="n"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="2" t="n"/>
+      <c r="E812" s="3" t="n"/>
+      <c r="F812" s="3" t="n"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="2" t="n"/>
+      <c r="E813" s="3" t="n"/>
+      <c r="F813" s="3" t="n"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="2" t="n"/>
+      <c r="E814" s="3" t="n"/>
+      <c r="F814" s="3" t="n"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="2" t="n"/>
+      <c r="E815" s="3" t="n"/>
+      <c r="F815" s="3" t="n"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="2" t="n"/>
+      <c r="E816" s="3" t="n"/>
+      <c r="F816" s="3" t="n"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="2" t="n"/>
+      <c r="E817" s="3" t="n"/>
+      <c r="F817" s="3" t="n"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="2" t="n"/>
+      <c r="E818" s="3" t="n"/>
+      <c r="F818" s="3" t="n"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="2" t="n"/>
+      <c r="E819" s="3" t="n"/>
+      <c r="F819" s="3" t="n"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="2" t="n"/>
+      <c r="E820" s="3" t="n"/>
+      <c r="F820" s="3" t="n"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="2" t="n"/>
+      <c r="E821" s="3" t="n"/>
+      <c r="F821" s="3" t="n"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="2" t="n"/>
+      <c r="E822" s="3" t="n"/>
+      <c r="F822" s="3" t="n"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="2" t="n"/>
+      <c r="E823" s="3" t="n"/>
+      <c r="F823" s="3" t="n"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="2" t="n"/>
+      <c r="E824" s="3" t="n"/>
+      <c r="F824" s="3" t="n"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="2" t="n"/>
+      <c r="E825" s="3" t="n"/>
+      <c r="F825" s="3" t="n"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="2" t="n"/>
+      <c r="E826" s="3" t="n"/>
+      <c r="F826" s="3" t="n"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="2" t="n"/>
+      <c r="E827" s="3" t="n"/>
+      <c r="F827" s="3" t="n"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="2" t="n"/>
+      <c r="E828" s="3" t="n"/>
+      <c r="F828" s="3" t="n"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="2" t="n"/>
+      <c r="E829" s="3" t="n"/>
+      <c r="F829" s="3" t="n"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="2" t="n"/>
+      <c r="E830" s="3" t="n"/>
+      <c r="F830" s="3" t="n"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="2" t="n"/>
+      <c r="E831" s="3" t="n"/>
+      <c r="F831" s="3" t="n"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="2" t="n"/>
+      <c r="E832" s="3" t="n"/>
+      <c r="F832" s="3" t="n"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="2" t="n"/>
+      <c r="E833" s="3" t="n"/>
+      <c r="F833" s="3" t="n"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="2" t="n"/>
+      <c r="E834" s="3" t="n"/>
+      <c r="F834" s="3" t="n"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="2" t="n"/>
+      <c r="E835" s="3" t="n"/>
+      <c r="F835" s="3" t="n"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="2" t="n"/>
+      <c r="E836" s="3" t="n"/>
+      <c r="F836" s="3" t="n"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="2" t="n"/>
+      <c r="E837" s="3" t="n"/>
+      <c r="F837" s="3" t="n"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="2" t="n"/>
+      <c r="E838" s="3" t="n"/>
+      <c r="F838" s="3" t="n"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="2" t="n"/>
+      <c r="E839" s="3" t="n"/>
+      <c r="F839" s="3" t="n"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="2" t="n"/>
+      <c r="E840" s="3" t="n"/>
+      <c r="F840" s="3" t="n"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="2" t="n"/>
+      <c r="E841" s="3" t="n"/>
+      <c r="F841" s="3" t="n"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="2" t="n"/>
+      <c r="E842" s="3" t="n"/>
+      <c r="F842" s="3" t="n"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="2" t="n"/>
+      <c r="E843" s="3" t="n"/>
+      <c r="F843" s="3" t="n"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="2" t="n"/>
+      <c r="E844" s="3" t="n"/>
+      <c r="F844" s="3" t="n"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="2" t="n"/>
+      <c r="E845" s="3" t="n"/>
+      <c r="F845" s="3" t="n"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="2" t="n"/>
+      <c r="E846" s="3" t="n"/>
+      <c r="F846" s="3" t="n"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="2" t="n"/>
+      <c r="E847" s="3" t="n"/>
+      <c r="F847" s="3" t="n"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="2" t="n"/>
+      <c r="E848" s="3" t="n"/>
+      <c r="F848" s="3" t="n"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="2" t="n"/>
+      <c r="E849" s="3" t="n"/>
+      <c r="F849" s="3" t="n"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="2" t="n"/>
+      <c r="E850" s="3" t="n"/>
+      <c r="F850" s="3" t="n"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="2" t="n"/>
+      <c r="E851" s="3" t="n"/>
+      <c r="F851" s="3" t="n"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="2" t="n"/>
+      <c r="E852" s="3" t="n"/>
+      <c r="F852" s="3" t="n"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="2" t="n"/>
+      <c r="E853" s="3" t="n"/>
+      <c r="F853" s="3" t="n"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="2" t="n"/>
+      <c r="E854" s="3" t="n"/>
+      <c r="F854" s="3" t="n"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="2" t="n"/>
+      <c r="E855" s="3" t="n"/>
+      <c r="F855" s="3" t="n"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="2" t="n"/>
+      <c r="E856" s="3" t="n"/>
+      <c r="F856" s="3" t="n"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="2" t="n"/>
+      <c r="E857" s="3" t="n"/>
+      <c r="F857" s="3" t="n"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="2" t="n"/>
+      <c r="E858" s="3" t="n"/>
+      <c r="F858" s="3" t="n"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="2" t="n"/>
+      <c r="E859" s="3" t="n"/>
+      <c r="F859" s="3" t="n"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="2" t="n"/>
+      <c r="E860" s="3" t="n"/>
+      <c r="F860" s="3" t="n"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="2" t="n"/>
+      <c r="E861" s="3" t="n"/>
+      <c r="F861" s="3" t="n"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="2" t="n"/>
+      <c r="E862" s="3" t="n"/>
+      <c r="F862" s="3" t="n"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="2" t="n"/>
+      <c r="E863" s="3" t="n"/>
+      <c r="F863" s="3" t="n"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="2" t="n"/>
+      <c r="E864" s="3" t="n"/>
+      <c r="F864" s="3" t="n"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="2" t="n"/>
+      <c r="E865" s="3" t="n"/>
+      <c r="F865" s="3" t="n"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="2" t="n"/>
+      <c r="E866" s="3" t="n"/>
+      <c r="F866" s="3" t="n"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="2" t="n"/>
+      <c r="E867" s="3" t="n"/>
+      <c r="F867" s="3" t="n"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="2" t="n"/>
+      <c r="E868" s="3" t="n"/>
+      <c r="F868" s="3" t="n"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="2" t="n"/>
+      <c r="E869" s="3" t="n"/>
+      <c r="F869" s="3" t="n"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="2" t="n"/>
+      <c r="E870" s="3" t="n"/>
+      <c r="F870" s="3" t="n"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="2" t="n"/>
+      <c r="E871" s="3" t="n"/>
+      <c r="F871" s="3" t="n"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="2" t="n"/>
+      <c r="E872" s="3" t="n"/>
+      <c r="F872" s="3" t="n"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="2" t="n"/>
+      <c r="E873" s="3" t="n"/>
+      <c r="F873" s="3" t="n"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="2" t="n"/>
+      <c r="E874" s="3" t="n"/>
+      <c r="F874" s="3" t="n"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="2" t="n"/>
+      <c r="E875" s="3" t="n"/>
+      <c r="F875" s="3" t="n"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="2" t="n"/>
+      <c r="E876" s="3" t="n"/>
+      <c r="F876" s="3" t="n"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="2" t="n"/>
+      <c r="E877" s="3" t="n"/>
+      <c r="F877" s="3" t="n"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="2" t="n"/>
+      <c r="E878" s="3" t="n"/>
+      <c r="F878" s="3" t="n"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="2" t="n"/>
+      <c r="E879" s="3" t="n"/>
+      <c r="F879" s="3" t="n"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="2" t="n"/>
+      <c r="E880" s="3" t="n"/>
+      <c r="F880" s="3" t="n"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="2" t="n"/>
+      <c r="E881" s="3" t="n"/>
+      <c r="F881" s="3" t="n"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="2" t="n"/>
+      <c r="E882" s="3" t="n"/>
+      <c r="F882" s="3" t="n"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="2" t="n"/>
+      <c r="E883" s="3" t="n"/>
+      <c r="F883" s="3" t="n"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="2" t="n"/>
+      <c r="E884" s="3" t="n"/>
+      <c r="F884" s="3" t="n"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="2" t="n"/>
+      <c r="E885" s="3" t="n"/>
+      <c r="F885" s="3" t="n"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="2" t="n"/>
+      <c r="E886" s="3" t="n"/>
+      <c r="F886" s="3" t="n"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="2" t="n"/>
+      <c r="E887" s="3" t="n"/>
+      <c r="F887" s="3" t="n"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="2" t="n"/>
+      <c r="E888" s="3" t="n"/>
+      <c r="F888" s="3" t="n"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="2" t="n"/>
+      <c r="E889" s="3" t="n"/>
+      <c r="F889" s="3" t="n"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="2" t="n"/>
+      <c r="E890" s="3" t="n"/>
+      <c r="F890" s="3" t="n"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="2" t="n"/>
+      <c r="E891" s="3" t="n"/>
+      <c r="F891" s="3" t="n"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="2" t="n"/>
+      <c r="E892" s="3" t="n"/>
+      <c r="F892" s="3" t="n"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="2" t="n"/>
+      <c r="E893" s="3" t="n"/>
+      <c r="F893" s="3" t="n"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="2" t="n"/>
+      <c r="E894" s="3" t="n"/>
+      <c r="F894" s="3" t="n"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="2" t="n"/>
+      <c r="E895" s="3" t="n"/>
+      <c r="F895" s="3" t="n"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="2" t="n"/>
+      <c r="E896" s="3" t="n"/>
+      <c r="F896" s="3" t="n"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="2" t="n"/>
+      <c r="E897" s="3" t="n"/>
+      <c r="F897" s="3" t="n"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="2" t="n"/>
+      <c r="E898" s="3" t="n"/>
+      <c r="F898" s="3" t="n"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="2" t="n"/>
+      <c r="E899" s="3" t="n"/>
+      <c r="F899" s="3" t="n"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="2" t="n"/>
+      <c r="E900" s="3" t="n"/>
+      <c r="F900" s="3" t="n"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="2" t="n"/>
+      <c r="E901" s="3" t="n"/>
+      <c r="F901" s="3" t="n"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="2" t="n"/>
+      <c r="E902" s="3" t="n"/>
+      <c r="F902" s="3" t="n"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="2" t="n"/>
+      <c r="E903" s="3" t="n"/>
+      <c r="F903" s="3" t="n"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="2" t="n"/>
+      <c r="E904" s="3" t="n"/>
+      <c r="F904" s="3" t="n"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="2" t="n"/>
+      <c r="E905" s="3" t="n"/>
+      <c r="F905" s="3" t="n"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="2" t="n"/>
+      <c r="E906" s="3" t="n"/>
+      <c r="F906" s="3" t="n"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="2" t="n"/>
+      <c r="E907" s="3" t="n"/>
+      <c r="F907" s="3" t="n"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="2" t="n"/>
+      <c r="E908" s="3" t="n"/>
+      <c r="F908" s="3" t="n"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="2" t="n"/>
+      <c r="E909" s="3" t="n"/>
+      <c r="F909" s="3" t="n"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="2" t="n"/>
+      <c r="E910" s="3" t="n"/>
+      <c r="F910" s="3" t="n"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="2" t="n"/>
+      <c r="E911" s="3" t="n"/>
+      <c r="F911" s="3" t="n"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="2" t="n"/>
+      <c r="E912" s="3" t="n"/>
+      <c r="F912" s="3" t="n"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="2" t="n"/>
+      <c r="E913" s="3" t="n"/>
+      <c r="F913" s="3" t="n"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="2" t="n"/>
+      <c r="E914" s="3" t="n"/>
+      <c r="F914" s="3" t="n"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="2" t="n"/>
+      <c r="E915" s="3" t="n"/>
+      <c r="F915" s="3" t="n"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="2" t="n"/>
+      <c r="E916" s="3" t="n"/>
+      <c r="F916" s="3" t="n"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="2" t="n"/>
+      <c r="E917" s="3" t="n"/>
+      <c r="F917" s="3" t="n"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="2" t="n"/>
+      <c r="E918" s="3" t="n"/>
+      <c r="F918" s="3" t="n"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="2" t="n"/>
+      <c r="E919" s="3" t="n"/>
+      <c r="F919" s="3" t="n"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="2" t="n"/>
+      <c r="E920" s="3" t="n"/>
+      <c r="F920" s="3" t="n"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="2" t="n"/>
+      <c r="E921" s="3" t="n"/>
+      <c r="F921" s="3" t="n"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="2" t="n"/>
+      <c r="E922" s="3" t="n"/>
+      <c r="F922" s="3" t="n"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="2" t="n"/>
+      <c r="E923" s="3" t="n"/>
+      <c r="F923" s="3" t="n"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="2" t="n"/>
+      <c r="E924" s="3" t="n"/>
+      <c r="F924" s="3" t="n"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="2" t="n"/>
+      <c r="E925" s="3" t="n"/>
+      <c r="F925" s="3" t="n"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="2" t="n"/>
+      <c r="E926" s="3" t="n"/>
+      <c r="F926" s="3" t="n"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="2" t="n"/>
+      <c r="E927" s="3" t="n"/>
+      <c r="F927" s="3" t="n"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="2" t="n"/>
+      <c r="E928" s="3" t="n"/>
+      <c r="F928" s="3" t="n"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="2" t="n"/>
+      <c r="E929" s="3" t="n"/>
+      <c r="F929" s="3" t="n"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="2" t="n"/>
+      <c r="E930" s="3" t="n"/>
+      <c r="F930" s="3" t="n"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="2" t="n"/>
+      <c r="E931" s="3" t="n"/>
+      <c r="F931" s="3" t="n"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="2" t="n"/>
+      <c r="E932" s="3" t="n"/>
+      <c r="F932" s="3" t="n"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="2" t="n"/>
+      <c r="E933" s="3" t="n"/>
+      <c r="F933" s="3" t="n"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="2" t="n"/>
+      <c r="E934" s="3" t="n"/>
+      <c r="F934" s="3" t="n"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="2" t="n"/>
+      <c r="E935" s="3" t="n"/>
+      <c r="F935" s="3" t="n"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="2" t="n"/>
+      <c r="E936" s="3" t="n"/>
+      <c r="F936" s="3" t="n"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="2" t="n"/>
+      <c r="E937" s="3" t="n"/>
+      <c r="F937" s="3" t="n"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="2" t="n"/>
+      <c r="E938" s="3" t="n"/>
+      <c r="F938" s="3" t="n"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="2" t="n"/>
+      <c r="E939" s="3" t="n"/>
+      <c r="F939" s="3" t="n"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="2" t="n"/>
+      <c r="E940" s="3" t="n"/>
+      <c r="F940" s="3" t="n"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="2" t="n"/>
+      <c r="E941" s="3" t="n"/>
+      <c r="F941" s="3" t="n"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="2" t="n"/>
+      <c r="E942" s="3" t="n"/>
+      <c r="F942" s="3" t="n"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="2" t="n"/>
+      <c r="E943" s="3" t="n"/>
+      <c r="F943" s="3" t="n"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="2" t="n"/>
+      <c r="E944" s="3" t="n"/>
+      <c r="F944" s="3" t="n"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="2" t="n"/>
+      <c r="E945" s="3" t="n"/>
+      <c r="F945" s="3" t="n"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="2" t="n"/>
+      <c r="E946" s="3" t="n"/>
+      <c r="F946" s="3" t="n"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="2" t="n"/>
+      <c r="E947" s="3" t="n"/>
+      <c r="F947" s="3" t="n"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="2" t="n"/>
+      <c r="E948" s="3" t="n"/>
+      <c r="F948" s="3" t="n"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="2" t="n"/>
+      <c r="E949" s="3" t="n"/>
+      <c r="F949" s="3" t="n"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="2" t="n"/>
+      <c r="E950" s="3" t="n"/>
+      <c r="F950" s="3" t="n"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="2" t="n"/>
+      <c r="E951" s="3" t="n"/>
+      <c r="F951" s="3" t="n"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="2" t="n"/>
+      <c r="E952" s="3" t="n"/>
+      <c r="F952" s="3" t="n"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="2" t="n"/>
+      <c r="E953" s="3" t="n"/>
+      <c r="F953" s="3" t="n"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="2" t="n"/>
+      <c r="E954" s="3" t="n"/>
+      <c r="F954" s="3" t="n"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="2" t="n"/>
+      <c r="E955" s="3" t="n"/>
+      <c r="F955" s="3" t="n"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="2" t="n"/>
+      <c r="E956" s="3" t="n"/>
+      <c r="F956" s="3" t="n"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="2" t="n"/>
+      <c r="E957" s="3" t="n"/>
+      <c r="F957" s="3" t="n"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="2" t="n"/>
+      <c r="E958" s="3" t="n"/>
+      <c r="F958" s="3" t="n"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="2" t="n"/>
+      <c r="E959" s="3" t="n"/>
+      <c r="F959" s="3" t="n"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="2" t="n"/>
+      <c r="E960" s="3" t="n"/>
+      <c r="F960" s="3" t="n"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="2" t="n"/>
+      <c r="E961" s="3" t="n"/>
+      <c r="F961" s="3" t="n"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="2" t="n"/>
+      <c r="E962" s="3" t="n"/>
+      <c r="F962" s="3" t="n"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="2" t="n"/>
+      <c r="E963" s="3" t="n"/>
+      <c r="F963" s="3" t="n"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="2" t="n"/>
+      <c r="E964" s="3" t="n"/>
+      <c r="F964" s="3" t="n"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="2" t="n"/>
+      <c r="E965" s="3" t="n"/>
+      <c r="F965" s="3" t="n"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="2" t="n"/>
+      <c r="E966" s="3" t="n"/>
+      <c r="F966" s="3" t="n"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="2" t="n"/>
+      <c r="E967" s="3" t="n"/>
+      <c r="F967" s="3" t="n"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="2" t="n"/>
+      <c r="E968" s="3" t="n"/>
+      <c r="F968" s="3" t="n"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="2" t="n"/>
+      <c r="E969" s="3" t="n"/>
+      <c r="F969" s="3" t="n"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="2" t="n"/>
+      <c r="E970" s="3" t="n"/>
+      <c r="F970" s="3" t="n"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="2" t="n"/>
+      <c r="E971" s="3" t="n"/>
+      <c r="F971" s="3" t="n"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="2" t="n"/>
+      <c r="E972" s="3" t="n"/>
+      <c r="F972" s="3" t="n"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="2" t="n"/>
+      <c r="E973" s="3" t="n"/>
+      <c r="F973" s="3" t="n"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="2" t="n"/>
+      <c r="E974" s="3" t="n"/>
+      <c r="F974" s="3" t="n"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="2" t="n"/>
+      <c r="E975" s="3" t="n"/>
+      <c r="F975" s="3" t="n"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="2" t="n"/>
+      <c r="E976" s="3" t="n"/>
+      <c r="F976" s="3" t="n"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="2" t="n"/>
+      <c r="E977" s="3" t="n"/>
+      <c r="F977" s="3" t="n"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="2" t="n"/>
+      <c r="E978" s="3" t="n"/>
+      <c r="F978" s="3" t="n"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="2" t="n"/>
+      <c r="E979" s="3" t="n"/>
+      <c r="F979" s="3" t="n"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="2" t="n"/>
+      <c r="E980" s="3" t="n"/>
+      <c r="F980" s="3" t="n"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="2" t="n"/>
+      <c r="E981" s="3" t="n"/>
+      <c r="F981" s="3" t="n"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="2" t="n"/>
+      <c r="E982" s="3" t="n"/>
+      <c r="F982" s="3" t="n"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="2" t="n"/>
+      <c r="E983" s="3" t="n"/>
+      <c r="F983" s="3" t="n"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="2" t="n"/>
+      <c r="E984" s="3" t="n"/>
+      <c r="F984" s="3" t="n"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="2" t="n"/>
+      <c r="E985" s="3" t="n"/>
+      <c r="F985" s="3" t="n"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="2" t="n"/>
+      <c r="E986" s="3" t="n"/>
+      <c r="F986" s="3" t="n"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="2" t="n"/>
+      <c r="E987" s="3" t="n"/>
+      <c r="F987" s="3" t="n"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="2" t="n"/>
+      <c r="E988" s="3" t="n"/>
+      <c r="F988" s="3" t="n"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="2" t="n"/>
+      <c r="E989" s="3" t="n"/>
+      <c r="F989" s="3" t="n"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="2" t="n"/>
+      <c r="E990" s="3" t="n"/>
+      <c r="F990" s="3" t="n"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="2" t="n"/>
+      <c r="E991" s="3" t="n"/>
+      <c r="F991" s="3" t="n"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="2" t="n"/>
+      <c r="E992" s="3" t="n"/>
+      <c r="F992" s="3" t="n"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="2" t="n"/>
+      <c r="E993" s="3" t="n"/>
+      <c r="F993" s="3" t="n"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="2" t="n"/>
+      <c r="E994" s="3" t="n"/>
+      <c r="F994" s="3" t="n"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="2" t="n"/>
+      <c r="E995" s="3" t="n"/>
+      <c r="F995" s="3" t="n"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="2" t="n"/>
+      <c r="E996" s="3" t="n"/>
+      <c r="F996" s="3" t="n"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="2" t="n"/>
+      <c r="E997" s="3" t="n"/>
+      <c r="F997" s="3" t="n"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="2" t="n"/>
+      <c r="E998" s="3" t="n"/>
+      <c r="F998" s="3" t="n"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="2" t="n"/>
+      <c r="E999" s="3" t="n"/>
+      <c r="F999" s="3" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="2" t="n"/>
+      <c r="E1000" s="3" t="n"/>
+      <c r="F1000" s="3" t="n"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="A2:A1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="輸入錯誤" error="必須填寫 R 或 D" type="list">
+      <formula1>"R,D"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K2:K1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="輸入錯誤" error="請選擇 4A 或 台客" type="list">
+      <formula1>"4A,台客"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="輸入無效" error="請選擇清單中的項目" promptTitle="選擇轉換定義" prompt="請從選單選擇轉換定義" type="list">
+      <formula1>"CompleteCheckout,AddToCart,ViewContent,Checkout,Bookmark,Search,CompleteRegistration"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>